--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_25_19.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_25_19.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>481089.6332646931</v>
+        <v>572993.6190112259</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8088944.869226765</v>
+        <v>8547013.059513938</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8722880.896883905</v>
+        <v>8506890.903312845</v>
       </c>
     </row>
     <row r="11">
@@ -656,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="C2" t="n">
-        <v>165.1725371760944</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -677,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>6.396723986041487</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,16 +709,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>158.7758131900531</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="U2" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -725,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>187.5255871663199</v>
+        <v>187.52558716632</v>
       </c>
     </row>
     <row r="3">
@@ -750,7 +752,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>130.4949840230017</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -759,7 +761,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265839</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -783,28 +785,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>72.4328956284632</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>187.5255871663199</v>
+        <v>187.52558716632</v>
       </c>
       <c r="V3" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>149.793316143436</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
     </row>
     <row r="4">
@@ -838,10 +840,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>38.1116363604059</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>14.10430989402852</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -862,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>52.21594625443444</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -905,13 +907,13 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="I5" t="n">
         <v>125.4713171199747</v>
@@ -944,16 +946,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>158.7758131900531</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>68.45099403238667</v>
+        <v>39.70122005611984</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -978,10 +980,10 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>113.7456791730047</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>85.71605677037243</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -993,10 +995,10 @@
         <v>100.8417573507397</v>
       </c>
       <c r="I6" t="n">
-        <v>58.90455890409149</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>15.37922103265839</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1020,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>72.43289562846319</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1032,7 +1034,7 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -1075,10 +1077,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>52.21594625443443</v>
+        <v>38.11163636040603</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>14.1043098940285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1133,25 +1135,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>161.6815518675532</v>
+        <v>187.52558716632</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>411.8707348436268</v>
+        <v>187.52558716632</v>
       </c>
       <c r="H8" t="n">
-        <v>304.326804756183</v>
+        <v>187.52558716632</v>
       </c>
       <c r="I8" t="n">
-        <v>78.16360657708299</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>39.70122005611995</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1199,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1212,16 +1214,16 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1257,25 +1259,25 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>31.66886087721431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>137.5750138932992</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T9" t="n">
-        <v>192.7632183107638</v>
+        <v>187.52558716632</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8205739680685</v>
+        <v>187.52558716632</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>187.52558716632</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>15.40229248514479</v>
       </c>
       <c r="X9" t="n">
-        <v>10.43817752600981</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1303,16 +1305,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>65.63512030001876</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>148.5398113612452</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>109.1541654470835</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>18.15430933923925</v>
+        <v>52.21594625443454</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,10 +1335,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>22.59469128425553</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>108.0728512656386</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1376,19 +1378,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>194.3606546765268</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>265.9318059937551</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,19 +1420,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1467,7 +1469,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247723</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1531,7 +1533,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>57.91073356940661</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1540,7 +1542,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>164.2532214802698</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
         <v>144.7550149143208</v>
@@ -1573,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1604,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>160.0317554412391</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1616,13 +1618,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
-        <v>267.3434267027885</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>41.57692977292595</v>
@@ -1664,7 +1666,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1771,10 +1773,10 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>14.57567088453384</v>
       </c>
       <c r="F16" t="n">
-        <v>13.56275626089594</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>166.0258082590282</v>
@@ -1844,13 +1846,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1859,7 +1861,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
-        <v>227.7359967734943</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>116.9388157418486</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1907,7 +1909,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -1932,7 +1934,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>145.0692123933836</v>
       </c>
       <c r="G18" t="n">
         <v>134.9994691657081</v>
@@ -1999,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>88.8970056106058</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2050,16 +2052,16 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2068,7 +2070,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>150.3013276789176</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2081,13 +2083,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>328.9725371167045</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>203.9179701396201</v>
@@ -2141,13 +2143,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>57.21379282842584</v>
       </c>
     </row>
     <row r="21">
@@ -2205,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2245,10 +2247,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>108.3633977605943</v>
+        <v>124.4272108043261</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2257,7 +2259,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2302,7 +2304,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2330,13 +2332,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>410.9217256534534</v>
+        <v>257.7334123000961</v>
       </c>
       <c r="H23" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>203.9179701396201</v>
@@ -2375,7 +2377,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -2384,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>23.79925355567503</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2412,7 +2414,7 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H24" t="n">
-        <v>89.59687541851092</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I24" t="n">
         <v>18.81721868247742</v>
@@ -2473,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>90.12532022703185</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,10 +2526,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>160.8915086215178</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -2536,13 +2538,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2558,7 +2560,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2570,7 +2572,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H26" t="n">
-        <v>294.6077643873205</v>
+        <v>138.8992180371971</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2609,10 +2611,10 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U26" t="n">
-        <v>68.35584245823229</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2679,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2710,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>70.53347461457284</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2764,22 +2766,22 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>127.3385186497852</v>
       </c>
     </row>
     <row r="29">
@@ -2789,10 +2791,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -2804,13 +2806,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>410.9217256534534</v>
+        <v>267.3172025050105</v>
       </c>
       <c r="H29" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,22 +2842,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>31.23712159276612</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2995,22 +2997,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>20.95866062610916</v>
       </c>
       <c r="U31" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
-        <v>61.36917500887014</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3026,10 +3028,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>42.64559995940405</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -3041,13 +3043,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>410.9217256534534</v>
+        <v>267.3172025050092</v>
       </c>
       <c r="H32" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3083,7 +3085,7 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3092,10 +3094,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3153,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3184,22 +3186,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>28.03004253565322</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3232,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>3.545462884864218</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -3253,7 +3255,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3272,13 +3274,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3317,13 +3319,13 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>28.93382893561998</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V35" t="n">
-        <v>229.796569204137</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3390,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3421,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3433,16 +3435,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
-        <v>82.11246327371903</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,13 +3474,13 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>49.74773411038512</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -3490,7 +3492,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3515,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>239.3447361355277</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3551,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>250.995171958902</v>
+        <v>229.796569204137</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -3566,7 +3568,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3597,7 +3599,7 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H39" t="n">
-        <v>89.59687541851095</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I39" t="n">
         <v>18.81721868247742</v>
@@ -3673,13 +3675,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>106.4735778903238</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,25 +3708,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>20.95866062610916</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3743,22 +3745,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>173.5578851713661</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H41" t="n">
-        <v>184.1739595194687</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3864,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3901,7 +3903,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>12.80633068795266</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -3910,13 +3912,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>82.47971853714279</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3989,7 +3991,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>385.6774429869462</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4028,13 +4030,13 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U44" t="n">
-        <v>250.995171958902</v>
+        <v>105.0023863360933</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -4132,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>20.95866062610916</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4189,7 +4191,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4198,10 +4200,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>81.46084344268519</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>181.8429936158252</v>
+        <v>21.46338433294346</v>
       </c>
       <c r="C2" t="n">
-        <v>15.00204697330559</v>
+        <v>21.46338433294346</v>
       </c>
       <c r="D2" t="n">
-        <v>15.00204697330559</v>
+        <v>21.46338433294346</v>
       </c>
       <c r="E2" t="n">
-        <v>15.00204697330559</v>
+        <v>21.46338433294346</v>
       </c>
       <c r="F2" t="n">
-        <v>15.00204697330559</v>
+        <v>21.46338433294346</v>
       </c>
       <c r="G2" t="n">
-        <v>15.00204697330559</v>
+        <v>21.46338433294346</v>
       </c>
       <c r="H2" t="n">
-        <v>15.00204697330559</v>
+        <v>21.46338433294346</v>
       </c>
       <c r="I2" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J2" t="n">
-        <v>21.03371160678478</v>
+        <v>21.03371160678498</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058939</v>
+        <v>80.81213159058962</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079184</v>
+        <v>191.8743094079188</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644753</v>
+        <v>347.1218190644759</v>
       </c>
       <c r="N2" t="n">
-        <v>509.4952041123826</v>
+        <v>509.4952041123832</v>
       </c>
       <c r="O2" t="n">
-        <v>649.484525998558</v>
+        <v>649.4845259985584</v>
       </c>
       <c r="P2" t="n">
-        <v>734.4611726020263</v>
+        <v>734.4611726020266</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="R2" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="S2" t="n">
-        <v>750.1023486652795</v>
+        <v>589.7227393823979</v>
       </c>
       <c r="T2" t="n">
-        <v>750.1023486652795</v>
+        <v>400.3029543659131</v>
       </c>
       <c r="U2" t="n">
-        <v>560.6825636487947</v>
+        <v>400.3029543659131</v>
       </c>
       <c r="V2" t="n">
-        <v>371.26277863231</v>
+        <v>400.3029543659131</v>
       </c>
       <c r="W2" t="n">
-        <v>371.26277863231</v>
+        <v>400.3029543659131</v>
       </c>
       <c r="X2" t="n">
-        <v>371.26277863231</v>
+        <v>400.3029543659131</v>
       </c>
       <c r="Y2" t="n">
-        <v>181.8429936158252</v>
+        <v>210.8831693494283</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>30.53661367296053</v>
+        <v>146.8151621480548</v>
       </c>
       <c r="C3" t="n">
-        <v>30.53661367296053</v>
+        <v>146.8151621480548</v>
       </c>
       <c r="D3" t="n">
-        <v>30.53661367296053</v>
+        <v>146.8151621480548</v>
       </c>
       <c r="E3" t="n">
-        <v>30.53661367296053</v>
+        <v>146.8151621480548</v>
       </c>
       <c r="F3" t="n">
-        <v>30.53661367296053</v>
+        <v>146.8151621480548</v>
       </c>
       <c r="G3" t="n">
-        <v>30.53661367296053</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="H3" t="n">
-        <v>30.53661367296053</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I3" t="n">
-        <v>30.53661367296053</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J3" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="K3" t="n">
-        <v>67.13418877024208</v>
+        <v>67.13418877024228</v>
       </c>
       <c r="L3" t="n">
-        <v>183.5548280772649</v>
+        <v>183.554828077265</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140244</v>
+        <v>338.7690911140245</v>
       </c>
       <c r="N3" t="n">
-        <v>512.5000587546601</v>
+        <v>512.5000587546602</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476348</v>
+        <v>649.2101578476349</v>
       </c>
       <c r="P3" t="n">
-        <v>739.598998701706</v>
+        <v>739.5989987017064</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="R3" t="n">
-        <v>750.1023486652795</v>
+        <v>676.9378076264281</v>
       </c>
       <c r="S3" t="n">
-        <v>750.1023486652795</v>
+        <v>525.6547321810244</v>
       </c>
       <c r="T3" t="n">
-        <v>750.1023486652795</v>
+        <v>525.6547321810244</v>
       </c>
       <c r="U3" t="n">
-        <v>560.6825636487947</v>
+        <v>336.2349471645396</v>
       </c>
       <c r="V3" t="n">
-        <v>371.26277863231</v>
+        <v>336.2349471645396</v>
       </c>
       <c r="W3" t="n">
-        <v>181.8429936158252</v>
+        <v>336.2349471645396</v>
       </c>
       <c r="X3" t="n">
-        <v>30.53661367296053</v>
+        <v>336.2349471645396</v>
       </c>
       <c r="Y3" t="n">
-        <v>30.53661367296053</v>
+        <v>146.8151621480548</v>
       </c>
     </row>
     <row r="4">
@@ -4462,37 +4464,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>15.00204697330559</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="C4" t="n">
-        <v>15.00204697330559</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="D4" t="n">
-        <v>15.00204697330559</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="E4" t="n">
-        <v>15.00204697330559</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="F4" t="n">
-        <v>15.00204697330559</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="G4" t="n">
-        <v>15.00204697330559</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="H4" t="n">
-        <v>15.00204697330559</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="I4" t="n">
-        <v>15.00204697330559</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="J4" t="n">
-        <v>15.00204697330559</v>
+        <v>29.24882464404147</v>
       </c>
       <c r="K4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="L4" t="n">
-        <v>27.03967056230175</v>
+        <v>27.03967056230176</v>
       </c>
       <c r="M4" t="n">
         <v>42.98993985170716</v>
@@ -4510,28 +4512,28 @@
         <v>67.74542702828987</v>
       </c>
       <c r="R4" t="n">
-        <v>15.00204697330559</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="S4" t="n">
-        <v>15.00204697330559</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="T4" t="n">
-        <v>15.00204697330559</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="U4" t="n">
-        <v>15.00204697330559</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="V4" t="n">
-        <v>15.00204697330559</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="W4" t="n">
-        <v>15.00204697330559</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="X4" t="n">
-        <v>15.00204697330559</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="Y4" t="n">
-        <v>15.00204697330559</v>
+        <v>67.74542702828987</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>141.7407511348962</v>
+        <v>710.0001061843507</v>
       </c>
       <c r="C5" t="n">
-        <v>141.7407511348962</v>
+        <v>710.0001061843507</v>
       </c>
       <c r="D5" t="n">
-        <v>141.7407511348962</v>
+        <v>710.0001061843507</v>
       </c>
       <c r="E5" t="n">
-        <v>141.7407511348962</v>
+        <v>710.0001061843507</v>
       </c>
       <c r="F5" t="n">
-        <v>141.7407511348962</v>
+        <v>520.5803211678658</v>
       </c>
       <c r="G5" t="n">
-        <v>141.7407511348962</v>
+        <v>331.1605361513811</v>
       </c>
       <c r="H5" t="n">
         <v>141.7407511348962</v>
       </c>
       <c r="I5" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J5" t="n">
-        <v>21.03371160678495</v>
+        <v>21.033711606785</v>
       </c>
       <c r="K5" t="n">
-        <v>80.81213159058944</v>
+        <v>80.81213159058956</v>
       </c>
       <c r="L5" t="n">
-        <v>191.8743094079185</v>
+        <v>191.8743094079184</v>
       </c>
       <c r="M5" t="n">
-        <v>347.1218190644756</v>
+        <v>347.1218190644754</v>
       </c>
       <c r="N5" t="n">
-        <v>509.495204112383</v>
+        <v>509.4952041123829</v>
       </c>
       <c r="O5" t="n">
-        <v>649.4845259985582</v>
+        <v>649.4845259985584</v>
       </c>
       <c r="P5" t="n">
-        <v>734.4611726020265</v>
+        <v>734.4611726020266</v>
       </c>
       <c r="Q5" t="n">
-        <v>750.1023486652797</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="R5" t="n">
-        <v>750.1023486652797</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="S5" t="n">
-        <v>589.7227393823978</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="T5" t="n">
-        <v>400.302954365913</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="U5" t="n">
-        <v>210.8831693494282</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="V5" t="n">
-        <v>141.7407511348962</v>
+        <v>710.0001061843507</v>
       </c>
       <c r="W5" t="n">
-        <v>141.7407511348962</v>
+        <v>710.0001061843507</v>
       </c>
       <c r="X5" t="n">
-        <v>141.7407511348962</v>
+        <v>710.0001061843507</v>
       </c>
       <c r="Y5" t="n">
-        <v>141.7407511348962</v>
+        <v>710.0001061843507</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>750.1023486652797</v>
+        <v>487.5180226099433</v>
       </c>
       <c r="C6" t="n">
-        <v>750.1023486652797</v>
+        <v>487.5180226099433</v>
       </c>
       <c r="D6" t="n">
-        <v>635.2077232380022</v>
+        <v>487.5180226099433</v>
       </c>
       <c r="E6" t="n">
-        <v>475.9702682325468</v>
+        <v>400.9361470843146</v>
       </c>
       <c r="F6" t="n">
-        <v>329.4357102594318</v>
+        <v>254.4015891111996</v>
       </c>
       <c r="G6" t="n">
-        <v>191.8965290818809</v>
+        <v>116.8624079336487</v>
       </c>
       <c r="H6" t="n">
-        <v>90.03616812153781</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I6" t="n">
-        <v>30.53661367296054</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J6" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="K6" t="n">
-        <v>67.13418877024213</v>
+        <v>67.13418877024208</v>
       </c>
       <c r="L6" t="n">
-        <v>183.5548280772649</v>
+        <v>183.554828077265</v>
       </c>
       <c r="M6" t="n">
-        <v>338.7690911140244</v>
+        <v>338.7690911140245</v>
       </c>
       <c r="N6" t="n">
-        <v>512.5000587546601</v>
+        <v>512.5000587546604</v>
       </c>
       <c r="O6" t="n">
         <v>649.2101578476348</v>
       </c>
       <c r="P6" t="n">
-        <v>739.5989987017063</v>
+        <v>739.5989987017064</v>
       </c>
       <c r="Q6" t="n">
-        <v>750.1023486652797</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="R6" t="n">
-        <v>750.1023486652797</v>
+        <v>676.9378076264281</v>
       </c>
       <c r="S6" t="n">
-        <v>750.1023486652797</v>
+        <v>676.9378076264281</v>
       </c>
       <c r="T6" t="n">
-        <v>750.1023486652797</v>
+        <v>676.9378076264281</v>
       </c>
       <c r="U6" t="n">
-        <v>750.1023486652797</v>
+        <v>676.9378076264281</v>
       </c>
       <c r="V6" t="n">
-        <v>750.1023486652797</v>
+        <v>487.5180226099433</v>
       </c>
       <c r="W6" t="n">
-        <v>750.1023486652797</v>
+        <v>487.5180226099433</v>
       </c>
       <c r="X6" t="n">
-        <v>750.1023486652797</v>
+        <v>487.5180226099433</v>
       </c>
       <c r="Y6" t="n">
-        <v>750.1023486652797</v>
+        <v>487.5180226099433</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="C7" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="D7" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="E7" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="F7" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="G7" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="H7" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="I7" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="J7" t="n">
-        <v>15.00204697330559</v>
+        <v>29.24882464404146</v>
       </c>
       <c r="K7" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="L7" t="n">
-        <v>27.03967056230176</v>
+        <v>27.03967056230179</v>
       </c>
       <c r="M7" t="n">
-        <v>42.98993985170716</v>
+        <v>42.98993985170722</v>
       </c>
       <c r="N7" t="n">
-        <v>66.41847329396334</v>
+        <v>66.41847329396343</v>
       </c>
       <c r="O7" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="P7" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="Q7" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="R7" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="S7" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="T7" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="U7" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="V7" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="W7" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="X7" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="Y7" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702828998</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1778.320494928841</v>
+        <v>710.0001061843509</v>
       </c>
       <c r="C8" t="n">
-        <v>1615.005796072727</v>
+        <v>520.580321167866</v>
       </c>
       <c r="D8" t="n">
-        <v>1256.740097465976</v>
+        <v>520.580321167866</v>
       </c>
       <c r="E8" t="n">
-        <v>1256.740097465976</v>
+        <v>520.580321167866</v>
       </c>
       <c r="F8" t="n">
-        <v>845.7541926763687</v>
+        <v>520.580321167866</v>
       </c>
       <c r="G8" t="n">
-        <v>429.7231473797759</v>
+        <v>331.1605361513811</v>
       </c>
       <c r="H8" t="n">
-        <v>122.3223344947425</v>
+        <v>141.7407511348962</v>
       </c>
       <c r="I8" t="n">
-        <v>43.36919653809306</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J8" t="n">
-        <v>152.50781843019</v>
+        <v>21.03371160678512</v>
       </c>
       <c r="K8" t="n">
-        <v>366.8168396232717</v>
+        <v>80.81213159058979</v>
       </c>
       <c r="L8" t="n">
-        <v>669.5878927711866</v>
+        <v>191.8743094079188</v>
       </c>
       <c r="M8" t="n">
-        <v>1038.14846457873</v>
+        <v>347.1218190644759</v>
       </c>
       <c r="N8" t="n">
-        <v>1417.286540135166</v>
+        <v>509.4952041123831</v>
       </c>
       <c r="O8" t="n">
-        <v>1761.960612545596</v>
+        <v>649.4845259985586</v>
       </c>
       <c r="P8" t="n">
-        <v>2021.630958172447</v>
+        <v>734.461172602027</v>
       </c>
       <c r="Q8" t="n">
-        <v>2168.459826904653</v>
+        <v>750.1023486652801</v>
       </c>
       <c r="R8" t="n">
-        <v>2168.459826904653</v>
+        <v>750.1023486652801</v>
       </c>
       <c r="S8" t="n">
-        <v>2168.459826904653</v>
+        <v>710.0001061843509</v>
       </c>
       <c r="T8" t="n">
-        <v>2168.459826904653</v>
+        <v>710.0001061843509</v>
       </c>
       <c r="U8" t="n">
-        <v>2168.459826904653</v>
+        <v>710.0001061843509</v>
       </c>
       <c r="V8" t="n">
-        <v>2168.459826904653</v>
+        <v>710.0001061843509</v>
       </c>
       <c r="W8" t="n">
-        <v>2168.459826904653</v>
+        <v>710.0001061843509</v>
       </c>
       <c r="X8" t="n">
-        <v>2168.459826904653</v>
+        <v>710.0001061843509</v>
       </c>
       <c r="Y8" t="n">
-        <v>1778.320494928841</v>
+        <v>710.0001061843509</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>672.5286484590418</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="C9" t="n">
-        <v>498.0756191779149</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="D9" t="n">
-        <v>349.1412095166636</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="E9" t="n">
-        <v>189.9037545112081</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="F9" t="n">
-        <v>43.36919653809306</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="G9" t="n">
-        <v>43.36919653809306</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="H9" t="n">
-        <v>43.36919653809306</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I9" t="n">
-        <v>43.36919653809306</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J9" t="n">
-        <v>89.55356510562316</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="K9" t="n">
-        <v>246.6448318504519</v>
+        <v>67.13418877024218</v>
       </c>
       <c r="L9" t="n">
-        <v>504.1959674104395</v>
+        <v>183.554828077265</v>
       </c>
       <c r="M9" t="n">
-        <v>824.1028628789488</v>
+        <v>338.7690911140245</v>
       </c>
       <c r="N9" t="n">
-        <v>1166.88538687358</v>
+        <v>512.5000587546604</v>
       </c>
       <c r="O9" t="n">
-        <v>1458.244633128146</v>
+        <v>649.2101578476351</v>
       </c>
       <c r="P9" t="n">
-        <v>1672.753048689047</v>
+        <v>739.5989987017065</v>
       </c>
       <c r="Q9" t="n">
-        <v>1766.227047333487</v>
+        <v>750.1023486652799</v>
       </c>
       <c r="R9" t="n">
-        <v>1734.238298972664</v>
+        <v>750.1023486652799</v>
       </c>
       <c r="S9" t="n">
-        <v>1595.273638474382</v>
+        <v>598.8192732198762</v>
       </c>
       <c r="T9" t="n">
-        <v>1400.563316948358</v>
+        <v>409.3994882033913</v>
       </c>
       <c r="U9" t="n">
-        <v>1172.461727081622</v>
+        <v>219.9797031869064</v>
       </c>
       <c r="V9" t="n">
-        <v>937.3096188498796</v>
+        <v>30.55991817042155</v>
       </c>
       <c r="W9" t="n">
-        <v>683.072262121678</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="X9" t="n">
-        <v>672.5286484590418</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="Y9" t="n">
-        <v>672.5286484590418</v>
+        <v>15.0020469733056</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>388.3019303235343</v>
+        <v>67.74542702829</v>
       </c>
       <c r="C10" t="n">
-        <v>388.3019303235343</v>
+        <v>67.74542702829</v>
       </c>
       <c r="D10" t="n">
-        <v>388.3019303235343</v>
+        <v>67.74542702829</v>
       </c>
       <c r="E10" t="n">
-        <v>388.3019303235343</v>
+        <v>67.74542702829</v>
       </c>
       <c r="F10" t="n">
-        <v>388.3019303235343</v>
+        <v>67.74542702829</v>
       </c>
       <c r="G10" t="n">
-        <v>322.003829010384</v>
+        <v>67.74542702829</v>
       </c>
       <c r="H10" t="n">
-        <v>171.9636155141767</v>
+        <v>67.74542702829</v>
       </c>
       <c r="I10" t="n">
-        <v>61.70688273934482</v>
+        <v>67.74542702829</v>
       </c>
       <c r="J10" t="n">
-        <v>43.36919653809306</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="K10" t="n">
-        <v>92.71685897981521</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="L10" t="n">
-        <v>185.7706748018941</v>
+        <v>27.0396705623018</v>
       </c>
       <c r="M10" t="n">
-        <v>287.1411594927332</v>
+        <v>42.98993985170723</v>
       </c>
       <c r="N10" t="n">
-        <v>393.9588065377461</v>
+        <v>66.41847329396344</v>
       </c>
       <c r="O10" t="n">
-        <v>472.3091036033659</v>
+        <v>67.74542702829</v>
       </c>
       <c r="P10" t="n">
-        <v>520.2893470405991</v>
+        <v>67.74542702829</v>
       </c>
       <c r="Q10" t="n">
-        <v>497.4664265514521</v>
+        <v>67.74542702829</v>
       </c>
       <c r="R10" t="n">
-        <v>388.3019303235343</v>
+        <v>67.74542702829</v>
       </c>
       <c r="S10" t="n">
-        <v>388.3019303235343</v>
+        <v>67.74542702829</v>
       </c>
       <c r="T10" t="n">
-        <v>388.3019303235343</v>
+        <v>67.74542702829</v>
       </c>
       <c r="U10" t="n">
-        <v>388.3019303235343</v>
+        <v>67.74542702829</v>
       </c>
       <c r="V10" t="n">
-        <v>388.3019303235343</v>
+        <v>67.74542702829</v>
       </c>
       <c r="W10" t="n">
-        <v>388.3019303235343</v>
+        <v>67.74542702829</v>
       </c>
       <c r="X10" t="n">
-        <v>388.3019303235343</v>
+        <v>67.74542702829</v>
       </c>
       <c r="Y10" t="n">
-        <v>388.3019303235343</v>
+        <v>67.74542702829</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1859.132475219475</v>
+        <v>1032.06112435253</v>
       </c>
       <c r="C11" t="n">
-        <v>1490.169958279064</v>
+        <v>663.0986074121186</v>
       </c>
       <c r="D11" t="n">
-        <v>1131.904259672313</v>
+        <v>304.832908805368</v>
       </c>
       <c r="E11" t="n">
-        <v>746.1160070740689</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="F11" t="n">
-        <v>335.1301022844613</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="G11" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H11" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M11" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O11" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S11" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T11" t="n">
-        <v>3009.337405520489</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="U11" t="n">
-        <v>3009.337405520489</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="V11" t="n">
-        <v>3009.337405520489</v>
+        <v>2535.034709923658</v>
       </c>
       <c r="W11" t="n">
-        <v>3009.337405520489</v>
+        <v>2182.266054653544</v>
       </c>
       <c r="X11" t="n">
-        <v>2635.871647259409</v>
+        <v>1808.800296392464</v>
       </c>
       <c r="Y11" t="n">
-        <v>2245.732315283597</v>
+        <v>1418.660964416652</v>
       </c>
     </row>
     <row r="12">
@@ -5094,31 +5096,31 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G12" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K12" t="n">
         <v>398.4535849031479</v>
@@ -5151,7 +5153,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V12" t="n">
         <v>1779.608347199865</v>
@@ -5160,10 +5162,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>920.887005818185</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="C13" t="n">
-        <v>920.887005818185</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="D13" t="n">
-        <v>770.7703664058492</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E13" t="n">
-        <v>622.8572728234561</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F13" t="n">
-        <v>475.9673253255457</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G13" t="n">
-        <v>310.0549803959803</v>
+        <v>310.0549803959802</v>
       </c>
       <c r="H13" t="n">
-        <v>163.8377936138381</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J13" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K13" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L13" t="n">
         <v>332.3555681596505</v>
       </c>
       <c r="M13" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N13" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O13" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P13" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q13" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R13" t="n">
-        <v>920.887005818185</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="S13" t="n">
-        <v>920.887005818185</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="T13" t="n">
-        <v>920.887005818185</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="U13" t="n">
-        <v>920.887005818185</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="V13" t="n">
-        <v>920.887005818185</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="W13" t="n">
-        <v>920.887005818185</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="X13" t="n">
-        <v>920.887005818185</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="Y13" t="n">
-        <v>920.887005818185</v>
+        <v>831.0565485757129</v>
       </c>
     </row>
     <row r="14">
@@ -5252,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1491.569348694473</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C14" t="n">
-        <v>1122.606831754061</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D14" t="n">
-        <v>764.341133147311</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E14" t="n">
-        <v>378.5528805490667</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F14" t="n">
-        <v>378.5528805490667</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G14" t="n">
-        <v>378.5528805490667</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H14" t="n">
         <v>108.5090151927147</v>
@@ -5312,16 +5314,16 @@
         <v>3325.605821609171</v>
       </c>
       <c r="V14" t="n">
-        <v>2994.542934265601</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W14" t="n">
-        <v>2641.774278995486</v>
+        <v>2972.837166339057</v>
       </c>
       <c r="X14" t="n">
-        <v>2268.308520734407</v>
+        <v>2599.371408077977</v>
       </c>
       <c r="Y14" t="n">
-        <v>1878.169188758595</v>
+        <v>2209.232076102166</v>
       </c>
     </row>
     <row r="15">
@@ -5352,22 +5354,22 @@
         <v>85.51940803064554</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228012</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031483</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158137</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N15" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O15" t="n">
         <v>2096.912393410638</v>
@@ -5419,7 +5421,7 @@
         <v>639.3706644025392</v>
       </c>
       <c r="E16" t="n">
-        <v>491.4575708201461</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F16" t="n">
         <v>477.7578170212613</v>
@@ -5489,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1491.569348694473</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="C17" t="n">
-        <v>1122.606831754061</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D17" t="n">
-        <v>1122.606831754061</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E17" t="n">
-        <v>1122.606831754061</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F17" t="n">
-        <v>711.6209269644539</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G17" t="n">
-        <v>296.5484768094504</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H17" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O17" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R17" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S17" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T17" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U17" t="n">
-        <v>3325.605821609171</v>
+        <v>3097.195137235408</v>
       </c>
       <c r="V17" t="n">
-        <v>2994.542934265601</v>
+        <v>2766.132249891837</v>
       </c>
       <c r="W17" t="n">
-        <v>2641.774278995486</v>
+        <v>2413.363594621723</v>
       </c>
       <c r="X17" t="n">
-        <v>2268.308520734407</v>
+        <v>2413.363594621723</v>
       </c>
       <c r="Y17" t="n">
-        <v>1878.169188758595</v>
+        <v>2023.224262645911</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1702.096133556939</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C18" t="n">
-        <v>1527.643104275812</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D18" t="n">
-        <v>1378.708694614561</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E18" t="n">
-        <v>1219.471239609105</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F18" t="n">
-        <v>1072.93668163599</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G18" t="n">
-        <v>936.5735814686086</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H18" t="n">
-        <v>846.0716871064761</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I18" t="n">
-        <v>827.0643955080144</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J18" t="n">
-        <v>920.7416649986317</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K18" t="n">
-        <v>1159.005863978979</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L18" t="n">
-        <v>1525.704024291644</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M18" t="n">
-        <v>1972.98034951396</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N18" t="n">
-        <v>2446.503393068414</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O18" t="n">
-        <v>2857.464672486469</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P18" t="n">
-        <v>3167.964263962572</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q18" t="n">
-        <v>3325.605821609171</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R18" t="n">
-        <v>3325.461468201687</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S18" t="n">
-        <v>3196.023581695167</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T18" t="n">
-        <v>3003.380581373022</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U18" t="n">
-        <v>2775.312734507438</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V18" t="n">
-        <v>2540.160626275695</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W18" t="n">
-        <v>2285.923269547494</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X18" t="n">
-        <v>2078.071769341961</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y18" t="n">
-        <v>1870.311470577007</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="C19" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="D19" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="E19" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F19" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G19" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H19" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I19" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J19" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K19" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L19" t="n">
         <v>332.3555681596505</v>
       </c>
       <c r="M19" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N19" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O19" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P19" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q19" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R19" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S19" t="n">
-        <v>729.2011216450114</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T19" t="n">
-        <v>507.4345062145375</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U19" t="n">
-        <v>218.331639340181</v>
+        <v>631.7841389438285</v>
       </c>
       <c r="V19" t="n">
-        <v>218.331639340181</v>
+        <v>377.0996507379416</v>
       </c>
       <c r="W19" t="n">
-        <v>218.331639340181</v>
+        <v>377.0996507379416</v>
       </c>
       <c r="X19" t="n">
-        <v>218.331639340181</v>
+        <v>377.0996507379416</v>
       </c>
       <c r="Y19" t="n">
-        <v>66.51211643218343</v>
+        <v>156.3070715944115</v>
       </c>
     </row>
     <row r="20">
@@ -5726,13 +5728,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2291.674678112796</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="C20" t="n">
-        <v>1922.712161172384</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="D20" t="n">
-        <v>1564.446462565634</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E20" t="n">
         <v>1232.150970528558</v>
@@ -5747,55 +5749,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I20" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O20" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q20" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R20" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S20" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T20" t="n">
-        <v>3009.337405520489</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="U20" t="n">
-        <v>3009.337405520489</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="V20" t="n">
-        <v>2678.274518176918</v>
+        <v>2788.565186649821</v>
       </c>
       <c r="W20" t="n">
-        <v>2678.274518176918</v>
+        <v>2435.796531379707</v>
       </c>
       <c r="X20" t="n">
-        <v>2678.274518176918</v>
+        <v>2062.330773118627</v>
       </c>
       <c r="Y20" t="n">
-        <v>2678.274518176918</v>
+        <v>2004.539063190924</v>
       </c>
     </row>
     <row r="21">
@@ -5805,46 +5807,46 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D21" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E21" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G21" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I21" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J21" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N21" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O21" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P21" t="n">
         <v>2407.411984886741</v>
@@ -5862,7 +5864,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U21" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V21" t="n">
         <v>1779.608347199865</v>
@@ -5871,10 +5873,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X21" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y21" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3143.957356778932</v>
+        <v>2915.967805880913</v>
       </c>
       <c r="C22" t="n">
-        <v>2975.021173851025</v>
+        <v>2747.031622953006</v>
       </c>
       <c r="D22" t="n">
-        <v>2824.904534438689</v>
+        <v>2596.91498354067</v>
       </c>
       <c r="E22" t="n">
-        <v>2715.446556902735</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="F22" t="n">
-        <v>2568.556609404825</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="G22" t="n">
-        <v>2568.556609404825</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="H22" t="n">
-        <v>2568.556609404825</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="I22" t="n">
-        <v>2471.23093222317</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="J22" t="n">
-        <v>2483.05368576061</v>
+        <v>2483.053685760608</v>
       </c>
       <c r="K22" t="n">
-        <v>2581.36454002828</v>
+        <v>2581.364540028279</v>
       </c>
       <c r="L22" t="n">
-        <v>2737.074383950638</v>
+        <v>2737.074383950636</v>
       </c>
       <c r="M22" t="n">
-        <v>2904.506865249835</v>
+        <v>2904.506865249834</v>
       </c>
       <c r="N22" t="n">
-        <v>3075.815702279683</v>
+        <v>3075.815702279681</v>
       </c>
       <c r="O22" t="n">
-        <v>3213.734051497872</v>
+        <v>3213.734051497871</v>
       </c>
       <c r="P22" t="n">
-        <v>3312.685054250631</v>
+        <v>3312.685054250629</v>
       </c>
       <c r="Q22" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="R22" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S22" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T22" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U22" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V22" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="W22" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="X22" t="n">
-        <v>3325.605821609171</v>
+        <v>3097.616270711153</v>
       </c>
       <c r="Y22" t="n">
-        <v>3325.605821609171</v>
+        <v>3097.616270711153</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2345.167438673965</v>
+        <v>2148.434869859537</v>
       </c>
       <c r="C23" t="n">
-        <v>1976.204921733553</v>
+        <v>1779.472352919126</v>
       </c>
       <c r="D23" t="n">
-        <v>1617.939223126803</v>
+        <v>1421.206654312375</v>
       </c>
       <c r="E23" t="n">
-        <v>1232.150970528558</v>
+        <v>1035.418401714131</v>
       </c>
       <c r="F23" t="n">
-        <v>821.1650657389509</v>
+        <v>624.4324969245233</v>
       </c>
       <c r="G23" t="n">
-        <v>406.0926155839475</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H23" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I23" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J23" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K23" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L23" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M23" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N23" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O23" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P23" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q23" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R23" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S23" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T23" t="n">
-        <v>3009.337405520488</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="U23" t="n">
-        <v>2755.806928794324</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="V23" t="n">
-        <v>2755.806928794324</v>
+        <v>2535.034709923659</v>
       </c>
       <c r="W23" t="n">
-        <v>2755.806928794324</v>
+        <v>2535.034709923659</v>
       </c>
       <c r="X23" t="n">
-        <v>2755.806928794324</v>
+        <v>2535.034709923659</v>
       </c>
       <c r="Y23" t="n">
-        <v>2731.767278738087</v>
+        <v>2535.034709923659</v>
       </c>
     </row>
     <row r="24">
@@ -6042,37 +6044,37 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C24" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D24" t="n">
-        <v>618.1564155387301</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E24" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F24" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G24" t="n">
-        <v>176.0213023927777</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H24" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I24" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J24" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K24" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L24" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M24" t="n">
         <v>1212.428070438129</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2471.23093222317</v>
+        <v>699.120390387711</v>
       </c>
       <c r="C25" t="n">
-        <v>2471.23093222317</v>
+        <v>699.120390387711</v>
       </c>
       <c r="D25" t="n">
-        <v>2471.23093222317</v>
+        <v>549.0037509753753</v>
       </c>
       <c r="E25" t="n">
-        <v>2471.23093222317</v>
+        <v>401.0906573929822</v>
       </c>
       <c r="F25" t="n">
-        <v>2471.23093222317</v>
+        <v>401.0906573929822</v>
       </c>
       <c r="G25" t="n">
-        <v>2471.23093222317</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H25" t="n">
-        <v>2471.23093222317</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I25" t="n">
-        <v>2471.23093222317</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J25" t="n">
-        <v>2483.05368576061</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K25" t="n">
-        <v>2581.36454002828</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L25" t="n">
-        <v>2737.074383950638</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M25" t="n">
-        <v>2904.506865249835</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N25" t="n">
-        <v>3075.815702279683</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O25" t="n">
-        <v>3213.734051497872</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P25" t="n">
-        <v>3312.685054250631</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q25" t="n">
-        <v>3325.605821609171</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R25" t="n">
-        <v>3325.605821609171</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S25" t="n">
-        <v>3163.089146233901</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T25" t="n">
-        <v>3163.089146233901</v>
+        <v>699.120390387711</v>
       </c>
       <c r="U25" t="n">
-        <v>3163.089146233901</v>
+        <v>699.120390387711</v>
       </c>
       <c r="V25" t="n">
-        <v>3163.089146233901</v>
+        <v>699.120390387711</v>
       </c>
       <c r="W25" t="n">
-        <v>2873.67197619694</v>
+        <v>699.120390387711</v>
       </c>
       <c r="X25" t="n">
-        <v>2873.67197619694</v>
+        <v>699.120390387711</v>
       </c>
       <c r="Y25" t="n">
-        <v>2652.87939705341</v>
+        <v>699.120390387711</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1934.208022973022</v>
+        <v>1418.660964416652</v>
       </c>
       <c r="C26" t="n">
-        <v>1934.208022973022</v>
+        <v>1418.660964416652</v>
       </c>
       <c r="D26" t="n">
-        <v>1575.942324366272</v>
+        <v>1418.660964416652</v>
       </c>
       <c r="E26" t="n">
-        <v>1190.154071768027</v>
+        <v>1032.872711818408</v>
       </c>
       <c r="F26" t="n">
-        <v>779.1681669784198</v>
+        <v>621.8868070288001</v>
       </c>
       <c r="G26" t="n">
-        <v>364.0957168234162</v>
+        <v>206.8143568737966</v>
       </c>
       <c r="H26" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I26" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J26" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K26" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L26" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M26" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N26" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O26" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P26" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q26" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R26" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S26" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T26" t="n">
-        <v>3119.628073993394</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="U26" t="n">
-        <v>3050.581768480028</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="V26" t="n">
-        <v>3050.581768480028</v>
+        <v>2535.034709923658</v>
       </c>
       <c r="W26" t="n">
-        <v>2697.813113209913</v>
+        <v>2182.266054653544</v>
       </c>
       <c r="X26" t="n">
-        <v>2324.347354948834</v>
+        <v>1808.800296392464</v>
       </c>
       <c r="Y26" t="n">
-        <v>1934.208022973022</v>
+        <v>1418.660964416652</v>
       </c>
     </row>
     <row r="27">
@@ -6294,22 +6296,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G27" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H27" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I27" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J27" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K27" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L27" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M27" t="n">
         <v>1212.428070438129</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>699.120390387711</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="C28" t="n">
-        <v>699.120390387711</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="D28" t="n">
-        <v>549.0037509753753</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="E28" t="n">
-        <v>549.0037509753753</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F28" t="n">
-        <v>477.7578170212613</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G28" t="n">
-        <v>310.0549803959803</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H28" t="n">
-        <v>163.8377936138381</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I28" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J28" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K28" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L28" t="n">
         <v>332.3555681596505</v>
       </c>
       <c r="M28" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N28" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O28" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P28" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q28" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R28" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S28" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T28" t="n">
-        <v>699.120390387711</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U28" t="n">
-        <v>699.120390387711</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V28" t="n">
-        <v>699.120390387711</v>
+        <v>666.202517612298</v>
       </c>
       <c r="W28" t="n">
-        <v>699.120390387711</v>
+        <v>376.7853475753374</v>
       </c>
       <c r="X28" t="n">
-        <v>699.120390387711</v>
+        <v>376.7853475753374</v>
       </c>
       <c r="Y28" t="n">
-        <v>699.120390387711</v>
+        <v>248.1605812624231</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2345.167438673965</v>
+        <v>1491.569348694473</v>
       </c>
       <c r="C29" t="n">
-        <v>1976.204921733553</v>
+        <v>1491.569348694473</v>
       </c>
       <c r="D29" t="n">
-        <v>1617.939223126803</v>
+        <v>1133.303650087723</v>
       </c>
       <c r="E29" t="n">
-        <v>1232.150970528558</v>
+        <v>747.5153974894783</v>
       </c>
       <c r="F29" t="n">
-        <v>821.1650657389509</v>
+        <v>336.5294926998708</v>
       </c>
       <c r="G29" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H29" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I29" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J29" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912083</v>
       </c>
       <c r="K29" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L29" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M29" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N29" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O29" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P29" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q29" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R29" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S29" t="n">
-        <v>3294.053173535669</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T29" t="n">
-        <v>3088.075425919891</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U29" t="n">
-        <v>3088.075425919891</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V29" t="n">
-        <v>3088.075425919891</v>
+        <v>2994.542934265601</v>
       </c>
       <c r="W29" t="n">
-        <v>2735.306770649777</v>
+        <v>2641.774278995486</v>
       </c>
       <c r="X29" t="n">
-        <v>2735.306770649777</v>
+        <v>2268.308520734407</v>
       </c>
       <c r="Y29" t="n">
-        <v>2345.167438673965</v>
+        <v>1878.169188758595</v>
       </c>
     </row>
     <row r="30">
@@ -6531,22 +6533,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G30" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H30" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I30" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J30" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K30" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L30" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M30" t="n">
         <v>1212.428070438129</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>66.5121164321834</v>
+        <v>2471.23093222317</v>
       </c>
       <c r="C31" t="n">
-        <v>66.5121164321834</v>
+        <v>2471.23093222317</v>
       </c>
       <c r="D31" t="n">
-        <v>66.5121164321834</v>
+        <v>2471.23093222317</v>
       </c>
       <c r="E31" t="n">
-        <v>66.5121164321834</v>
+        <v>2471.23093222317</v>
       </c>
       <c r="F31" t="n">
-        <v>66.5121164321834</v>
+        <v>2471.23093222317</v>
       </c>
       <c r="G31" t="n">
-        <v>66.5121164321834</v>
+        <v>2471.23093222317</v>
       </c>
       <c r="H31" t="n">
-        <v>66.5121164321834</v>
+        <v>2471.23093222317</v>
       </c>
       <c r="I31" t="n">
-        <v>66.5121164321834</v>
+        <v>2471.23093222317</v>
       </c>
       <c r="J31" t="n">
-        <v>78.33486996962286</v>
+        <v>2483.05368576061</v>
       </c>
       <c r="K31" t="n">
-        <v>176.6457242372932</v>
+        <v>2581.36454002828</v>
       </c>
       <c r="L31" t="n">
-        <v>332.3555681596505</v>
+        <v>2737.074383950638</v>
       </c>
       <c r="M31" t="n">
-        <v>499.7880494588483</v>
+        <v>2904.506865249835</v>
       </c>
       <c r="N31" t="n">
-        <v>671.0968864886958</v>
+        <v>3075.815702279683</v>
       </c>
       <c r="O31" t="n">
-        <v>809.0152357068855</v>
+        <v>3213.734051497872</v>
       </c>
       <c r="P31" t="n">
-        <v>907.9662384596442</v>
+        <v>3312.685054250631</v>
       </c>
       <c r="Q31" t="n">
-        <v>920.8870058181849</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R31" t="n">
-        <v>831.0565485757129</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S31" t="n">
-        <v>639.3706644025392</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T31" t="n">
-        <v>417.6040489720652</v>
+        <v>3304.435457340374</v>
       </c>
       <c r="U31" t="n">
-        <v>128.5011820977088</v>
+        <v>3015.332590466018</v>
       </c>
       <c r="V31" t="n">
-        <v>66.5121164321834</v>
+        <v>2760.648102260131</v>
       </c>
       <c r="W31" t="n">
-        <v>66.5121164321834</v>
+        <v>2471.23093222317</v>
       </c>
       <c r="X31" t="n">
-        <v>66.5121164321834</v>
+        <v>2471.23093222317</v>
       </c>
       <c r="Y31" t="n">
-        <v>66.5121164321834</v>
+        <v>2471.23093222317</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2345.167438673965</v>
+        <v>1491.569348694472</v>
       </c>
       <c r="C32" t="n">
-        <v>1976.204921733553</v>
+        <v>1491.569348694472</v>
       </c>
       <c r="D32" t="n">
-        <v>1617.939223126803</v>
+        <v>1133.303650087721</v>
       </c>
       <c r="E32" t="n">
-        <v>1232.150970528558</v>
+        <v>747.515397489477</v>
       </c>
       <c r="F32" t="n">
-        <v>821.1650657389509</v>
+        <v>336.5294926998694</v>
       </c>
       <c r="G32" t="n">
-        <v>406.0926155839475</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H32" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I32" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J32" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K32" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L32" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M32" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N32" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O32" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P32" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q32" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R32" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S32" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T32" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U32" t="n">
-        <v>3072.075344883008</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V32" t="n">
-        <v>2741.012457539437</v>
+        <v>2994.542934265599</v>
       </c>
       <c r="W32" t="n">
-        <v>2388.243802269323</v>
+        <v>2641.774278995485</v>
       </c>
       <c r="X32" t="n">
-        <v>2388.243802269323</v>
+        <v>2268.308520734405</v>
       </c>
       <c r="Y32" t="n">
-        <v>2388.243802269323</v>
+        <v>1878.169188758593</v>
       </c>
     </row>
     <row r="33">
@@ -6753,37 +6755,37 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C33" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D33" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E33" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F33" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G33" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H33" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I33" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J33" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K33" t="n">
-        <v>398.4535849031475</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L33" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M33" t="n">
         <v>1212.428070438129</v>
@@ -6810,7 +6812,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U33" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V33" t="n">
         <v>1779.608347199865</v>
@@ -6819,10 +6821,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X33" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y33" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2785.823716346362</v>
+        <v>2668.480289429514</v>
       </c>
       <c r="C34" t="n">
-        <v>2785.823716346362</v>
+        <v>2499.544106501607</v>
       </c>
       <c r="D34" t="n">
-        <v>2785.823716346362</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="E34" t="n">
-        <v>2785.823716346362</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="F34" t="n">
-        <v>2638.933768848452</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="G34" t="n">
-        <v>2471.23093222317</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="H34" t="n">
-        <v>2471.23093222317</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="I34" t="n">
-        <v>2471.23093222317</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="J34" t="n">
-        <v>2483.05368576061</v>
+        <v>2483.053685760608</v>
       </c>
       <c r="K34" t="n">
-        <v>2581.36454002828</v>
+        <v>2581.364540028279</v>
       </c>
       <c r="L34" t="n">
-        <v>2737.074383950638</v>
+        <v>2737.074383950636</v>
       </c>
       <c r="M34" t="n">
-        <v>2904.506865249835</v>
+        <v>2904.506865249834</v>
       </c>
       <c r="N34" t="n">
-        <v>3075.815702279683</v>
+        <v>3075.815702279681</v>
       </c>
       <c r="O34" t="n">
-        <v>3213.734051497872</v>
+        <v>3213.734051497871</v>
       </c>
       <c r="P34" t="n">
-        <v>3312.685054250631</v>
+        <v>3312.685054250629</v>
       </c>
       <c r="Q34" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="R34" t="n">
-        <v>3235.775364366699</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S34" t="n">
-        <v>3044.089480193526</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T34" t="n">
-        <v>3040.508204552249</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U34" t="n">
-        <v>3040.508204552249</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V34" t="n">
-        <v>2785.823716346362</v>
+        <v>3070.921333403283</v>
       </c>
       <c r="W34" t="n">
-        <v>2785.823716346362</v>
+        <v>3070.921333403283</v>
       </c>
       <c r="X34" t="n">
-        <v>2785.823716346362</v>
+        <v>3070.921333403283</v>
       </c>
       <c r="Y34" t="n">
-        <v>2785.823716346362</v>
+        <v>2850.128754259753</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1590.514489367197</v>
+        <v>1208.812782134349</v>
       </c>
       <c r="C35" t="n">
-        <v>1221.551972426786</v>
+        <v>839.8502651939375</v>
       </c>
       <c r="D35" t="n">
-        <v>863.2862738200351</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="E35" t="n">
-        <v>477.498021221791</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="F35" t="n">
-        <v>66.5121164321834</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G35" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H35" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I35" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L35" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M35" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O35" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q35" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R35" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S35" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T35" t="n">
-        <v>3325.60582160917</v>
+        <v>3296.379731775211</v>
       </c>
       <c r="U35" t="n">
-        <v>3325.60582160917</v>
+        <v>3042.849255049048</v>
       </c>
       <c r="V35" t="n">
-        <v>3093.488074938325</v>
+        <v>2711.786367705477</v>
       </c>
       <c r="W35" t="n">
-        <v>2740.71941966821</v>
+        <v>2359.017712435363</v>
       </c>
       <c r="X35" t="n">
-        <v>2367.25366140713</v>
+        <v>1985.551954174283</v>
       </c>
       <c r="Y35" t="n">
-        <v>1977.114329431319</v>
+        <v>1595.412622198471</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>941.5438544811087</v>
+        <v>1702.096133556938</v>
       </c>
       <c r="C36" t="n">
-        <v>767.0908251999817</v>
+        <v>1527.643104275811</v>
       </c>
       <c r="D36" t="n">
-        <v>618.1564155387305</v>
+        <v>1378.70869461456</v>
       </c>
       <c r="E36" t="n">
-        <v>458.9189605332749</v>
+        <v>1219.471239609104</v>
       </c>
       <c r="F36" t="n">
-        <v>312.3844025601599</v>
+        <v>1072.93668163599</v>
       </c>
       <c r="G36" t="n">
-        <v>176.0213023927779</v>
+        <v>936.5735814686082</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064545</v>
+        <v>846.0716871064756</v>
       </c>
       <c r="I36" t="n">
-        <v>66.5121164321834</v>
+        <v>827.0643955080127</v>
       </c>
       <c r="J36" t="n">
-        <v>160.1893859228007</v>
+        <v>920.7416649986301</v>
       </c>
       <c r="K36" t="n">
-        <v>398.4535849031479</v>
+        <v>1159.005863978977</v>
       </c>
       <c r="L36" t="n">
-        <v>765.1517452158132</v>
+        <v>1525.704024291643</v>
       </c>
       <c r="M36" t="n">
-        <v>1212.428070438129</v>
+        <v>1972.980349513959</v>
       </c>
       <c r="N36" t="n">
-        <v>1685.951113992583</v>
+        <v>2446.503393068413</v>
       </c>
       <c r="O36" t="n">
-        <v>2096.912393410638</v>
+        <v>2857.464672486468</v>
       </c>
       <c r="P36" t="n">
-        <v>2407.411984886741</v>
+        <v>3167.964263962571</v>
       </c>
       <c r="Q36" t="n">
-        <v>2565.053542533341</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R36" t="n">
-        <v>2564.909189125856</v>
+        <v>3325.461468201686</v>
       </c>
       <c r="S36" t="n">
-        <v>2435.471302619336</v>
+        <v>3196.023581695166</v>
       </c>
       <c r="T36" t="n">
-        <v>2242.828302297192</v>
+        <v>3003.380581373022</v>
       </c>
       <c r="U36" t="n">
-        <v>2014.760455431608</v>
+        <v>2775.312734507437</v>
       </c>
       <c r="V36" t="n">
-        <v>1779.608347199865</v>
+        <v>2540.160626275695</v>
       </c>
       <c r="W36" t="n">
-        <v>1525.370990471663</v>
+        <v>2285.923269547493</v>
       </c>
       <c r="X36" t="n">
-        <v>1317.519490266131</v>
+        <v>2078.07176934196</v>
       </c>
       <c r="Y36" t="n">
-        <v>1109.759191501177</v>
+        <v>1870.311470577006</v>
       </c>
     </row>
     <row r="37">
@@ -7069,34 +7071,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>610.2639694321828</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="C37" t="n">
-        <v>610.2639694321828</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="D37" t="n">
-        <v>610.2639694321828</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="E37" t="n">
-        <v>610.2639694321828</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="F37" t="n">
-        <v>463.3740219342724</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="G37" t="n">
-        <v>295.6711853089913</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H37" t="n">
-        <v>149.4539985268491</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I37" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J37" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K37" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L37" t="n">
         <v>332.3555681596505</v>
@@ -7120,25 +7122,25 @@
         <v>831.0565485757129</v>
       </c>
       <c r="S37" t="n">
-        <v>831.0565485757129</v>
+        <v>780.8063121005764</v>
       </c>
       <c r="T37" t="n">
-        <v>831.0565485757129</v>
+        <v>780.8063121005764</v>
       </c>
       <c r="U37" t="n">
-        <v>831.0565485757129</v>
+        <v>491.70344522622</v>
       </c>
       <c r="V37" t="n">
-        <v>831.0565485757129</v>
+        <v>491.70344522622</v>
       </c>
       <c r="W37" t="n">
-        <v>831.0565485757129</v>
+        <v>491.70344522622</v>
       </c>
       <c r="X37" t="n">
-        <v>831.0565485757129</v>
+        <v>491.70344522622</v>
       </c>
       <c r="Y37" t="n">
-        <v>610.2639694321828</v>
+        <v>491.70344522622</v>
       </c>
     </row>
     <row r="38">
@@ -7148,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1832.276849100054</v>
+        <v>1590.514489367197</v>
       </c>
       <c r="C38" t="n">
-        <v>1463.314332159642</v>
+        <v>1221.551972426786</v>
       </c>
       <c r="D38" t="n">
-        <v>1105.048633552891</v>
+        <v>863.2862738200351</v>
       </c>
       <c r="E38" t="n">
-        <v>719.2603809546472</v>
+        <v>477.498021221791</v>
       </c>
       <c r="F38" t="n">
-        <v>308.2744761650396</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G38" t="n">
         <v>66.5121164321834</v>
@@ -7172,25 +7174,25 @@
         <v>66.5121164321834</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L38" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M38" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N38" t="n">
         <v>2120.555556060171</v>
       </c>
       <c r="O38" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P38" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q38" t="n">
         <v>3266.588755052368</v>
@@ -7199,25 +7201,25 @@
         <v>3325.60582160917</v>
       </c>
       <c r="S38" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T38" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U38" t="n">
-        <v>2961.784676410101</v>
+        <v>3093.488074938325</v>
       </c>
       <c r="V38" t="n">
-        <v>2961.784676410101</v>
+        <v>3093.488074938325</v>
       </c>
       <c r="W38" t="n">
-        <v>2609.016021139987</v>
+        <v>2740.71941966821</v>
       </c>
       <c r="X38" t="n">
-        <v>2609.016021139987</v>
+        <v>2367.25366140713</v>
       </c>
       <c r="Y38" t="n">
-        <v>2218.876689164175</v>
+        <v>1977.114329431319</v>
       </c>
     </row>
     <row r="39">
@@ -7227,22 +7229,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C39" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D39" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E39" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F39" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G39" t="n">
-        <v>176.0213023927777</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H39" t="n">
         <v>85.51940803064545</v>
@@ -7284,7 +7286,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U39" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V39" t="n">
         <v>1779.608347199865</v>
@@ -7293,10 +7295,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X39" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y39" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="40">
@@ -7306,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2471.230932223169</v>
+        <v>2822.32286476305</v>
       </c>
       <c r="C40" t="n">
-        <v>2471.230932223169</v>
+        <v>2822.32286476305</v>
       </c>
       <c r="D40" t="n">
-        <v>2471.230932223169</v>
+        <v>2822.32286476305</v>
       </c>
       <c r="E40" t="n">
-        <v>2471.230932223169</v>
+        <v>2822.32286476305</v>
       </c>
       <c r="F40" t="n">
-        <v>2471.230932223169</v>
+        <v>2822.32286476305</v>
       </c>
       <c r="G40" t="n">
-        <v>2471.230932223169</v>
+        <v>2714.773796186966</v>
       </c>
       <c r="H40" t="n">
-        <v>2471.230932223169</v>
+        <v>2568.556609404824</v>
       </c>
       <c r="I40" t="n">
         <v>2471.230932223169</v>
@@ -7354,28 +7356,28 @@
         <v>3325.60582160917</v>
       </c>
       <c r="R40" t="n">
-        <v>3325.60582160917</v>
+        <v>3235.775364366698</v>
       </c>
       <c r="S40" t="n">
-        <v>3325.60582160917</v>
+        <v>3044.089480193524</v>
       </c>
       <c r="T40" t="n">
-        <v>3325.60582160917</v>
+        <v>2822.32286476305</v>
       </c>
       <c r="U40" t="n">
-        <v>3036.502954734814</v>
+        <v>2822.32286476305</v>
       </c>
       <c r="V40" t="n">
-        <v>2781.818466528927</v>
+        <v>2822.32286476305</v>
       </c>
       <c r="W40" t="n">
-        <v>2492.401296491966</v>
+        <v>2822.32286476305</v>
       </c>
       <c r="X40" t="n">
-        <v>2471.230932223169</v>
+        <v>2822.32286476305</v>
       </c>
       <c r="Y40" t="n">
-        <v>2471.230932223169</v>
+        <v>2822.32286476305</v>
       </c>
     </row>
     <row r="41">
@@ -7391,28 +7393,28 @@
         <v>1453.669719097631</v>
       </c>
       <c r="D41" t="n">
-        <v>1095.40402049088</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E41" t="n">
-        <v>709.6157678926361</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F41" t="n">
-        <v>709.6157678926361</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G41" t="n">
-        <v>294.5433177376325</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H41" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I41" t="n">
         <v>66.5121164321834</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L41" t="n">
         <v>1040.244834329464</v>
@@ -7549,19 +7551,19 @@
         <v>541.9536817013565</v>
       </c>
       <c r="D43" t="n">
-        <v>529.0179941377679</v>
+        <v>541.9536817013565</v>
       </c>
       <c r="E43" t="n">
-        <v>381.1049005553748</v>
+        <v>394.0405881189633</v>
       </c>
       <c r="F43" t="n">
-        <v>234.2149530574644</v>
+        <v>247.150640621053</v>
       </c>
       <c r="G43" t="n">
-        <v>66.5121164321834</v>
+        <v>247.150640621053</v>
       </c>
       <c r="H43" t="n">
-        <v>66.5121164321834</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I43" t="n">
         <v>66.5121164321834</v>
@@ -7622,28 +7624,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1569.101759311879</v>
+        <v>1179.52858457759</v>
       </c>
       <c r="C44" t="n">
-        <v>1200.139242371467</v>
+        <v>810.5660676371781</v>
       </c>
       <c r="D44" t="n">
-        <v>841.8735437647167</v>
+        <v>452.3003690304276</v>
       </c>
       <c r="E44" t="n">
-        <v>456.0852911664725</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F44" t="n">
-        <v>456.0852911664725</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G44" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H44" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I44" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J44" t="n">
         <v>255.3912473912089</v>
@@ -7652,46 +7654,46 @@
         <v>589.2106210810554</v>
       </c>
       <c r="L44" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M44" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O44" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q44" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R44" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S44" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T44" t="n">
-        <v>3325.60582160917</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U44" t="n">
-        <v>3072.075344883006</v>
+        <v>3013.565057492288</v>
       </c>
       <c r="V44" t="n">
-        <v>3072.075344883006</v>
+        <v>2682.502170148718</v>
       </c>
       <c r="W44" t="n">
-        <v>2719.306689612892</v>
+        <v>2329.733514878603</v>
       </c>
       <c r="X44" t="n">
-        <v>2345.840931351812</v>
+        <v>1956.267756617523</v>
       </c>
       <c r="Y44" t="n">
-        <v>1955.701599376001</v>
+        <v>1566.128424641711</v>
       </c>
     </row>
     <row r="45">
@@ -7701,37 +7703,37 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C45" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D45" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E45" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F45" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G45" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I45" t="n">
         <v>66.5121164321834</v>
       </c>
       <c r="J45" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K45" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L45" t="n">
-        <v>765.1517452158131</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M45" t="n">
         <v>1212.428070438129</v>
@@ -7758,7 +7760,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U45" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V45" t="n">
         <v>1779.608347199865</v>
@@ -7767,10 +7769,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X45" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y45" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="46">
@@ -7804,52 +7806,52 @@
         <v>2471.230932223169</v>
       </c>
       <c r="J46" t="n">
-        <v>2483.053685760608</v>
+        <v>2483.053685760609</v>
       </c>
       <c r="K46" t="n">
         <v>2581.364540028279</v>
       </c>
       <c r="L46" t="n">
-        <v>2737.074383950636</v>
+        <v>2737.074383950637</v>
       </c>
       <c r="M46" t="n">
         <v>2904.506865249834</v>
       </c>
       <c r="N46" t="n">
-        <v>3075.815702279681</v>
+        <v>3075.815702279682</v>
       </c>
       <c r="O46" t="n">
         <v>3213.734051497871</v>
       </c>
       <c r="P46" t="n">
-        <v>3312.685054250629</v>
+        <v>3312.68505425063</v>
       </c>
       <c r="Q46" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R46" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S46" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T46" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U46" t="n">
-        <v>3036.502954734814</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V46" t="n">
-        <v>2781.818466528927</v>
+        <v>3070.921333403284</v>
       </c>
       <c r="W46" t="n">
-        <v>2492.401296491966</v>
+        <v>2781.504163366323</v>
       </c>
       <c r="X46" t="n">
-        <v>2492.401296491966</v>
+        <v>2553.514612468306</v>
       </c>
       <c r="Y46" t="n">
-        <v>2492.401296491966</v>
+        <v>2471.230932223169</v>
       </c>
     </row>
   </sheetData>
@@ -22544,10 +22546,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>195.2082544971606</v>
       </c>
       <c r="C2" t="n">
-        <v>200.1003545949131</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -22565,7 +22567,7 @@
         <v>316.8938261062223</v>
       </c>
       <c r="I2" t="n">
-        <v>125.4713171199747</v>
+        <v>119.0745931339332</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22595,16 +22597,16 @@
         <v>77.08171901666378</v>
       </c>
       <c r="S2" t="n">
-        <v>158.7758131900531</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>213.4438810562068</v>
+        <v>25.91829388988683</v>
       </c>
       <c r="U2" t="n">
-        <v>63.64367339871046</v>
+        <v>251.1692605650303</v>
       </c>
       <c r="V2" t="n">
-        <v>140.226671303815</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -22613,7 +22615,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>198.7123514897337</v>
+        <v>198.7123514897336</v>
       </c>
     </row>
     <row r="3">
@@ -22638,7 +22640,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.1637893657753</v>
+        <v>5.668805342773624</v>
       </c>
       <c r="H3" t="n">
         <v>100.8417573507397</v>
@@ -22647,7 +22649,7 @@
         <v>58.90455890409149</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>15.37922103265839</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22671,28 +22673,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>72.4328956284632</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>149.7702446909496</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>195.4095977920013</v>
       </c>
       <c r="U3" t="n">
-        <v>38.33818124377106</v>
+        <v>38.33818124377098</v>
       </c>
       <c r="V3" t="n">
-        <v>45.2749999831054</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>64.16939599459974</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>55.97966906004143</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>18.15710861098441</v>
       </c>
     </row>
     <row r="4">
@@ -22726,10 +22728,10 @@
         <v>125.7072197708667</v>
       </c>
       <c r="J4" t="n">
-        <v>57.06999962825418</v>
+        <v>18.95836326784828</v>
       </c>
       <c r="K4" t="n">
-        <v>14.10430989402852</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22750,7 +22752,7 @@
         <v>68.68604055159726</v>
       </c>
       <c r="R4" t="n">
-        <v>80.60642335625593</v>
+        <v>132.8223696106904</v>
       </c>
       <c r="S4" t="n">
         <v>206.7802557954962</v>
@@ -22793,13 +22795,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>219.3504585753915</v>
       </c>
       <c r="G5" t="n">
-        <v>413.097833230058</v>
+        <v>225.5722460637381</v>
       </c>
       <c r="H5" t="n">
-        <v>316.8938261062223</v>
+        <v>129.3682389399023</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -22829,19 +22831,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>77.08171901666378</v>
+        <v>77.08171901666375</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>158.7758131900531</v>
       </c>
       <c r="T5" t="n">
-        <v>25.91829388988685</v>
+        <v>213.4438810562068</v>
       </c>
       <c r="U5" t="n">
-        <v>63.6436733987104</v>
+        <v>251.1692605650303</v>
       </c>
       <c r="V5" t="n">
-        <v>259.3012644377482</v>
+        <v>288.0510384140151</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -22866,10 +22868,10 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>33.69938639163409</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>71.92902368502851</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -22881,10 +22883,10 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>58.90455890409149</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>15.37922103265838</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22908,19 +22910,19 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>72.4328956284632</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>149.7702446909496</v>
       </c>
       <c r="T6" t="n">
-        <v>195.4095977920013</v>
+        <v>195.4095977920012</v>
       </c>
       <c r="U6" t="n">
         <v>225.8637684100909</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>45.27499998310532</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
@@ -22963,10 +22965,10 @@
         <v>125.7072197708667</v>
       </c>
       <c r="J7" t="n">
-        <v>4.854053373819752</v>
+        <v>18.95836326784812</v>
       </c>
       <c r="K7" t="n">
-        <v>14.10430989402852</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -22981,10 +22983,10 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>18.10760906709386</v>
+        <v>18.10760906709383</v>
       </c>
       <c r="Q7" t="n">
-        <v>68.68604055159726</v>
+        <v>68.68604055159723</v>
       </c>
       <c r="R7" t="n">
         <v>132.8223696106904</v>
@@ -23021,22 +23023,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>203.5913399034544</v>
+        <v>177.7473046046875</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>225.572246063738</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>129.3682389399022</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -23066,16 +23068,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>77.08171901666375</v>
       </c>
       <c r="S8" t="n">
-        <v>130.8133087092504</v>
+        <v>119.0745931339331</v>
       </c>
       <c r="T8" t="n">
-        <v>208.0722578696039</v>
+        <v>213.4438810562068</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0710926941158</v>
+        <v>251.1692605650303</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -23087,7 +23089,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -23100,28 +23102,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>135.5072338470353</v>
+        <v>136.1637893657753</v>
       </c>
       <c r="H9" t="n">
-        <v>94.50081326185514</v>
+        <v>100.8417573507397</v>
       </c>
       <c r="I9" t="n">
-        <v>36.29946757904885</v>
+        <v>58.90455890409149</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>15.37922103265838</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23145,25 +23147,25 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>72.43289562846319</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>7.884010625681185</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>38.33818124377089</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>45.27499998310523</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>236.2926906757748</v>
       </c>
       <c r="X9" t="n">
-        <v>195.3348076774677</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -23191,19 +23193,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>100.816380810913</v>
+        <v>167.0019352027142</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>153.4336708318196</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>125.7072197708667</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>4.85405337381961</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>14.1043098940285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23218,22 +23220,22 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>18.10760906709383</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>68.68604055159723</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>132.8223696106904</v>
       </c>
       <c r="S10" t="n">
-        <v>197.1876907596159</v>
+        <v>206.7802557954962</v>
       </c>
       <c r="T10" t="n">
-        <v>221.3678187343026</v>
+        <v>223.7196734901001</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2350578157167</v>
+        <v>286.2650814934503</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -23264,19 +23266,19 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>187.569715395735</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>144.9899196596983</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,19 +23308,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23419,7 +23421,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>90.70473944880575</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23428,7 +23430,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.772586778758438</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23461,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>189.7690253314419</v>
@@ -23492,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>222.7020862222415</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23504,13 +23506,13 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>27.26433768453194</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23552,7 +23554,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23659,10 +23661,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>131.8582917620353</v>
       </c>
       <c r="F16" t="n">
-        <v>131.8582917620353</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23732,13 +23734,13 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -23747,7 +23749,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>66.87176761382619</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
         <v>41.57692977292595</v>
@@ -23780,13 +23782,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U17" t="n">
-        <v>250.995171958902</v>
+        <v>134.0563562170533</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23795,7 +23797,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23887,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>90.93497457133149</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23938,16 +23940,16 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -23956,7 +23958,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>68.28332567317719</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23969,13 +23971,13 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>52.95783295555725</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -24017,7 +24019,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -24029,13 +24031,13 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>329.0241458276278</v>
       </c>
     </row>
     <row r="21">
@@ -24133,10 +24135,10 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>38.07056488597483</v>
+        <v>22.00675184224305</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>166.0258082590282</v>
@@ -24145,7 +24147,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24190,7 +24192,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24218,13 +24220,13 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>153.1883133533574</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24254,7 +24256,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -24263,7 +24265,7 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -24272,7 +24274,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>362.4386851003786</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24361,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>75.90048803199637</v>
       </c>
       <c r="H25" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,10 +24414,10 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
-        <v>28.87751670992407</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.2118382056129</v>
@@ -24424,13 +24426,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24446,7 +24448,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -24458,7 +24460,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>155.7085463501234</v>
       </c>
       <c r="I26" t="n">
         <v>41.57692977292595</v>
@@ -24497,10 +24499,10 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>182.6393295006697</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -24598,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>74.88757340835841</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24652,22 +24654,22 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>91.24613470230962</v>
       </c>
     </row>
     <row r="29">
@@ -24677,10 +24679,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -24692,13 +24694,13 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>143.604523148443</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24728,22 +24730,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>77.95064019540972</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U29" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -24883,22 +24885,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>198.59028865006</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>190.7684683149579</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24914,10 +24916,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>340.0882417040765</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -24929,13 +24931,13 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>143.6045231484443</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24971,7 +24973,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -24980,10 +24982,10 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25072,22 +25074,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>120.5854304825591</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
         <v>144.7550149143208</v>
@@ -25120,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
-        <v>216.003486391305</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
         <v>286.2118382056129</v>
@@ -25141,7 +25143,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25160,13 +25162,13 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>294.6077643873205</v>
@@ -25205,13 +25207,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
-        <v>203.9179701396201</v>
+        <v>174.9841412040002</v>
       </c>
       <c r="U35" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>97.9556892659979</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -25309,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -25321,16 +25323,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>14.23995713611906</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25360,13 +25362,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>189.7690253314419</v>
+        <v>140.0212912210568</v>
       </c>
       <c r="T37" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -25378,7 +25380,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25403,7 +25405,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>171.5769895179258</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H38" t="n">
         <v>294.6077643873205</v>
@@ -25439,13 +25441,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>21.19860275476498</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -25454,7 +25456,7 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25561,13 +25563,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>166.0258082590282</v>
+        <v>59.55223036870441</v>
       </c>
       <c r="H40" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,25 +25596,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>204.750994762928</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25631,22 +25633,22 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>181.1251564493169</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>110.4338048678518</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25789,7 +25791,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>135.8091423302597</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25798,13 +25800,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
-        <v>144.7550149143208</v>
+        <v>62.27529637717799</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25877,7 +25879,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>25.24428266650727</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H44" t="n">
         <v>294.6077643873205</v>
@@ -25916,13 +25918,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>145.9927856228087</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -26020,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>158.8733195558281</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26077,7 +26079,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26086,10 +26088,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>137.1238099094096</v>
       </c>
     </row>
   </sheetData>
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>658545.8706526516</v>
+        <v>424931.0936061952</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>839054.4922903117</v>
+        <v>839054.4922903116</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>839054.4922903116</v>
+        <v>839054.4922903113</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>839054.4922903117</v>
+        <v>839054.4922903115</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>839054.4922903115</v>
+        <v>839054.492290312</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>839054.4922903117</v>
+        <v>839054.4922903114</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>839054.4922903115</v>
+        <v>839054.4922903116</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>839054.4922903118</v>
+        <v>839054.4922903115</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>839054.4922903116</v>
+        <v>839054.4922903115</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>839054.4922903114</v>
+        <v>839054.4922903115</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>839054.4922903116</v>
+        <v>839054.4922903115</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>839054.4922903114</v>
+        <v>839054.4922903115</v>
       </c>
     </row>
   </sheetData>
@@ -26317,37 +26319,37 @@
         <v>158307.6623238766</v>
       </c>
       <c r="D2" t="n">
-        <v>245340.6184784387</v>
+        <v>158307.6623238765</v>
       </c>
       <c r="E2" t="n">
-        <v>312588.9285003118</v>
+        <v>312588.9285003119</v>
       </c>
       <c r="F2" t="n">
         <v>312588.9285003118</v>
       </c>
       <c r="G2" t="n">
+        <v>312588.9285003119</v>
+      </c>
+      <c r="H2" t="n">
+        <v>312588.9285003119</v>
+      </c>
+      <c r="I2" t="n">
         <v>312588.9285003117</v>
-      </c>
-      <c r="H2" t="n">
-        <v>312588.9285003117</v>
-      </c>
-      <c r="I2" t="n">
-        <v>312588.928500312</v>
       </c>
       <c r="J2" t="n">
         <v>312588.9285003117</v>
       </c>
       <c r="K2" t="n">
-        <v>312588.9285003116</v>
+        <v>312588.9285003117</v>
       </c>
       <c r="L2" t="n">
-        <v>312588.9285003117</v>
+        <v>312588.9285003119</v>
       </c>
       <c r="M2" t="n">
         <v>312588.9285003118</v>
       </c>
       <c r="N2" t="n">
-        <v>312588.9285003117</v>
+        <v>312588.9285003116</v>
       </c>
       <c r="O2" t="n">
         <v>312588.9285003117</v>
@@ -26369,10 +26371,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>371558.524948766</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>276030.7457669101</v>
+        <v>627134.6436336675</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854459</v>
+        <v>49064.94472854453</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>89743.37813127038</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>72091.35261608614</v>
+        <v>160456.4418678774</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,46 +26420,46 @@
         <v>137.800118072334</v>
       </c>
       <c r="C4" t="n">
-        <v>137.800118072334</v>
+        <v>137.8001180723341</v>
       </c>
       <c r="D4" t="n">
-        <v>384.3219252469136</v>
+        <v>137.8001180723341</v>
       </c>
       <c r="E4" t="n">
-        <v>584.6469890061232</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="F4" t="n">
-        <v>584.6469890061232</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="G4" t="n">
-        <v>584.6469890061232</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="H4" t="n">
-        <v>584.6469890061232</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="I4" t="n">
-        <v>584.6469890061232</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="J4" t="n">
-        <v>584.6469890061232</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="K4" t="n">
-        <v>584.6469890061232</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="L4" t="n">
-        <v>584.6469890061232</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="M4" t="n">
-        <v>584.646989006123</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="N4" t="n">
-        <v>584.646989006123</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="O4" t="n">
-        <v>584.6469890061232</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="P4" t="n">
-        <v>584.646989006123</v>
+        <v>584.6469890061231</v>
       </c>
     </row>
     <row r="5">
@@ -26467,40 +26469,40 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56985.80041161357</v>
+        <v>56985.80041161358</v>
       </c>
       <c r="C5" t="n">
-        <v>56985.80041161357</v>
+        <v>56985.80041161358</v>
       </c>
       <c r="D5" t="n">
-        <v>85199.08185587224</v>
+        <v>56985.80041161359</v>
       </c>
       <c r="E5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="F5" t="n">
         <v>74306.3405613933</v>
       </c>
       <c r="G5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="H5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="I5" t="n">
         <v>74306.3405613933</v>
       </c>
       <c r="J5" t="n">
+        <v>74306.34056139328</v>
+      </c>
+      <c r="K5" t="n">
         <v>74306.3405613933</v>
       </c>
-      <c r="K5" t="n">
+      <c r="L5" t="n">
         <v>74306.34056139328</v>
       </c>
-      <c r="L5" t="n">
+      <c r="M5" t="n">
         <v>74306.3405613933</v>
-      </c>
-      <c r="M5" t="n">
-        <v>74306.34056139328</v>
       </c>
       <c r="N5" t="n">
         <v>74306.34056139328</v>
@@ -26509,7 +26511,7 @@
         <v>74306.34056139328</v>
       </c>
       <c r="P5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.3405613933</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-490172.8407266547</v>
+        <v>-490172.8407266548</v>
       </c>
       <c r="C6" t="n">
         <v>101184.0617941907</v>
       </c>
       <c r="D6" t="n">
-        <v>-211801.3102514465</v>
+        <v>101184.0617941906</v>
       </c>
       <c r="E6" t="n">
-        <v>-38332.8048169977</v>
+        <v>-389436.7026837551</v>
       </c>
       <c r="F6" t="n">
         <v>237697.9409499124</v>
       </c>
       <c r="G6" t="n">
-        <v>237697.9409499123</v>
+        <v>237697.9409499124</v>
       </c>
       <c r="H6" t="n">
-        <v>237697.9409499123</v>
+        <v>237697.9409499124</v>
       </c>
       <c r="I6" t="n">
-        <v>237697.9409499125</v>
+        <v>237697.9409499122</v>
       </c>
       <c r="J6" t="n">
         <v>188632.9962213677</v>
       </c>
       <c r="K6" t="n">
+        <v>237697.9409499123</v>
+      </c>
+      <c r="L6" t="n">
+        <v>237697.9409499124</v>
+      </c>
+      <c r="M6" t="n">
+        <v>77241.49908203504</v>
+      </c>
+      <c r="N6" t="n">
+        <v>237697.9409499121</v>
+      </c>
+      <c r="O6" t="n">
         <v>237697.9409499122</v>
       </c>
-      <c r="L6" t="n">
-        <v>147954.5628186419</v>
-      </c>
-      <c r="M6" t="n">
-        <v>165606.5883338263</v>
-      </c>
-      <c r="N6" t="n">
-        <v>237697.9409499123</v>
-      </c>
-      <c r="O6" t="n">
-        <v>237697.9409499123</v>
-      </c>
       <c r="P6" t="n">
-        <v>237697.9409499123</v>
+        <v>237697.9409499122</v>
       </c>
     </row>
   </sheetData>
@@ -26738,10 +26740,10 @@
         <v>548.4699409129046</v>
       </c>
       <c r="C3" t="n">
-        <v>548.4699409129046</v>
+        <v>548.4699409129047</v>
       </c>
       <c r="D3" t="n">
-        <v>853.7106645376841</v>
+        <v>548.4699409129047</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26787,40 +26789,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663199</v>
+        <v>187.52558716632</v>
       </c>
       <c r="C4" t="n">
-        <v>187.5255871663199</v>
+        <v>187.52558716632</v>
       </c>
       <c r="D4" t="n">
-        <v>542.1149567261632</v>
+        <v>187.52558716632</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="F4" t="n">
         <v>831.4014554022929</v>
       </c>
       <c r="G4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="H4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="I4" t="n">
         <v>831.4014554022929</v>
       </c>
       <c r="J4" t="n">
+        <v>831.4014554022925</v>
+      </c>
+      <c r="K4" t="n">
         <v>831.4014554022929</v>
       </c>
-      <c r="K4" t="n">
+      <c r="L4" t="n">
         <v>831.4014554022925</v>
       </c>
-      <c r="L4" t="n">
-        <v>831.4014554022929</v>
-      </c>
       <c r="M4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="N4" t="n">
         <v>831.4014554022925</v>
@@ -26829,7 +26831,7 @@
         <v>831.4014554022925</v>
       </c>
       <c r="P4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
     </row>
   </sheetData>
@@ -26963,10 +26965,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>305.2407236247795</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>236.0660360556142</v>
+        <v>541.3067596803936</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663199</v>
+        <v>187.52558716632</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>354.5893695598432</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>289.2864986761297</v>
+        <v>643.8758682359725</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663198</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>354.5893695598436</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>289.2864986761293</v>
+        <v>643.8758682359727</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663199</v>
+        <v>187.52558716632</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>354.5893695598432</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>289.2864986761297</v>
+        <v>643.8758682359725</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31130,7 +31132,7 @@
         <v>111.4584056340083</v>
       </c>
       <c r="K3" t="n">
-        <v>190.5001680621737</v>
+        <v>190.5001680621738</v>
       </c>
       <c r="L3" t="n">
         <v>256.1509851405032</v>
@@ -31279,13 +31281,13 @@
         <v>2.204904285077002</v>
       </c>
       <c r="H5" t="n">
-        <v>22.58097600954485</v>
+        <v>22.58097600954486</v>
       </c>
       <c r="I5" t="n">
-        <v>85.00457245043118</v>
+        <v>85.00457245043121</v>
       </c>
       <c r="J5" t="n">
-        <v>187.1384950655543</v>
+        <v>187.1384950655544</v>
       </c>
       <c r="K5" t="n">
         <v>280.4720934528639</v>
@@ -31297,25 +31299,25 @@
         <v>387.1618995470274</v>
       </c>
       <c r="N5" t="n">
-        <v>393.4265838470024</v>
+        <v>393.4265838470025</v>
       </c>
       <c r="O5" t="n">
         <v>371.501566862268</v>
       </c>
       <c r="P5" t="n">
-        <v>317.0679923244294</v>
+        <v>317.0679923244295</v>
       </c>
       <c r="Q5" t="n">
-        <v>238.1048576151092</v>
+        <v>238.1048576151093</v>
       </c>
       <c r="R5" t="n">
-        <v>138.5038187974683</v>
+        <v>138.5038187974684</v>
       </c>
       <c r="S5" t="n">
         <v>50.24425639619223</v>
       </c>
       <c r="T5" t="n">
-        <v>9.651968507924579</v>
+        <v>9.651968507924582</v>
       </c>
       <c r="U5" t="n">
         <v>0.1763923428061601</v>
@@ -31361,7 +31363,7 @@
         <v>11.39368688575676</v>
       </c>
       <c r="I6" t="n">
-        <v>40.6178210959085</v>
+        <v>40.61782109590851</v>
       </c>
       <c r="J6" t="n">
         <v>111.4584056340083</v>
@@ -31370,16 +31372,16 @@
         <v>190.5001680621737</v>
       </c>
       <c r="L6" t="n">
-        <v>256.1509851405032</v>
+        <v>256.1509851405033</v>
       </c>
       <c r="M6" t="n">
-        <v>298.9161177975329</v>
+        <v>298.916117797533</v>
       </c>
       <c r="N6" t="n">
-        <v>306.8275379829654</v>
+        <v>306.8275379829655</v>
       </c>
       <c r="O6" t="n">
-        <v>280.6872536292673</v>
+        <v>280.6872536292674</v>
       </c>
       <c r="P6" t="n">
         <v>225.2762668628872</v>
@@ -31388,16 +31390,16 @@
         <v>150.5912184936715</v>
       </c>
       <c r="R6" t="n">
-        <v>73.24660833550075</v>
+        <v>73.24660833550077</v>
       </c>
       <c r="S6" t="n">
-        <v>21.9129264128882</v>
+        <v>21.91292641288821</v>
       </c>
       <c r="T6" t="n">
-        <v>4.755130902820369</v>
+        <v>4.75513090282037</v>
       </c>
       <c r="U6" t="n">
-        <v>0.07761367088390163</v>
+        <v>0.07761367088390164</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.9890441557445819</v>
+        <v>0.9890441557445822</v>
       </c>
       <c r="H7" t="n">
-        <v>8.793501675620016</v>
+        <v>8.793501675620018</v>
       </c>
       <c r="I7" t="n">
         <v>29.74325515639162</v>
       </c>
       <c r="J7" t="n">
-        <v>69.92542181114193</v>
+        <v>69.92542181114196</v>
       </c>
       <c r="K7" t="n">
         <v>114.9089482765069</v>
@@ -31464,19 +31466,19 @@
         <v>119.6203949820538</v>
       </c>
       <c r="Q7" t="n">
-        <v>82.81896107784858</v>
+        <v>82.81896107784861</v>
       </c>
       <c r="R7" t="n">
-        <v>44.4710217664791</v>
+        <v>44.47102176647911</v>
       </c>
       <c r="S7" t="n">
         <v>17.23634224147603</v>
       </c>
       <c r="T7" t="n">
-        <v>4.225915938181394</v>
+        <v>4.225915938181395</v>
       </c>
       <c r="U7" t="n">
-        <v>0.05394786304061362</v>
+        <v>0.05394786304061363</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.432002671508275</v>
+        <v>2.204904285077002</v>
       </c>
       <c r="H8" t="n">
-        <v>35.14799735958413</v>
+        <v>22.58097600954486</v>
       </c>
       <c r="I8" t="n">
-        <v>132.3122829933229</v>
+        <v>85.00457245043121</v>
       </c>
       <c r="J8" t="n">
-        <v>291.2869367409257</v>
+        <v>187.1384950655544</v>
       </c>
       <c r="K8" t="n">
-        <v>436.5636098258711</v>
+        <v>280.4720934528639</v>
       </c>
       <c r="L8" t="n">
-        <v>541.5957615840426</v>
+        <v>347.9504329672893</v>
       </c>
       <c r="M8" t="n">
-        <v>602.6296390934779</v>
+        <v>387.1618995470274</v>
       </c>
       <c r="N8" t="n">
-        <v>612.3808166839008</v>
+        <v>393.4265838470025</v>
       </c>
       <c r="O8" t="n">
-        <v>578.2538401190903</v>
+        <v>371.501566862268</v>
       </c>
       <c r="P8" t="n">
-        <v>493.5262741662298</v>
+        <v>317.0679923244295</v>
       </c>
       <c r="Q8" t="n">
-        <v>370.6176784928395</v>
+        <v>238.1048576151093</v>
       </c>
       <c r="R8" t="n">
-        <v>215.5855378141319</v>
+        <v>138.5038187974684</v>
       </c>
       <c r="S8" t="n">
-        <v>78.20676087699491</v>
+        <v>50.24425639619223</v>
       </c>
       <c r="T8" t="n">
-        <v>15.02359169452748</v>
+        <v>9.651968507924582</v>
       </c>
       <c r="U8" t="n">
-        <v>0.274560213720662</v>
+        <v>0.1763923428061601</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.836283316175396</v>
+        <v>1.179727797435304</v>
       </c>
       <c r="H9" t="n">
-        <v>17.73463097464133</v>
+        <v>11.39368688575676</v>
       </c>
       <c r="I9" t="n">
-        <v>63.22291242095115</v>
+        <v>40.61782109590851</v>
       </c>
       <c r="J9" t="n">
-        <v>173.4885040076062</v>
+        <v>111.4584056340083</v>
       </c>
       <c r="K9" t="n">
-        <v>296.5194861913577</v>
+        <v>190.5001680621737</v>
       </c>
       <c r="L9" t="n">
-        <v>398.7070419616798</v>
+        <v>256.1509851405033</v>
       </c>
       <c r="M9" t="n">
-        <v>465.2723121730378</v>
+        <v>298.916117797533</v>
       </c>
       <c r="N9" t="n">
-        <v>477.5866858152843</v>
+        <v>306.8275379829655</v>
       </c>
       <c r="O9" t="n">
-        <v>436.8985133884505</v>
+        <v>280.6872536292674</v>
       </c>
       <c r="P9" t="n">
-        <v>350.6495746475632</v>
+        <v>225.2762668628872</v>
       </c>
       <c r="Q9" t="n">
-        <v>234.3999545349506</v>
+        <v>150.5912184936715</v>
       </c>
       <c r="R9" t="n">
-        <v>114.0106430867496</v>
+        <v>73.24660833550077</v>
       </c>
       <c r="S9" t="n">
-        <v>34.10815721053859</v>
+        <v>21.91292641288821</v>
       </c>
       <c r="T9" t="n">
-        <v>7.401510384057843</v>
+        <v>4.75513090282037</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1208081129062761</v>
+        <v>0.07761367088390164</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.539478247526971</v>
+        <v>0.9890441557445822</v>
       </c>
       <c r="H10" t="n">
-        <v>13.68736114619435</v>
+        <v>8.793501675620018</v>
       </c>
       <c r="I10" t="n">
-        <v>46.29630948017475</v>
+        <v>29.74325515639162</v>
       </c>
       <c r="J10" t="n">
-        <v>108.8411121001569</v>
+        <v>69.92542181114196</v>
       </c>
       <c r="K10" t="n">
-        <v>178.8593818490426</v>
+        <v>114.9089482765069</v>
       </c>
       <c r="L10" t="n">
-        <v>228.8784296368736</v>
+        <v>147.0438920276991</v>
       </c>
       <c r="M10" t="n">
-        <v>241.3202129282506</v>
+        <v>155.0371670682166</v>
       </c>
       <c r="N10" t="n">
-        <v>235.5821576420139</v>
+        <v>151.3507297604415</v>
       </c>
       <c r="O10" t="n">
-        <v>217.5982526595396</v>
+        <v>139.7968957592433</v>
       </c>
       <c r="P10" t="n">
-        <v>186.1928964099892</v>
+        <v>119.6203949820538</v>
       </c>
       <c r="Q10" t="n">
-        <v>128.9103103451903</v>
+        <v>82.81896107784861</v>
       </c>
       <c r="R10" t="n">
-        <v>69.22054011153089</v>
+        <v>44.47102176647911</v>
       </c>
       <c r="S10" t="n">
-        <v>26.82890727735639</v>
+        <v>17.23634224147603</v>
       </c>
       <c r="T10" t="n">
-        <v>6.577770693978875</v>
+        <v>4.225915938181395</v>
       </c>
       <c r="U10" t="n">
-        <v>0.08397154077419852</v>
+        <v>0.05394786304061363</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31996,7 +31998,7 @@
         <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
-        <v>371.8329054953992</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
         <v>557.281137600381</v>
@@ -32236,7 +32238,7 @@
         <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.2811376003814</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L17" t="n">
         <v>691.3565293623194</v>
@@ -33029,7 +33031,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M27" t="n">
         <v>593.9283018233475</v>
@@ -33263,7 +33265,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K30" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
         <v>508.9565619138796</v>
@@ -33272,7 +33274,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O30" t="n">
         <v>557.708647897025</v>
@@ -33661,7 +33663,7 @@
         <v>557.281137600381</v>
       </c>
       <c r="L35" t="n">
-        <v>691.3565293623184</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M35" t="n">
         <v>769.2673490574995</v>
@@ -33907,7 +33909,7 @@
         <v>781.7148990095023</v>
       </c>
       <c r="O38" t="n">
-        <v>738.151212309905</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P38" t="n">
         <v>629.9949819746414</v>
@@ -33992,7 +33994,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
@@ -34372,7 +34374,7 @@
         <v>557.281137600381</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623184</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M44" t="n">
         <v>769.2673490574995</v>
@@ -34445,7 +34447,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026436</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K45" t="n">
         <v>378.5123470353157</v>
@@ -34778,7 +34780,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>52.65872908781469</v>
+        <v>52.65872908781483</v>
       </c>
       <c r="L3" t="n">
         <v>117.596605360629</v>
@@ -34933,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>6.092590538868052</v>
+        <v>6.09259053886808</v>
       </c>
       <c r="K5" t="n">
-        <v>60.38224240788333</v>
+        <v>60.38224240788338</v>
       </c>
       <c r="L5" t="n">
-        <v>112.184017997302</v>
+        <v>112.1840179973021</v>
       </c>
       <c r="M5" t="n">
-        <v>156.8156663197546</v>
+        <v>156.8156663197547</v>
       </c>
       <c r="N5" t="n">
-        <v>164.0135202504115</v>
+        <v>164.0135202504116</v>
       </c>
       <c r="O5" t="n">
-        <v>141.4033554405812</v>
+        <v>141.4033554405813</v>
       </c>
       <c r="P5" t="n">
-        <v>85.8349965691599</v>
+        <v>85.83499656915996</v>
       </c>
       <c r="Q5" t="n">
-        <v>15.79916774065975</v>
+        <v>15.79916774065978</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35015,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>52.65872908781469</v>
+        <v>52.65872908781472</v>
       </c>
       <c r="L6" t="n">
-        <v>117.596605360629</v>
+        <v>117.5966053606291</v>
       </c>
       <c r="M6" t="n">
-        <v>156.7820838755146</v>
+        <v>156.7820838755147</v>
       </c>
       <c r="N6" t="n">
         <v>175.4858258996321</v>
       </c>
       <c r="O6" t="n">
-        <v>138.0910091848229</v>
+        <v>138.091009184823</v>
       </c>
       <c r="P6" t="n">
-        <v>91.30185944855694</v>
+        <v>91.301859448557</v>
       </c>
       <c r="Q6" t="n">
-        <v>10.60944440764996</v>
+        <v>10.60944440764999</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35097,16 +35099,16 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>12.15921574646077</v>
+        <v>12.1592157464608</v>
       </c>
       <c r="M7" t="n">
-        <v>16.11138312061152</v>
+        <v>16.11138312061155</v>
       </c>
       <c r="N7" t="n">
-        <v>23.66518529520826</v>
+        <v>23.66518529520829</v>
       </c>
       <c r="O7" t="n">
-        <v>1.340357307400524</v>
+        <v>1.340357307400552</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -35170,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>110.2410322142395</v>
+        <v>6.09259053886808</v>
       </c>
       <c r="K8" t="n">
-        <v>216.4737587808906</v>
+        <v>60.38224240788338</v>
       </c>
       <c r="L8" t="n">
-        <v>305.8293466140554</v>
+        <v>112.1840179973021</v>
       </c>
       <c r="M8" t="n">
-        <v>372.2834058662052</v>
+        <v>156.8156663197547</v>
       </c>
       <c r="N8" t="n">
-        <v>382.9677530873099</v>
+        <v>164.0135202504116</v>
       </c>
       <c r="O8" t="n">
-        <v>348.1556286974036</v>
+        <v>141.4033554405813</v>
       </c>
       <c r="P8" t="n">
-        <v>262.2932784109602</v>
+        <v>85.83499656915996</v>
       </c>
       <c r="Q8" t="n">
-        <v>148.31198861839</v>
+        <v>15.79916774065978</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>46.6508773409395</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>158.6780472169987</v>
+        <v>52.65872908781472</v>
       </c>
       <c r="L9" t="n">
-        <v>260.1526621818056</v>
+        <v>117.5966053606291</v>
       </c>
       <c r="M9" t="n">
-        <v>323.1382782510195</v>
+        <v>156.7820838755147</v>
       </c>
       <c r="N9" t="n">
-        <v>346.2449737319509</v>
+        <v>175.4858258996321</v>
       </c>
       <c r="O9" t="n">
-        <v>294.302268944006</v>
+        <v>138.091009184823</v>
       </c>
       <c r="P9" t="n">
-        <v>216.6751672332329</v>
+        <v>91.301859448557</v>
       </c>
       <c r="Q9" t="n">
-        <v>94.41818044892906</v>
+        <v>10.60944440764999</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>49.84612367850724</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>93.99375335563528</v>
+        <v>12.1592157464608</v>
       </c>
       <c r="M10" t="n">
-        <v>102.3944289806455</v>
+        <v>16.11138312061155</v>
       </c>
       <c r="N10" t="n">
-        <v>107.8966131767807</v>
+        <v>23.66518529520829</v>
       </c>
       <c r="O10" t="n">
-        <v>79.14171420769682</v>
+        <v>1.340357307400552</v>
       </c>
       <c r="P10" t="n">
-        <v>48.46489236084162</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35644,7 +35646,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687129</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K14" t="n">
         <v>337.1912865554005</v>
@@ -35884,7 +35886,7 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554008</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L17" t="n">
         <v>455.5901143923322</v>
@@ -36677,7 +36679,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L27" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M27" t="n">
         <v>451.7942679013292</v>
@@ -36911,7 +36913,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K30" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
         <v>370.4021821340054</v>
@@ -36920,7 +36922,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O30" t="n">
         <v>415.1124034525806</v>
@@ -37309,7 +37311,7 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L35" t="n">
-        <v>455.5901143923311</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M35" t="n">
         <v>538.9211158302268</v>
@@ -37555,7 +37557,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O38" t="n">
-        <v>508.0530008882182</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P38" t="n">
         <v>398.7619862193719</v>
@@ -37640,7 +37642,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -38020,7 +38022,7 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923311</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M44" t="n">
         <v>538.9211158302268</v>
@@ -38093,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.62350453597693</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K45" t="n">
         <v>240.6709080609567</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_25_19.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_25_19.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>572993.6190112259</v>
+        <v>515726.662165859</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8547013.059513938</v>
+        <v>8088944.869226764</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8506890.903312845</v>
+        <v>8722880.896883903</v>
       </c>
     </row>
     <row r="11">
@@ -658,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>165.1725371760946</v>
+      </c>
+      <c r="F2" t="n">
         <v>187.52558716632</v>
       </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="I2" t="n">
-        <v>6.396723986041487</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,10 +709,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>158.7758131900531</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -752,7 +752,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>130.4949840230017</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>72.4328956284632</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>149.7702446909496</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -797,16 +797,16 @@
         <v>187.52558716632</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>165.1725371760945</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="Y3" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -822,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>52.21594625443443</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -840,10 +840,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>38.1116363604059</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>14.10430989402852</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -898,64 +898,64 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>165.1725371760945</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>187.52558716632</v>
       </c>
       <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
         <v>187.52558716632</v>
-      </c>
-      <c r="I5" t="n">
-        <v>125.4713171199747</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0</v>
-      </c>
-      <c r="V5" t="n">
-        <v>39.70122005611984</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -977,28 +977,28 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>149.7933161434361</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>85.71605677037243</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>136.1637893657753</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>100.8417573507397</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>15.37922103265839</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>72.43289562846319</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1031,7 +1031,7 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="V6" t="n">
         <v>187.52558716632</v>
@@ -1040,7 +1040,7 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1077,10 +1077,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>38.11163636040603</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>14.1043098940285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1116,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>52.21594625443443</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1135,25 +1135,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>187.52558716632</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>42.33420368190727</v>
       </c>
       <c r="G8" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>125.4713171199747</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>39.70122005611995</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.0710926941158</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1214,16 +1214,16 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1262,25 +1262,25 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>149.7702446909496</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>187.52558716632</v>
+        <v>225.8205739680685</v>
       </c>
       <c r="V9" t="n">
-        <v>187.52558716632</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>15.40229248514479</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>166.6722854038095</v>
       </c>
     </row>
     <row r="10">
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>11.73858850237266</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1302,19 +1302,19 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.4515011109318</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>148.5398113612452</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>52.21594625443454</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1378,19 +1378,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>194.3606546765268</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>102.8695072550961</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U11" t="n">
         <v>250.995171958902</v>
@@ -1438,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1463,13 +1463,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>134.9994691657081</v>
+        <v>134.999469165707</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247723</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1533,22 +1533,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>57.91073356940661</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1590,10 +1590,10 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>149.9901675479391</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1606,16 +1606,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>160.0317554412391</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>117.0340619339638</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1624,10 +1624,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,16 +1657,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1703,7 +1703,7 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851092</v>
       </c>
       <c r="I15" t="n">
         <v>18.81721868247742</v>
@@ -1773,19 +1773,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>14.57567088453384</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -1827,13 +1827,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>47.90418220988089</v>
       </c>
     </row>
     <row r="17">
@@ -1846,19 +1846,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>410.9217256534534</v>
+        <v>106.111715575619</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1897,10 +1897,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U17" t="n">
-        <v>116.9388157418486</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1909,10 +1909,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1934,7 +1934,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933836</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
         <v>134.9994691657081</v>
@@ -2001,13 +2001,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>88.8970056106058</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2061,16 +2061,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>124.4808309317252</v>
       </c>
     </row>
     <row r="20">
@@ -2083,13 +2083,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2098,10 +2098,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H20" t="n">
-        <v>294.6077643873205</v>
+        <v>210.3533805543374</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,25 +2131,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>57.21379282842584</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2238,16 +2238,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>124.4272108043261</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2292,19 +2292,19 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>53.54735467376845</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2317,10 +2317,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -2332,13 +2332,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>257.7334123000961</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H23" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2371,7 +2371,7 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>250.995171958902</v>
@@ -2380,13 +2380,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>332.7951554392618</v>
       </c>
     </row>
     <row r="24">
@@ -2481,22 +2481,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>90.12532022703185</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2529,19 +2529,19 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>20.95866062610961</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2554,25 +2554,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>305.9840058034983</v>
       </c>
       <c r="G26" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H26" t="n">
-        <v>138.8992180371971</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>250.995171958902</v>
@@ -2623,7 +2623,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2712,22 +2712,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>72.0880274467727</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2772,16 +2772,16 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>127.3385186497852</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2794,10 +2794,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -2806,7 +2806,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>267.3172025050105</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2848,16 +2848,16 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>292.2938138909335</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2888,7 +2888,7 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H30" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851095</v>
       </c>
       <c r="I30" t="n">
         <v>18.81721868247742</v>
@@ -2949,13 +2949,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2964,7 +2964,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3003,22 +3003,22 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>20.95866062610916</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>184.1110579343357</v>
       </c>
     </row>
     <row r="32">
@@ -3043,13 +3043,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>267.3172025050092</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>54.87175400786693</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -3091,7 +3091,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3189,10 +3189,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>28.03004253565322</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3201,7 +3201,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>160.8915086215183</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3246,10 +3246,10 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3268,25 +3268,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>60.46928369492676</v>
       </c>
       <c r="G35" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,22 +3316,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
-        <v>28.93382893561998</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U35" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3441,10 +3441,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>49.74773411038512</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
         <v>286.2118382056129</v>
@@ -3486,10 +3486,10 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>53.54735467376837</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3511,7 +3511,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>174.7869190180888</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3553,16 +3553,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>229.796569204137</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3666,22 +3666,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>19.26836562025091</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>106.4735778903238</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -3726,7 +3726,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3742,10 +3742,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>173.5578851713661</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -3760,7 +3760,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3793,7 +3793,7 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -3802,7 +3802,7 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>287.8938041265583</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -3900,25 +3900,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>82.47971853714279</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>173.7878278358059</v>
       </c>
       <c r="U43" t="n">
         <v>286.2118382056129</v>
@@ -3966,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3982,19 +3982,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>228.1910895014577</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4030,16 +4030,16 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>105.0023863360933</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
@@ -4073,10 +4073,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247746</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098773</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4185,25 +4185,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>81.46084344268519</v>
+        <v>210.8035104954924</v>
       </c>
     </row>
   </sheetData>
@@ -4306,43 +4306,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>21.46338433294346</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="C2" t="n">
-        <v>21.46338433294346</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="D2" t="n">
-        <v>21.46338433294346</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="E2" t="n">
-        <v>21.46338433294346</v>
+        <v>583.26140202276</v>
       </c>
       <c r="F2" t="n">
-        <v>21.46338433294346</v>
+        <v>393.8416170062752</v>
       </c>
       <c r="G2" t="n">
-        <v>21.46338433294346</v>
+        <v>204.4218319897904</v>
       </c>
       <c r="H2" t="n">
-        <v>21.46338433294346</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I2" t="n">
         <v>15.0020469733056</v>
       </c>
       <c r="J2" t="n">
-        <v>21.03371160678498</v>
+        <v>21.03371160678495</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058962</v>
+        <v>80.81213159058944</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079188</v>
+        <v>191.8743094079186</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644759</v>
+        <v>347.1218190644754</v>
       </c>
       <c r="N2" t="n">
-        <v>509.4952041123832</v>
+        <v>509.4952041123828</v>
       </c>
       <c r="O2" t="n">
         <v>649.4845259985584</v>
@@ -4357,25 +4357,25 @@
         <v>750.1023486652798</v>
       </c>
       <c r="S2" t="n">
-        <v>589.7227393823979</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="T2" t="n">
-        <v>400.3029543659131</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="U2" t="n">
-        <v>400.3029543659131</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="V2" t="n">
-        <v>400.3029543659131</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="W2" t="n">
-        <v>400.3029543659131</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="X2" t="n">
-        <v>400.3029543659131</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="Y2" t="n">
-        <v>210.8831693494283</v>
+        <v>750.1023486652798</v>
       </c>
     </row>
     <row r="3">
@@ -4385,19 +4385,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>146.8151621480548</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="C3" t="n">
-        <v>146.8151621480548</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="D3" t="n">
-        <v>146.8151621480548</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="E3" t="n">
-        <v>146.8151621480548</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="F3" t="n">
-        <v>146.8151621480548</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="G3" t="n">
         <v>15.0020469733056</v>
@@ -4412,16 +4412,16 @@
         <v>15.0020469733056</v>
       </c>
       <c r="K3" t="n">
-        <v>67.13418877024228</v>
+        <v>67.13418877024208</v>
       </c>
       <c r="L3" t="n">
-        <v>183.554828077265</v>
+        <v>183.5548280772649</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140245</v>
+        <v>338.7690911140243</v>
       </c>
       <c r="N3" t="n">
-        <v>512.5000587546602</v>
+        <v>512.50005875466</v>
       </c>
       <c r="O3" t="n">
         <v>649.2101578476349</v>
@@ -4433,28 +4433,28 @@
         <v>750.1023486652798</v>
       </c>
       <c r="R3" t="n">
-        <v>676.9378076264281</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="S3" t="n">
-        <v>525.6547321810244</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="T3" t="n">
-        <v>525.6547321810244</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="U3" t="n">
-        <v>336.2349471645396</v>
+        <v>560.6825636487949</v>
       </c>
       <c r="V3" t="n">
-        <v>336.2349471645396</v>
+        <v>371.2627786323101</v>
       </c>
       <c r="W3" t="n">
-        <v>336.2349471645396</v>
+        <v>204.4218319897904</v>
       </c>
       <c r="X3" t="n">
-        <v>336.2349471645396</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="Y3" t="n">
-        <v>146.8151621480548</v>
+        <v>15.0020469733056</v>
       </c>
     </row>
     <row r="4">
@@ -4470,25 +4470,25 @@
         <v>67.74542702828987</v>
       </c>
       <c r="D4" t="n">
-        <v>67.74542702828987</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="E4" t="n">
-        <v>67.74542702828987</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="F4" t="n">
-        <v>67.74542702828987</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="G4" t="n">
-        <v>67.74542702828987</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="H4" t="n">
-        <v>67.74542702828987</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I4" t="n">
-        <v>67.74542702828987</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J4" t="n">
-        <v>29.24882464404147</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="K4" t="n">
         <v>15.0020469733056</v>
@@ -4543,34 +4543,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>710.0001061843507</v>
+        <v>560.6825636487949</v>
       </c>
       <c r="C5" t="n">
-        <v>710.0001061843507</v>
+        <v>371.2627786323101</v>
       </c>
       <c r="D5" t="n">
-        <v>710.0001061843507</v>
+        <v>204.4218319897904</v>
       </c>
       <c r="E5" t="n">
-        <v>710.0001061843507</v>
+        <v>204.4218319897904</v>
       </c>
       <c r="F5" t="n">
-        <v>520.5803211678658</v>
+        <v>204.4218319897904</v>
       </c>
       <c r="G5" t="n">
-        <v>331.1605361513811</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="H5" t="n">
-        <v>141.7407511348962</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I5" t="n">
         <v>15.0020469733056</v>
       </c>
       <c r="J5" t="n">
-        <v>21.033711606785</v>
+        <v>21.03371160678489</v>
       </c>
       <c r="K5" t="n">
-        <v>80.81213159058956</v>
+        <v>80.81213159058939</v>
       </c>
       <c r="L5" t="n">
         <v>191.8743094079184</v>
@@ -4579,10 +4579,10 @@
         <v>347.1218190644754</v>
       </c>
       <c r="N5" t="n">
-        <v>509.4952041123829</v>
+        <v>509.4952041123828</v>
       </c>
       <c r="O5" t="n">
-        <v>649.4845259985584</v>
+        <v>649.4845259985582</v>
       </c>
       <c r="P5" t="n">
         <v>734.4611726020266</v>
@@ -4603,16 +4603,16 @@
         <v>750.1023486652798</v>
       </c>
       <c r="V5" t="n">
-        <v>710.0001061843507</v>
+        <v>560.6825636487949</v>
       </c>
       <c r="W5" t="n">
-        <v>710.0001061843507</v>
+        <v>560.6825636487949</v>
       </c>
       <c r="X5" t="n">
-        <v>710.0001061843507</v>
+        <v>560.6825636487949</v>
       </c>
       <c r="Y5" t="n">
-        <v>710.0001061843507</v>
+        <v>560.6825636487949</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>487.5180226099433</v>
+        <v>181.8429936158253</v>
       </c>
       <c r="C6" t="n">
-        <v>487.5180226099433</v>
+        <v>30.53661367296054</v>
       </c>
       <c r="D6" t="n">
-        <v>487.5180226099433</v>
+        <v>30.53661367296054</v>
       </c>
       <c r="E6" t="n">
-        <v>400.9361470843146</v>
+        <v>30.53661367296054</v>
       </c>
       <c r="F6" t="n">
-        <v>254.4015891111996</v>
+        <v>30.53661367296054</v>
       </c>
       <c r="G6" t="n">
-        <v>116.8624079336487</v>
+        <v>30.53661367296054</v>
       </c>
       <c r="H6" t="n">
-        <v>15.0020469733056</v>
+        <v>30.53661367296054</v>
       </c>
       <c r="I6" t="n">
-        <v>15.0020469733056</v>
+        <v>30.53661367296054</v>
       </c>
       <c r="J6" t="n">
         <v>15.0020469733056</v>
       </c>
       <c r="K6" t="n">
-        <v>67.13418877024208</v>
+        <v>67.13418877024213</v>
       </c>
       <c r="L6" t="n">
-        <v>183.554828077265</v>
+        <v>183.5548280772649</v>
       </c>
       <c r="M6" t="n">
-        <v>338.7690911140245</v>
+        <v>338.7690911140244</v>
       </c>
       <c r="N6" t="n">
-        <v>512.5000587546604</v>
+        <v>512.5000587546601</v>
       </c>
       <c r="O6" t="n">
         <v>649.2101578476348</v>
       </c>
       <c r="P6" t="n">
-        <v>739.5989987017064</v>
+        <v>739.5989987017063</v>
       </c>
       <c r="Q6" t="n">
+        <v>750.1023486652797</v>
+      </c>
+      <c r="R6" t="n">
         <v>750.1023486652798</v>
       </c>
-      <c r="R6" t="n">
-        <v>676.9378076264281</v>
-      </c>
       <c r="S6" t="n">
-        <v>676.9378076264281</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="T6" t="n">
-        <v>676.9378076264281</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="U6" t="n">
-        <v>676.9378076264281</v>
+        <v>560.6825636487949</v>
       </c>
       <c r="V6" t="n">
-        <v>487.5180226099433</v>
+        <v>371.2627786323101</v>
       </c>
       <c r="W6" t="n">
-        <v>487.5180226099433</v>
+        <v>371.2627786323101</v>
       </c>
       <c r="X6" t="n">
-        <v>487.5180226099433</v>
+        <v>181.8429936158253</v>
       </c>
       <c r="Y6" t="n">
-        <v>487.5180226099433</v>
+        <v>181.8429936158253</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>67.74542702828998</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="C7" t="n">
-        <v>67.74542702828998</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="D7" t="n">
-        <v>67.74542702828998</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="E7" t="n">
-        <v>67.74542702828998</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="F7" t="n">
-        <v>67.74542702828998</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="G7" t="n">
-        <v>67.74542702828998</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="H7" t="n">
-        <v>67.74542702828998</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I7" t="n">
-        <v>67.74542702828998</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J7" t="n">
-        <v>29.24882464404146</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="K7" t="n">
         <v>15.0020469733056</v>
       </c>
       <c r="L7" t="n">
-        <v>27.03967056230179</v>
+        <v>27.03967056230176</v>
       </c>
       <c r="M7" t="n">
-        <v>42.98993985170722</v>
+        <v>42.98993985170716</v>
       </c>
       <c r="N7" t="n">
-        <v>66.41847329396343</v>
+        <v>66.41847329396334</v>
       </c>
       <c r="O7" t="n">
-        <v>67.74542702828998</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="P7" t="n">
-        <v>67.74542702828998</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="Q7" t="n">
-        <v>67.74542702828998</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="R7" t="n">
-        <v>67.74542702828998</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="S7" t="n">
-        <v>67.74542702828998</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="T7" t="n">
-        <v>67.74542702828998</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="U7" t="n">
-        <v>67.74542702828998</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="V7" t="n">
-        <v>67.74542702828998</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="W7" t="n">
-        <v>67.74542702828998</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="X7" t="n">
-        <v>67.74542702828998</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="Y7" t="n">
-        <v>67.74542702828998</v>
+        <v>15.0020469733056</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>710.0001061843509</v>
+        <v>840.8817879776655</v>
       </c>
       <c r="C8" t="n">
-        <v>520.580321167866</v>
+        <v>471.9192710372537</v>
       </c>
       <c r="D8" t="n">
-        <v>520.580321167866</v>
+        <v>471.9192710372537</v>
       </c>
       <c r="E8" t="n">
-        <v>520.580321167866</v>
+        <v>86.13101843900949</v>
       </c>
       <c r="F8" t="n">
-        <v>520.580321167866</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="G8" t="n">
-        <v>331.1605361513811</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="H8" t="n">
-        <v>141.7407511348962</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I8" t="n">
-        <v>15.0020469733056</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J8" t="n">
-        <v>21.03371160678512</v>
+        <v>152.50781843019</v>
       </c>
       <c r="K8" t="n">
-        <v>80.81213159058979</v>
+        <v>366.8168396232717</v>
       </c>
       <c r="L8" t="n">
-        <v>191.8743094079188</v>
+        <v>669.5878927711866</v>
       </c>
       <c r="M8" t="n">
-        <v>347.1218190644759</v>
+        <v>1038.14846457873</v>
       </c>
       <c r="N8" t="n">
-        <v>509.4952041123831</v>
+        <v>1417.286540135166</v>
       </c>
       <c r="O8" t="n">
-        <v>649.4845259985586</v>
+        <v>1761.960612545596</v>
       </c>
       <c r="P8" t="n">
-        <v>734.461172602027</v>
+        <v>2021.630958172447</v>
       </c>
       <c r="Q8" t="n">
-        <v>750.1023486652801</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="R8" t="n">
-        <v>750.1023486652801</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="S8" t="n">
-        <v>710.0001061843509</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="T8" t="n">
-        <v>710.0001061843509</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="U8" t="n">
-        <v>710.0001061843509</v>
+        <v>1914.852662567162</v>
       </c>
       <c r="V8" t="n">
-        <v>710.0001061843509</v>
+        <v>1583.789775223591</v>
       </c>
       <c r="W8" t="n">
-        <v>710.0001061843509</v>
+        <v>1231.021119953477</v>
       </c>
       <c r="X8" t="n">
-        <v>710.0001061843509</v>
+        <v>1231.021119953477</v>
       </c>
       <c r="Y8" t="n">
-        <v>710.0001061843509</v>
+        <v>840.8817879776655</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>15.0020469733056</v>
+        <v>672.5286484590418</v>
       </c>
       <c r="C9" t="n">
-        <v>15.0020469733056</v>
+        <v>498.0756191779149</v>
       </c>
       <c r="D9" t="n">
-        <v>15.0020469733056</v>
+        <v>349.1412095166636</v>
       </c>
       <c r="E9" t="n">
-        <v>15.0020469733056</v>
+        <v>189.9037545112081</v>
       </c>
       <c r="F9" t="n">
-        <v>15.0020469733056</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="G9" t="n">
-        <v>15.0020469733056</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="H9" t="n">
-        <v>15.0020469733056</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I9" t="n">
-        <v>15.0020469733056</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J9" t="n">
-        <v>15.0020469733056</v>
+        <v>89.55356510562316</v>
       </c>
       <c r="K9" t="n">
-        <v>67.13418877024218</v>
+        <v>246.6448318504519</v>
       </c>
       <c r="L9" t="n">
-        <v>183.554828077265</v>
+        <v>504.1959674104395</v>
       </c>
       <c r="M9" t="n">
-        <v>338.7690911140245</v>
+        <v>824.1028628789488</v>
       </c>
       <c r="N9" t="n">
-        <v>512.5000587546604</v>
+        <v>1166.88538687358</v>
       </c>
       <c r="O9" t="n">
-        <v>649.2101578476351</v>
+        <v>1458.244633128146</v>
       </c>
       <c r="P9" t="n">
-        <v>739.5989987017065</v>
+        <v>1672.753048689047</v>
       </c>
       <c r="Q9" t="n">
-        <v>750.1023486652799</v>
+        <v>1766.227047333487</v>
       </c>
       <c r="R9" t="n">
-        <v>750.1023486652799</v>
+        <v>1766.227047333487</v>
       </c>
       <c r="S9" t="n">
-        <v>598.8192732198762</v>
+        <v>1766.227047333487</v>
       </c>
       <c r="T9" t="n">
-        <v>409.3994882033913</v>
+        <v>1766.227047333487</v>
       </c>
       <c r="U9" t="n">
-        <v>219.9797031869064</v>
+        <v>1538.125457466751</v>
       </c>
       <c r="V9" t="n">
-        <v>30.55991817042155</v>
+        <v>1302.973349235008</v>
       </c>
       <c r="W9" t="n">
-        <v>15.0020469733056</v>
+        <v>1048.735992506806</v>
       </c>
       <c r="X9" t="n">
-        <v>15.0020469733056</v>
+        <v>840.8844923012737</v>
       </c>
       <c r="Y9" t="n">
-        <v>15.0020469733056</v>
+        <v>672.5286484590418</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>67.74542702829</v>
+        <v>508.4321869371923</v>
       </c>
       <c r="C10" t="n">
-        <v>67.74542702829</v>
+        <v>508.4321869371923</v>
       </c>
       <c r="D10" t="n">
-        <v>67.74542702829</v>
+        <v>508.4321869371923</v>
       </c>
       <c r="E10" t="n">
-        <v>67.74542702829</v>
+        <v>508.4321869371923</v>
       </c>
       <c r="F10" t="n">
-        <v>67.74542702829</v>
+        <v>361.542239439282</v>
       </c>
       <c r="G10" t="n">
-        <v>67.74542702829</v>
+        <v>193.4094100343004</v>
       </c>
       <c r="H10" t="n">
-        <v>67.74542702829</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I10" t="n">
-        <v>67.74542702829</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J10" t="n">
-        <v>15.0020469733056</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="K10" t="n">
-        <v>15.0020469733056</v>
+        <v>92.71685897981521</v>
       </c>
       <c r="L10" t="n">
-        <v>27.0396705623018</v>
+        <v>185.7706748018941</v>
       </c>
       <c r="M10" t="n">
-        <v>42.98993985170723</v>
+        <v>287.1411594927332</v>
       </c>
       <c r="N10" t="n">
-        <v>66.41847329396344</v>
+        <v>393.9588065377461</v>
       </c>
       <c r="O10" t="n">
-        <v>67.74542702829</v>
+        <v>472.3091036033659</v>
       </c>
       <c r="P10" t="n">
-        <v>67.74542702829</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="Q10" t="n">
-        <v>67.74542702829</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="R10" t="n">
-        <v>67.74542702829</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="S10" t="n">
-        <v>67.74542702829</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="T10" t="n">
-        <v>67.74542702829</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="U10" t="n">
-        <v>67.74542702829</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="V10" t="n">
-        <v>67.74542702829</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="W10" t="n">
-        <v>67.74542702829</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="X10" t="n">
-        <v>67.74542702829</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="Y10" t="n">
-        <v>67.74542702829</v>
+        <v>520.2893470405991</v>
       </c>
     </row>
     <row r="11">
@@ -5017,34 +5017,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1032.06112435253</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="C11" t="n">
-        <v>663.0986074121186</v>
+        <v>1329.547110979147</v>
       </c>
       <c r="D11" t="n">
-        <v>304.832908805368</v>
+        <v>971.281412372397</v>
       </c>
       <c r="E11" t="n">
-        <v>108.5090151927147</v>
+        <v>585.4931597741527</v>
       </c>
       <c r="F11" t="n">
-        <v>108.5090151927147</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G11" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H11" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I11" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L11" t="n">
         <v>1040.244834329464</v>
@@ -5065,28 +5065,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T11" t="n">
-        <v>3119.628073993392</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U11" t="n">
-        <v>2866.097597267229</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V11" t="n">
-        <v>2535.034709923658</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W11" t="n">
-        <v>2182.266054653544</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X11" t="n">
-        <v>1808.800296392464</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y11" t="n">
-        <v>1418.660964416652</v>
+        <v>1698.509627919559</v>
       </c>
     </row>
     <row r="12">
@@ -5096,37 +5096,37 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927777</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I12" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J12" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
@@ -5138,31 +5138,31 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y12" t="n">
         <v>1109.759191501176</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>831.0565485757129</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C13" t="n">
-        <v>831.0565485757129</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D13" t="n">
-        <v>772.5608581015648</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E13" t="n">
-        <v>624.6477645191717</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F13" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G13" t="n">
-        <v>310.0549803959802</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H13" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I13" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J13" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962284</v>
       </c>
       <c r="K13" t="n">
         <v>176.6457242372932</v>
       </c>
       <c r="L13" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596504</v>
       </c>
       <c r="M13" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588481</v>
       </c>
       <c r="N13" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886956</v>
       </c>
       <c r="O13" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P13" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q13" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R13" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="S13" t="n">
-        <v>831.0565485757129</v>
+        <v>729.201121645011</v>
       </c>
       <c r="T13" t="n">
-        <v>831.0565485757129</v>
+        <v>507.434506214537</v>
       </c>
       <c r="U13" t="n">
-        <v>831.0565485757129</v>
+        <v>507.434506214537</v>
       </c>
       <c r="V13" t="n">
-        <v>831.0565485757129</v>
+        <v>507.434506214537</v>
       </c>
       <c r="W13" t="n">
-        <v>831.0565485757129</v>
+        <v>218.0173361775764</v>
       </c>
       <c r="X13" t="n">
-        <v>831.0565485757129</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="Y13" t="n">
-        <v>831.0565485757129</v>
+        <v>66.51211643218342</v>
       </c>
     </row>
     <row r="14">
@@ -5254,34 +5254,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2047.583838282732</v>
+        <v>1308.370295943748</v>
       </c>
       <c r="C14" t="n">
-        <v>1678.62132134232</v>
+        <v>1308.370295943748</v>
       </c>
       <c r="D14" t="n">
-        <v>1320.35562273557</v>
+        <v>1308.370295943748</v>
       </c>
       <c r="E14" t="n">
-        <v>934.5673701373257</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F14" t="n">
-        <v>523.5814653477182</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G14" t="n">
-        <v>108.5090151927147</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H14" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I14" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L14" t="n">
         <v>1040.244834329465</v>
@@ -5293,7 +5293,7 @@
         <v>2120.555556060172</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P14" t="n">
         <v>3018.302393296687</v>
@@ -5305,25 +5305,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S14" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T14" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U14" t="n">
-        <v>3325.605821609171</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V14" t="n">
-        <v>3325.605821609171</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W14" t="n">
-        <v>2972.837166339057</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X14" t="n">
-        <v>2599.371408077977</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y14" t="n">
-        <v>2209.232076102166</v>
+        <v>1308.370295943748</v>
       </c>
     </row>
     <row r="15">
@@ -5333,37 +5333,37 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D15" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G15" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K15" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>639.3706644025392</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="C16" t="n">
-        <v>639.3706644025392</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="D16" t="n">
-        <v>639.3706644025392</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E16" t="n">
-        <v>624.6477645191717</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F16" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G16" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H16" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I16" t="n">
         <v>66.51211643218343</v>
@@ -5460,28 +5460,28 @@
         <v>920.887005818185</v>
       </c>
       <c r="R16" t="n">
-        <v>831.0565485757129</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S16" t="n">
-        <v>639.3706644025392</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T16" t="n">
-        <v>639.3706644025392</v>
+        <v>699.120390387711</v>
       </c>
       <c r="U16" t="n">
-        <v>639.3706644025392</v>
+        <v>699.120390387711</v>
       </c>
       <c r="V16" t="n">
-        <v>639.3706644025392</v>
+        <v>699.120390387711</v>
       </c>
       <c r="W16" t="n">
-        <v>639.3706644025392</v>
+        <v>409.7032203507504</v>
       </c>
       <c r="X16" t="n">
-        <v>639.3706644025392</v>
+        <v>409.7032203507504</v>
       </c>
       <c r="Y16" t="n">
-        <v>639.3706644025392</v>
+        <v>361.3151575124869</v>
       </c>
     </row>
     <row r="17">
@@ -5491,19 +5491,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1636.624422581789</v>
+        <v>1311.909787855437</v>
       </c>
       <c r="C17" t="n">
-        <v>1636.624422581789</v>
+        <v>942.9472709150252</v>
       </c>
       <c r="D17" t="n">
-        <v>1278.358723975039</v>
+        <v>584.6815723082748</v>
       </c>
       <c r="E17" t="n">
-        <v>892.5704713767946</v>
+        <v>584.6815723082748</v>
       </c>
       <c r="F17" t="n">
-        <v>481.5845665871869</v>
+        <v>173.6956675186672</v>
       </c>
       <c r="G17" t="n">
         <v>66.5121164321834</v>
@@ -5533,7 +5533,7 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q17" t="n">
         <v>3266.588755052368</v>
@@ -5545,22 +5545,22 @@
         <v>3215.315153136265</v>
       </c>
       <c r="T17" t="n">
-        <v>3215.315153136265</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U17" t="n">
-        <v>3097.195137235408</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V17" t="n">
-        <v>2766.132249891837</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W17" t="n">
-        <v>2413.363594621723</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X17" t="n">
-        <v>2413.363594621723</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y17" t="n">
-        <v>2023.224262645911</v>
+        <v>1698.509627919559</v>
       </c>
     </row>
     <row r="18">
@@ -5570,64 +5570,64 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D18" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601599</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G18" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064628</v>
       </c>
       <c r="I18" t="n">
         <v>66.5121164321834</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M18" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N18" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O18" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P18" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q18" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R18" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S18" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T18" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U18" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V18" t="n">
         <v>1779.608347199865</v>
@@ -5636,10 +5636,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X18" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y18" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="19">
@@ -5649,10 +5649,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>66.5121164321834</v>
+        <v>216.6287558445191</v>
       </c>
       <c r="C19" t="n">
-        <v>66.5121164321834</v>
+        <v>216.6287558445191</v>
       </c>
       <c r="D19" t="n">
         <v>66.5121164321834</v>
@@ -5709,16 +5709,16 @@
         <v>631.7841389438285</v>
       </c>
       <c r="V19" t="n">
-        <v>377.0996507379416</v>
+        <v>631.7841389438285</v>
       </c>
       <c r="W19" t="n">
-        <v>377.0996507379416</v>
+        <v>342.3669689068678</v>
       </c>
       <c r="X19" t="n">
-        <v>377.0996507379416</v>
+        <v>342.3669689068678</v>
       </c>
       <c r="Y19" t="n">
-        <v>156.3070715944115</v>
+        <v>216.6287558445191</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1617.939223126803</v>
+        <v>1832.276849100055</v>
       </c>
       <c r="C20" t="n">
-        <v>1617.939223126803</v>
+        <v>1463.314332159643</v>
       </c>
       <c r="D20" t="n">
-        <v>1617.939223126803</v>
+        <v>1105.048633552893</v>
       </c>
       <c r="E20" t="n">
-        <v>1232.150970528558</v>
+        <v>1105.048633552893</v>
       </c>
       <c r="F20" t="n">
-        <v>821.1650657389509</v>
+        <v>694.0627287632853</v>
       </c>
       <c r="G20" t="n">
-        <v>406.0926155839475</v>
+        <v>278.9902786082818</v>
       </c>
       <c r="H20" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I20" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O20" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q20" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R20" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S20" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T20" t="n">
-        <v>3119.628073993392</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U20" t="n">
-        <v>3119.628073993392</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="V20" t="n">
-        <v>2788.565186649821</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="W20" t="n">
-        <v>2435.796531379707</v>
+        <v>2609.016021139988</v>
       </c>
       <c r="X20" t="n">
-        <v>2062.330773118627</v>
+        <v>2609.016021139988</v>
       </c>
       <c r="Y20" t="n">
-        <v>2004.539063190924</v>
+        <v>2218.876689164177</v>
       </c>
     </row>
     <row r="21">
@@ -5822,16 +5822,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G21" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I21" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J21" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K21" t="n">
         <v>398.4535849031479</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2915.967805880913</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="C22" t="n">
-        <v>2747.031622953006</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="D22" t="n">
-        <v>2596.91498354067</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E22" t="n">
-        <v>2471.230932223169</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F22" t="n">
-        <v>2471.230932223169</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G22" t="n">
-        <v>2471.230932223169</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H22" t="n">
-        <v>2471.230932223169</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I22" t="n">
-        <v>2471.230932223169</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J22" t="n">
-        <v>2483.053685760608</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K22" t="n">
-        <v>2581.364540028279</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L22" t="n">
-        <v>2737.074383950636</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M22" t="n">
-        <v>2904.506865249834</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N22" t="n">
-        <v>3075.815702279681</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O22" t="n">
-        <v>3213.734051497871</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P22" t="n">
-        <v>3312.685054250629</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q22" t="n">
-        <v>3325.60582160917</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R22" t="n">
-        <v>3325.60582160917</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S22" t="n">
-        <v>3325.60582160917</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T22" t="n">
-        <v>3325.60582160917</v>
+        <v>699.120390387711</v>
       </c>
       <c r="U22" t="n">
-        <v>3325.60582160917</v>
+        <v>410.0175235133546</v>
       </c>
       <c r="V22" t="n">
-        <v>3325.60582160917</v>
+        <v>410.0175235133546</v>
       </c>
       <c r="W22" t="n">
-        <v>3325.60582160917</v>
+        <v>120.600353476394</v>
       </c>
       <c r="X22" t="n">
-        <v>3097.616270711153</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="Y22" t="n">
-        <v>3097.616270711153</v>
+        <v>66.51211643218343</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2148.434869859537</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="C23" t="n">
-        <v>1779.472352919126</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D23" t="n">
-        <v>1421.206654312375</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E23" t="n">
-        <v>1035.418401714131</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F23" t="n">
-        <v>624.4324969245233</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G23" t="n">
-        <v>364.0957168234162</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H23" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I23" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J23" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K23" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L23" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M23" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N23" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O23" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P23" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q23" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R23" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S23" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T23" t="n">
-        <v>3119.628073993394</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U23" t="n">
-        <v>2866.09759726723</v>
+        <v>3072.075344883006</v>
       </c>
       <c r="V23" t="n">
-        <v>2535.034709923659</v>
+        <v>2741.012457539436</v>
       </c>
       <c r="W23" t="n">
-        <v>2535.034709923659</v>
+        <v>2388.243802269321</v>
       </c>
       <c r="X23" t="n">
-        <v>2535.034709923659</v>
+        <v>2014.778044008242</v>
       </c>
       <c r="Y23" t="n">
-        <v>2535.034709923659</v>
+        <v>1678.62132134232</v>
       </c>
     </row>
     <row r="24">
@@ -6044,28 +6044,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C24" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D24" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E24" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F24" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G24" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H24" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I24" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J24" t="n">
         <v>160.1893859228007</v>
@@ -6074,7 +6074,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L24" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M24" t="n">
         <v>1212.428070438129</v>
@@ -6101,7 +6101,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U24" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V24" t="n">
         <v>1779.608347199865</v>
@@ -6110,10 +6110,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X24" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y24" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>699.120390387711</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="C25" t="n">
-        <v>699.120390387711</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="D25" t="n">
-        <v>549.0037509753753</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="E25" t="n">
-        <v>401.0906573929822</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F25" t="n">
-        <v>401.0906573929822</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G25" t="n">
-        <v>310.0549803959803</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H25" t="n">
-        <v>163.8377936138381</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I25" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J25" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K25" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L25" t="n">
         <v>332.3555681596505</v>
       </c>
       <c r="M25" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N25" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O25" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P25" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q25" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R25" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S25" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T25" t="n">
-        <v>699.120390387711</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U25" t="n">
-        <v>699.120390387711</v>
+        <v>631.7841389438285</v>
       </c>
       <c r="V25" t="n">
-        <v>699.120390387711</v>
+        <v>377.0996507379416</v>
       </c>
       <c r="W25" t="n">
-        <v>699.120390387711</v>
+        <v>87.68248070098099</v>
       </c>
       <c r="X25" t="n">
-        <v>699.120390387711</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="Y25" t="n">
-        <v>699.120390387711</v>
+        <v>66.5121164321834</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1418.660964416652</v>
+        <v>1517.887535471216</v>
       </c>
       <c r="C26" t="n">
-        <v>1418.660964416652</v>
+        <v>1148.925018530804</v>
       </c>
       <c r="D26" t="n">
-        <v>1418.660964416652</v>
+        <v>790.659319924054</v>
       </c>
       <c r="E26" t="n">
-        <v>1032.872711818408</v>
+        <v>790.659319924054</v>
       </c>
       <c r="F26" t="n">
-        <v>621.8868070288001</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G26" t="n">
-        <v>206.8143568737966</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H26" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I26" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J26" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K26" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L26" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M26" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N26" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O26" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P26" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q26" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R26" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S26" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T26" t="n">
-        <v>3119.628073993392</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U26" t="n">
-        <v>2866.097597267229</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="V26" t="n">
-        <v>2535.034709923658</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="W26" t="n">
-        <v>2182.266054653544</v>
+        <v>2277.953133796418</v>
       </c>
       <c r="X26" t="n">
-        <v>1808.800296392464</v>
+        <v>1904.487375535338</v>
       </c>
       <c r="Y26" t="n">
-        <v>1418.660964416652</v>
+        <v>1904.487375535338</v>
       </c>
     </row>
     <row r="27">
@@ -6296,22 +6296,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G27" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H27" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I27" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J27" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K27" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L27" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M27" t="n">
         <v>1212.428070438129</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>66.5121164321834</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C28" t="n">
-        <v>66.5121164321834</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D28" t="n">
-        <v>66.5121164321834</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E28" t="n">
-        <v>66.5121164321834</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F28" t="n">
-        <v>66.5121164321834</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G28" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H28" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I28" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J28" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K28" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L28" t="n">
         <v>332.3555681596505</v>
       </c>
       <c r="M28" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N28" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O28" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P28" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q28" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R28" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S28" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T28" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="U28" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="V28" t="n">
-        <v>666.202517612298</v>
+        <v>920.887005818185</v>
       </c>
       <c r="W28" t="n">
-        <v>376.7853475753374</v>
+        <v>920.887005818185</v>
       </c>
       <c r="X28" t="n">
-        <v>376.7853475753374</v>
+        <v>920.887005818185</v>
       </c>
       <c r="Y28" t="n">
-        <v>248.1605812624231</v>
+        <v>920.887005818185</v>
       </c>
     </row>
     <row r="29">
@@ -6439,52 +6439,52 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1491.569348694473</v>
+        <v>1647.321240915451</v>
       </c>
       <c r="C29" t="n">
-        <v>1491.569348694473</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="D29" t="n">
-        <v>1133.303650087723</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E29" t="n">
-        <v>747.5153974894783</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F29" t="n">
-        <v>336.5294926998708</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G29" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H29" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I29" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J29" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K29" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L29" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M29" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N29" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O29" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P29" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q29" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R29" t="n">
         <v>3325.605821609171</v>
@@ -6496,19 +6496,19 @@
         <v>3325.605821609171</v>
       </c>
       <c r="U29" t="n">
-        <v>3325.605821609171</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="V29" t="n">
-        <v>2994.542934265601</v>
+        <v>2776.829068225498</v>
       </c>
       <c r="W29" t="n">
-        <v>2641.774278995486</v>
+        <v>2424.060412955384</v>
       </c>
       <c r="X29" t="n">
-        <v>2268.308520734407</v>
+        <v>2424.060412955384</v>
       </c>
       <c r="Y29" t="n">
-        <v>1878.169188758595</v>
+        <v>2033.921080979572</v>
       </c>
     </row>
     <row r="30">
@@ -6518,31 +6518,31 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C30" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D30" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E30" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F30" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G30" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H30" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I30" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J30" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K30" t="n">
         <v>398.4535849031479</v>
@@ -6575,7 +6575,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U30" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V30" t="n">
         <v>1779.608347199865</v>
@@ -6584,10 +6584,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X30" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y30" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2471.23093222317</v>
+        <v>553.2677753977071</v>
       </c>
       <c r="C31" t="n">
-        <v>2471.23093222317</v>
+        <v>384.3315924698002</v>
       </c>
       <c r="D31" t="n">
-        <v>2471.23093222317</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="E31" t="n">
-        <v>2471.23093222317</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="F31" t="n">
-        <v>2471.23093222317</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G31" t="n">
-        <v>2471.23093222317</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H31" t="n">
-        <v>2471.23093222317</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I31" t="n">
-        <v>2471.23093222317</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J31" t="n">
-        <v>2483.05368576061</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K31" t="n">
-        <v>2581.36454002828</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L31" t="n">
-        <v>2737.074383950638</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M31" t="n">
-        <v>2904.506865249835</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N31" t="n">
-        <v>3075.815702279683</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O31" t="n">
-        <v>3213.734051497872</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P31" t="n">
-        <v>3312.685054250631</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q31" t="n">
-        <v>3325.605821609171</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R31" t="n">
-        <v>3325.605821609171</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S31" t="n">
-        <v>3325.605821609171</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T31" t="n">
-        <v>3304.435457340374</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U31" t="n">
-        <v>3015.332590466018</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V31" t="n">
-        <v>2760.648102260131</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W31" t="n">
-        <v>2471.23093222317</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="X31" t="n">
-        <v>2471.23093222317</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="Y31" t="n">
-        <v>2471.23093222317</v>
+        <v>734.9162402279468</v>
       </c>
     </row>
     <row r="32">
@@ -6676,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1491.569348694472</v>
+        <v>1734.047335491681</v>
       </c>
       <c r="C32" t="n">
-        <v>1491.569348694472</v>
+        <v>1734.047335491681</v>
       </c>
       <c r="D32" t="n">
-        <v>1133.303650087721</v>
+        <v>1375.781636884931</v>
       </c>
       <c r="E32" t="n">
-        <v>747.515397489477</v>
+        <v>989.9933842866863</v>
       </c>
       <c r="F32" t="n">
-        <v>336.5294926998694</v>
+        <v>579.0074794970787</v>
       </c>
       <c r="G32" t="n">
-        <v>66.5121164321834</v>
+        <v>163.9350293420752</v>
       </c>
       <c r="H32" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I32" t="n">
         <v>66.5121164321834</v>
@@ -6703,13 +6703,13 @@
         <v>255.3912473912089</v>
       </c>
       <c r="K32" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L32" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M32" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N32" t="n">
         <v>2120.555556060171</v>
@@ -6727,25 +6727,25 @@
         <v>3325.60582160917</v>
       </c>
       <c r="S32" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T32" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U32" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="V32" t="n">
-        <v>2994.542934265599</v>
+        <v>2884.252265792694</v>
       </c>
       <c r="W32" t="n">
-        <v>2641.774278995485</v>
+        <v>2884.252265792694</v>
       </c>
       <c r="X32" t="n">
-        <v>2268.308520734405</v>
+        <v>2510.786507531614</v>
       </c>
       <c r="Y32" t="n">
-        <v>1878.169188758593</v>
+        <v>2120.647175555803</v>
       </c>
     </row>
     <row r="33">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2668.480289429514</v>
+        <v>229.0287918074544</v>
       </c>
       <c r="C34" t="n">
-        <v>2499.544106501607</v>
+        <v>229.0287918074544</v>
       </c>
       <c r="D34" t="n">
-        <v>2471.230932223169</v>
+        <v>229.0287918074544</v>
       </c>
       <c r="E34" t="n">
-        <v>2471.230932223169</v>
+        <v>229.0287918074544</v>
       </c>
       <c r="F34" t="n">
-        <v>2471.230932223169</v>
+        <v>229.0287918074544</v>
       </c>
       <c r="G34" t="n">
-        <v>2471.230932223169</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H34" t="n">
-        <v>2471.230932223169</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I34" t="n">
-        <v>2471.230932223169</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J34" t="n">
-        <v>2483.053685760608</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K34" t="n">
-        <v>2581.364540028279</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L34" t="n">
-        <v>2737.074383950636</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M34" t="n">
-        <v>2904.506865249834</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N34" t="n">
-        <v>3075.815702279681</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O34" t="n">
-        <v>3213.734051497871</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P34" t="n">
-        <v>3312.685054250629</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q34" t="n">
-        <v>3325.60582160917</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R34" t="n">
-        <v>3325.60582160917</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S34" t="n">
-        <v>3325.60582160917</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T34" t="n">
-        <v>3325.60582160917</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U34" t="n">
-        <v>3325.60582160917</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V34" t="n">
-        <v>3070.921333403283</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W34" t="n">
-        <v>3070.921333403283</v>
+        <v>631.4698357812242</v>
       </c>
       <c r="X34" t="n">
-        <v>3070.921333403283</v>
+        <v>631.4698357812242</v>
       </c>
       <c r="Y34" t="n">
-        <v>2850.128754259753</v>
+        <v>410.6772566376941</v>
       </c>
     </row>
     <row r="35">
@@ -6913,31 +6913,31 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1208.812782134349</v>
+        <v>1626.299101484276</v>
       </c>
       <c r="C35" t="n">
-        <v>839.8502651939375</v>
+        <v>1626.299101484276</v>
       </c>
       <c r="D35" t="n">
-        <v>481.5845665871869</v>
+        <v>1268.033402877525</v>
       </c>
       <c r="E35" t="n">
-        <v>481.5845665871869</v>
+        <v>882.245150279281</v>
       </c>
       <c r="F35" t="n">
-        <v>481.5845665871869</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G35" t="n">
-        <v>66.51211643218342</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H35" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I35" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K35" t="n">
         <v>589.2106210810553</v>
@@ -6946,7 +6946,7 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M35" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N35" t="n">
         <v>2120.555556060171</v>
@@ -6961,28 +6961,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R35" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S35" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T35" t="n">
-        <v>3296.379731775211</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U35" t="n">
-        <v>3042.849255049048</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V35" t="n">
-        <v>2711.786367705477</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="W35" t="n">
-        <v>2359.017712435363</v>
+        <v>2403.038273524209</v>
       </c>
       <c r="X35" t="n">
-        <v>1985.551954174283</v>
+        <v>2403.038273524209</v>
       </c>
       <c r="Y35" t="n">
-        <v>1595.412622198471</v>
+        <v>2012.898941548397</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>1702.096133556938</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C36" t="n">
-        <v>1527.643104275811</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D36" t="n">
-        <v>1378.70869461456</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E36" t="n">
-        <v>1219.471239609104</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F36" t="n">
-        <v>1072.93668163599</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G36" t="n">
-        <v>936.5735814686082</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H36" t="n">
-        <v>846.0716871064756</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I36" t="n">
-        <v>827.0643955080127</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J36" t="n">
-        <v>920.7416649986301</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K36" t="n">
-        <v>1159.005863978977</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L36" t="n">
-        <v>1525.704024291643</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M36" t="n">
-        <v>1972.980349513959</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N36" t="n">
-        <v>2446.503393068413</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O36" t="n">
-        <v>2857.464672486468</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P36" t="n">
-        <v>3167.964263962571</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q36" t="n">
-        <v>3325.605821609171</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R36" t="n">
-        <v>3325.461468201686</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S36" t="n">
-        <v>3196.023581695166</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T36" t="n">
-        <v>3003.380581373022</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U36" t="n">
-        <v>2775.312734507437</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V36" t="n">
-        <v>2540.160626275695</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W36" t="n">
-        <v>2285.923269547493</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X36" t="n">
-        <v>2078.07176934196</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y36" t="n">
-        <v>1870.311470577006</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="37">
@@ -7071,34 +7071,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>310.0549803959803</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="C37" t="n">
-        <v>310.0549803959803</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="D37" t="n">
-        <v>310.0549803959803</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="E37" t="n">
-        <v>310.0549803959803</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F37" t="n">
-        <v>310.0549803959803</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G37" t="n">
-        <v>310.0549803959803</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H37" t="n">
-        <v>163.8377936138381</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I37" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J37" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K37" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L37" t="n">
         <v>332.3555681596505</v>
@@ -7119,28 +7119,28 @@
         <v>920.8870058181849</v>
       </c>
       <c r="R37" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S37" t="n">
-        <v>780.8063121005764</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T37" t="n">
-        <v>780.8063121005764</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="U37" t="n">
-        <v>491.70344522622</v>
+        <v>410.0175235133545</v>
       </c>
       <c r="V37" t="n">
-        <v>491.70344522622</v>
+        <v>410.0175235133545</v>
       </c>
       <c r="W37" t="n">
-        <v>491.70344522622</v>
+        <v>120.6003534763939</v>
       </c>
       <c r="X37" t="n">
-        <v>491.70344522622</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="Y37" t="n">
-        <v>491.70344522622</v>
+        <v>66.5121164321834</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1590.514489367197</v>
+        <v>1381.278680221568</v>
       </c>
       <c r="C38" t="n">
-        <v>1221.551972426786</v>
+        <v>1012.316163281156</v>
       </c>
       <c r="D38" t="n">
-        <v>863.2862738200351</v>
+        <v>654.0504646744059</v>
       </c>
       <c r="E38" t="n">
         <v>477.498021221791</v>
       </c>
       <c r="F38" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G38" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H38" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I38" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912083</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L38" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M38" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N38" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O38" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P38" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q38" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R38" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S38" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T38" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U38" t="n">
-        <v>3093.488074938325</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V38" t="n">
-        <v>3093.488074938325</v>
+        <v>2884.252265792696</v>
       </c>
       <c r="W38" t="n">
-        <v>2740.71941966821</v>
+        <v>2531.483610522581</v>
       </c>
       <c r="X38" t="n">
-        <v>2367.25366140713</v>
+        <v>2158.017852261502</v>
       </c>
       <c r="Y38" t="n">
-        <v>1977.114329431319</v>
+        <v>1767.87852028569</v>
       </c>
     </row>
     <row r="39">
@@ -7244,16 +7244,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G39" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I39" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J39" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K39" t="n">
         <v>398.4535849031479</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2822.32286476305</v>
+        <v>403.7945880458112</v>
       </c>
       <c r="C40" t="n">
-        <v>2822.32286476305</v>
+        <v>403.7945880458112</v>
       </c>
       <c r="D40" t="n">
-        <v>2822.32286476305</v>
+        <v>253.6779486334755</v>
       </c>
       <c r="E40" t="n">
-        <v>2822.32286476305</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="F40" t="n">
-        <v>2822.32286476305</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G40" t="n">
-        <v>2714.773796186966</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H40" t="n">
-        <v>2568.556609404824</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I40" t="n">
-        <v>2471.230932223169</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J40" t="n">
-        <v>2483.053685760608</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K40" t="n">
-        <v>2581.364540028279</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L40" t="n">
-        <v>2737.074383950636</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M40" t="n">
-        <v>2904.506865249834</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N40" t="n">
-        <v>3075.815702279681</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O40" t="n">
-        <v>3213.734051497871</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P40" t="n">
-        <v>3312.685054250629</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q40" t="n">
-        <v>3325.60582160917</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R40" t="n">
-        <v>3235.775364366698</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S40" t="n">
-        <v>3044.089480193524</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T40" t="n">
-        <v>2822.32286476305</v>
+        <v>920.887005818185</v>
       </c>
       <c r="U40" t="n">
-        <v>2822.32286476305</v>
+        <v>631.7841389438286</v>
       </c>
       <c r="V40" t="n">
-        <v>2822.32286476305</v>
+        <v>631.7841389438286</v>
       </c>
       <c r="W40" t="n">
-        <v>2822.32286476305</v>
+        <v>631.7841389438286</v>
       </c>
       <c r="X40" t="n">
-        <v>2822.32286476305</v>
+        <v>403.7945880458112</v>
       </c>
       <c r="Y40" t="n">
-        <v>2822.32286476305</v>
+        <v>403.7945880458112</v>
       </c>
     </row>
     <row r="41">
@@ -7387,34 +7387,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1822.632236038042</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="C41" t="n">
-        <v>1453.669719097631</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D41" t="n">
-        <v>1278.358723975039</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E41" t="n">
-        <v>892.5704713767946</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F41" t="n">
-        <v>481.5845665871869</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G41" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H41" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I41" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L41" t="n">
         <v>1040.244834329464</v>
@@ -7435,28 +7435,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R41" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S41" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T41" t="n">
-        <v>3325.60582160917</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U41" t="n">
-        <v>3325.60582160917</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="V41" t="n">
-        <v>3325.60582160917</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="W41" t="n">
-        <v>2972.837166339056</v>
+        <v>2828.826251643334</v>
       </c>
       <c r="X41" t="n">
-        <v>2599.371408077976</v>
+        <v>2455.360493382254</v>
       </c>
       <c r="Y41" t="n">
-        <v>2209.232076102164</v>
+        <v>2065.221161406442</v>
       </c>
     </row>
     <row r="42">
@@ -7487,7 +7487,7 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I42" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J42" t="n">
         <v>160.1893859228007</v>
@@ -7545,34 +7545,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>541.9536817013565</v>
+        <v>235.4482993600903</v>
       </c>
       <c r="C43" t="n">
-        <v>541.9536817013565</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D43" t="n">
-        <v>541.9536817013565</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E43" t="n">
-        <v>394.0405881189633</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F43" t="n">
-        <v>247.150640621053</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G43" t="n">
-        <v>247.150640621053</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H43" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I43" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J43" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K43" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L43" t="n">
         <v>332.3555681596505</v>
@@ -7593,28 +7593,28 @@
         <v>920.8870058181849</v>
       </c>
       <c r="R43" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S43" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T43" t="n">
-        <v>831.0565485757129</v>
+        <v>745.3437453779769</v>
       </c>
       <c r="U43" t="n">
-        <v>541.9536817013565</v>
+        <v>456.2408785036205</v>
       </c>
       <c r="V43" t="n">
-        <v>541.9536817013565</v>
+        <v>456.2408785036205</v>
       </c>
       <c r="W43" t="n">
-        <v>541.9536817013565</v>
+        <v>456.2408785036205</v>
       </c>
       <c r="X43" t="n">
-        <v>541.9536817013565</v>
+        <v>456.2408785036205</v>
       </c>
       <c r="Y43" t="n">
-        <v>541.9536817013565</v>
+        <v>235.4482993600903</v>
       </c>
     </row>
     <row r="44">
@@ -7624,34 +7624,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1179.52858457759</v>
+        <v>2175.400891308156</v>
       </c>
       <c r="C44" t="n">
-        <v>810.5660676371781</v>
+        <v>1806.438374367744</v>
       </c>
       <c r="D44" t="n">
-        <v>452.3003690304276</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="E44" t="n">
-        <v>66.51211643218342</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F44" t="n">
-        <v>66.51211643218342</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G44" t="n">
-        <v>66.51211643218342</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H44" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I44" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L44" t="n">
         <v>1040.244834329464</v>
@@ -7660,40 +7660,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O44" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q44" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R44" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="S44" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="T44" t="n">
-        <v>3119.628073993393</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="U44" t="n">
-        <v>3013.565057492288</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="V44" t="n">
-        <v>2682.502170148718</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="W44" t="n">
-        <v>2329.733514878603</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="X44" t="n">
-        <v>1956.267756617523</v>
+        <v>2952.140063348089</v>
       </c>
       <c r="Y44" t="n">
-        <v>1566.128424641711</v>
+        <v>2562.000731372278</v>
       </c>
     </row>
     <row r="45">
@@ -7703,37 +7703,37 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C45" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D45" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E45" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F45" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G45" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I45" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J45" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K45" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L45" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158128</v>
       </c>
       <c r="M45" t="n">
         <v>1212.428070438129</v>
@@ -7742,7 +7742,7 @@
         <v>1685.951113992583</v>
       </c>
       <c r="O45" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410637</v>
       </c>
       <c r="P45" t="n">
         <v>2407.411984886741</v>
@@ -7760,7 +7760,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U45" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V45" t="n">
         <v>1779.608347199865</v>
@@ -7769,10 +7769,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X45" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y45" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2471.230932223169</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="C46" t="n">
-        <v>2471.230932223169</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="D46" t="n">
-        <v>2471.230932223169</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="E46" t="n">
-        <v>2471.230932223169</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="F46" t="n">
-        <v>2471.230932223169</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G46" t="n">
-        <v>2471.230932223169</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H46" t="n">
-        <v>2471.230932223169</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I46" t="n">
-        <v>2471.230932223169</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J46" t="n">
-        <v>2483.053685760609</v>
+        <v>78.33486996962279</v>
       </c>
       <c r="K46" t="n">
-        <v>2581.364540028279</v>
+        <v>176.6457242372931</v>
       </c>
       <c r="L46" t="n">
-        <v>2737.074383950637</v>
+        <v>332.3555681596503</v>
       </c>
       <c r="M46" t="n">
-        <v>2904.506865249834</v>
+        <v>499.7880494588479</v>
       </c>
       <c r="N46" t="n">
-        <v>3075.815702279682</v>
+        <v>671.0968864886953</v>
       </c>
       <c r="O46" t="n">
-        <v>3213.734051497871</v>
+        <v>809.0152357068849</v>
       </c>
       <c r="P46" t="n">
-        <v>3312.68505425063</v>
+        <v>907.9662384596435</v>
       </c>
       <c r="Q46" t="n">
-        <v>3325.605821609171</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="R46" t="n">
-        <v>3325.605821609171</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="S46" t="n">
-        <v>3325.605821609171</v>
+        <v>729.2011216450105</v>
       </c>
       <c r="T46" t="n">
-        <v>3325.605821609171</v>
+        <v>507.4345062145366</v>
       </c>
       <c r="U46" t="n">
-        <v>3325.605821609171</v>
+        <v>507.4345062145366</v>
       </c>
       <c r="V46" t="n">
-        <v>3070.921333403284</v>
+        <v>507.4345062145366</v>
       </c>
       <c r="W46" t="n">
-        <v>2781.504163366323</v>
+        <v>507.4345062145366</v>
       </c>
       <c r="X46" t="n">
-        <v>2553.514612468306</v>
+        <v>279.4449553165192</v>
       </c>
       <c r="Y46" t="n">
-        <v>2471.230932223169</v>
+        <v>66.51211643218339</v>
       </c>
     </row>
   </sheetData>
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>195.2082544971606</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -22555,19 +22555,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>216.7578328961671</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>219.3504585753915</v>
       </c>
       <c r="G2" t="n">
-        <v>413.097833230058</v>
+        <v>225.5722460637381</v>
       </c>
       <c r="H2" t="n">
-        <v>316.8938261062223</v>
+        <v>129.3682389399024</v>
       </c>
       <c r="I2" t="n">
-        <v>119.0745931339332</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22597,10 +22597,10 @@
         <v>77.08171901666378</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>158.7758131900531</v>
       </c>
       <c r="T2" t="n">
-        <v>25.91829388988683</v>
+        <v>213.4438810562068</v>
       </c>
       <c r="U2" t="n">
         <v>251.1692605650303</v>
@@ -22615,7 +22615,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>198.7123514897336</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22640,7 +22640,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>5.668805342773624</v>
+        <v>136.1637893657753</v>
       </c>
       <c r="H3" t="n">
         <v>100.8417573507397</v>
@@ -22673,10 +22673,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>72.4328956284632</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
         <v>195.4095977920013</v>
@@ -22685,16 +22685,16 @@
         <v>38.33818124377098</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>45.27499998310532</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>86.52244598482508</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>18.24739803715752</v>
       </c>
       <c r="Y3" t="n">
-        <v>18.15710861098441</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -22710,7 +22710,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>96.39952676377793</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -22728,10 +22728,10 @@
         <v>125.7072197708667</v>
       </c>
       <c r="J4" t="n">
-        <v>18.95836326784828</v>
+        <v>57.06999962825418</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>14.10430989402852</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22786,25 +22786,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>177.7473046046876</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>189.5105044445884</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>219.3504585753915</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>225.5722460637381</v>
       </c>
       <c r="H5" t="n">
-        <v>129.3682389399023</v>
+        <v>316.8938261062223</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22831,7 +22831,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>77.08171901666375</v>
+        <v>77.08171901666378</v>
       </c>
       <c r="S5" t="n">
         <v>158.7758131900531</v>
@@ -22843,7 +22843,7 @@
         <v>251.1692605650303</v>
       </c>
       <c r="V5" t="n">
-        <v>288.0510384140151</v>
+        <v>140.226671303815</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -22865,28 +22865,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>22.91518284487961</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>71.92902368502851</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>136.1637893657753</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>100.8417573507397</v>
       </c>
       <c r="I6" t="n">
         <v>58.90455890409149</v>
       </c>
       <c r="J6" t="n">
-        <v>15.37922103265838</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22910,16 +22910,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>72.4328956284632</v>
       </c>
       <c r="S6" t="n">
         <v>149.7702446909496</v>
       </c>
       <c r="T6" t="n">
-        <v>195.4095977920012</v>
+        <v>195.4095977920013</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8637684100909</v>
+        <v>38.33818124377098</v>
       </c>
       <c r="V6" t="n">
         <v>45.27499998310532</v>
@@ -22928,7 +22928,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>18.24739803715752</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -22965,10 +22965,10 @@
         <v>125.7072197708667</v>
       </c>
       <c r="J7" t="n">
-        <v>18.95836326784812</v>
+        <v>57.06999962825418</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>14.10430989402852</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -22983,10 +22983,10 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>18.10760906709383</v>
+        <v>18.10760906709386</v>
       </c>
       <c r="Q7" t="n">
-        <v>68.68604055159723</v>
+        <v>68.68604055159726</v>
       </c>
       <c r="R7" t="n">
         <v>132.8223696106904</v>
@@ -23004,7 +23004,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>234.3070520821566</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -23023,25 +23023,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>177.7473046046875</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>364.5418420598041</v>
       </c>
       <c r="G8" t="n">
-        <v>225.572246063738</v>
+        <v>411.8707348436268</v>
       </c>
       <c r="H8" t="n">
-        <v>129.3682389399022</v>
+        <v>304.326804756183</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>78.16360657708299</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23068,28 +23068,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>77.08171901666375</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>119.0745931339331</v>
+        <v>130.8133087092504</v>
       </c>
       <c r="T8" t="n">
-        <v>213.4438810562068</v>
+        <v>208.0722578696039</v>
       </c>
       <c r="U8" t="n">
-        <v>251.1692605650303</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -23102,28 +23102,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>136.1637893657753</v>
+        <v>135.5072338470353</v>
       </c>
       <c r="H9" t="n">
-        <v>100.8417573507397</v>
+        <v>94.50081326185514</v>
       </c>
       <c r="I9" t="n">
-        <v>58.90455890409149</v>
+        <v>36.29946757904885</v>
       </c>
       <c r="J9" t="n">
-        <v>15.37922103265838</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23147,28 +23147,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>72.43289562846319</v>
+        <v>31.66886087721431</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>137.5750138932992</v>
       </c>
       <c r="T9" t="n">
-        <v>7.884010625681185</v>
+        <v>192.7632183107638</v>
       </c>
       <c r="U9" t="n">
-        <v>38.33818124377089</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>45.27499998310523</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>236.2926906757748</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>39.01041037349486</v>
       </c>
     </row>
     <row r="10">
@@ -23178,7 +23178,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>168.0933916795646</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -23190,22 +23190,22 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.0019352027142</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>153.4336708318196</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>125.7072197708667</v>
+        <v>109.1541654470835</v>
       </c>
       <c r="J10" t="n">
-        <v>4.85405337381961</v>
+        <v>18.15430933923925</v>
       </c>
       <c r="K10" t="n">
-        <v>14.1043098940285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23220,22 +23220,22 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>18.10760906709383</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>68.68604055159723</v>
+        <v>22.59469128425553</v>
       </c>
       <c r="R10" t="n">
-        <v>132.8223696106904</v>
+        <v>108.0728512656386</v>
       </c>
       <c r="S10" t="n">
-        <v>206.7802557954962</v>
+        <v>197.1876907596159</v>
       </c>
       <c r="T10" t="n">
-        <v>223.7196734901001</v>
+        <v>221.3678187343026</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2650814934503</v>
+        <v>286.2350578157167</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23266,19 +23266,19 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>187.569715395735</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>304.0065384866153</v>
       </c>
       <c r="G11" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23326,7 +23326,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23351,7 +23351,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>1.108446667785756e-12</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -23421,22 +23421,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>90.70473944880575</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.2118382056129</v>
@@ -23478,10 +23478,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>75.7194878410981</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23494,16 +23494,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>222.7020862222415</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>264.896308138298</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23512,10 +23512,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,16 +23545,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23661,19 +23661,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>131.8582917620353</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.2118382056129</v>
@@ -23715,13 +23715,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>170.6804711422139</v>
       </c>
     </row>
     <row r="17">
@@ -23734,19 +23734,19 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>304.8100100778345</v>
       </c>
       <c r="H17" t="n">
         <v>294.6077643873205</v>
@@ -23785,10 +23785,10 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>134.0563562170533</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23797,10 +23797,10 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -23889,13 +23889,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>90.93497457133149</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23949,16 +23949,16 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>94.10382242036958</v>
       </c>
     </row>
     <row r="20">
@@ -23971,13 +23971,13 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -23986,10 +23986,10 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>84.25438383298308</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,25 +24019,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U20" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>329.0241458276278</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24126,16 +24126,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>22.00675184224305</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24180,19 +24180,19 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>172.1623007152687</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24205,10 +24205,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -24220,13 +24220,13 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>153.1883133533574</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24259,7 +24259,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -24268,13 +24268,13 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>53.44278321679178</v>
       </c>
     </row>
     <row r="24">
@@ -24369,22 +24369,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>75.90048803199637</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24417,19 +24417,19 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>204.7509947629275</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24442,25 +24442,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>100.8920399382131</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>155.7085463501234</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
         <v>41.57692977292595</v>
@@ -24493,10 +24493,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -24511,7 +24511,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24600,22 +24600,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>107.7439527351646</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>144.7550149143208</v>
@@ -24660,16 +24660,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>91.24613470230962</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24682,10 +24682,10 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -24694,7 +24694,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>143.604523148443</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>294.6077643873205</v>
@@ -24736,16 +24736,16 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U29" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>35.4584445792014</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -24837,13 +24837,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24852,7 +24852,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>144.7550149143208</v>
@@ -24891,22 +24891,22 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>198.59028865006</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>34.47359541775907</v>
       </c>
     </row>
     <row r="32">
@@ -24931,13 +24931,13 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>143.6045231484443</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>294.6077643873205</v>
+        <v>239.7360103794535</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24967,7 +24967,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>203.9179701396201</v>
@@ -24979,7 +24979,7 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -25077,10 +25077,10 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>120.5854304825591</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25089,7 +25089,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>5.134299637509969</v>
       </c>
       <c r="H34" t="n">
         <v>144.7550149143208</v>
@@ -25134,10 +25134,10 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25156,25 +25156,25 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>346.4067620467847</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25204,22 +25204,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>174.9841412040002</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -25329,10 +25329,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
-        <v>140.0212912210568</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25374,10 +25374,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>172.1623007152688</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25399,7 +25399,7 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>207.143451054173</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -25441,16 +25441,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U38" t="n">
-        <v>21.19860275476498</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -25554,22 +25554,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>127.1655970263183</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>59.55223036870441</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -25614,7 +25614,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25630,10 +25630,10 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>181.1251564493169</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25648,7 +25648,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25681,7 +25681,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>250.995171958902</v>
@@ -25690,7 +25690,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>61.34716459085467</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25788,25 +25788,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
-        <v>62.27529637717799</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>219.5489492761692</v>
+        <v>45.76112144036333</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25870,22 +25870,22 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>126.4919521192253</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,19 +25915,19 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U44" t="n">
-        <v>145.9927856228087</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26043,7 +26043,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,28 +26070,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S46" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>137.1238099094096</v>
+        <v>7.781142856602344</v>
       </c>
     </row>
   </sheetData>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>424931.0936061952</v>
+        <v>424931.0936061951</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>424931.0936061952</v>
+        <v>658545.8706526515</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>839054.4922903116</v>
+        <v>839054.4922903114</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>839054.4922903113</v>
+        <v>839054.4922903115</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>839054.4922903115</v>
+        <v>839054.4922903116</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>839054.492290312</v>
+        <v>839054.4922903114</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>839054.4922903114</v>
+        <v>839054.4922903116</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>839054.4922903116</v>
+        <v>839054.4922903115</v>
       </c>
     </row>
     <row r="12">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>839054.4922903115</v>
+        <v>839054.4922903117</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>839054.4922903115</v>
+        <v>839054.4922903116</v>
       </c>
     </row>
     <row r="16">
@@ -26316,46 +26316,46 @@
         <v>158307.6623238765</v>
       </c>
       <c r="C2" t="n">
-        <v>158307.6623238766</v>
+        <v>158307.6623238765</v>
       </c>
       <c r="D2" t="n">
-        <v>158307.6623238765</v>
+        <v>245340.6184784386</v>
       </c>
       <c r="E2" t="n">
+        <v>312588.9285003118</v>
+      </c>
+      <c r="F2" t="n">
         <v>312588.9285003119</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
+        <v>312588.9285003117</v>
+      </c>
+      <c r="H2" t="n">
         <v>312588.9285003118</v>
-      </c>
-      <c r="G2" t="n">
-        <v>312588.9285003119</v>
-      </c>
-      <c r="H2" t="n">
-        <v>312588.9285003119</v>
       </c>
       <c r="I2" t="n">
         <v>312588.9285003117</v>
       </c>
       <c r="J2" t="n">
-        <v>312588.9285003117</v>
+        <v>312588.9285003119</v>
       </c>
       <c r="K2" t="n">
-        <v>312588.9285003117</v>
+        <v>312588.9285003119</v>
       </c>
       <c r="L2" t="n">
         <v>312588.9285003119</v>
       </c>
       <c r="M2" t="n">
+        <v>312588.9285003116</v>
+      </c>
+      <c r="N2" t="n">
+        <v>312588.9285003117</v>
+      </c>
+      <c r="O2" t="n">
         <v>312588.9285003118</v>
       </c>
-      <c r="N2" t="n">
+      <c r="P2" t="n">
         <v>312588.9285003116</v>
-      </c>
-      <c r="O2" t="n">
-        <v>312588.9285003117</v>
-      </c>
-      <c r="P2" t="n">
-        <v>312588.9285003117</v>
       </c>
     </row>
     <row r="3">
@@ -26371,13 +26371,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>371558.524948766</v>
       </c>
       <c r="E3" t="n">
-        <v>627134.6436336675</v>
+        <v>276030.7457669098</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854453</v>
+        <v>49064.94472854471</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>89743.37813127026</v>
       </c>
       <c r="M3" t="n">
-        <v>160456.4418678774</v>
+        <v>72091.35261608617</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,13 +26420,13 @@
         <v>137.800118072334</v>
       </c>
       <c r="C4" t="n">
-        <v>137.8001180723341</v>
+        <v>137.800118072334</v>
       </c>
       <c r="D4" t="n">
-        <v>137.8001180723341</v>
+        <v>384.3219252469136</v>
       </c>
       <c r="E4" t="n">
-        <v>584.6469890061231</v>
+        <v>584.646989006123</v>
       </c>
       <c r="F4" t="n">
         <v>584.6469890061231</v>
@@ -26453,13 +26453,13 @@
         <v>584.6469890061231</v>
       </c>
       <c r="N4" t="n">
-        <v>584.6469890061231</v>
+        <v>584.6469890061232</v>
       </c>
       <c r="O4" t="n">
-        <v>584.6469890061231</v>
+        <v>584.6469890061232</v>
       </c>
       <c r="P4" t="n">
-        <v>584.6469890061231</v>
+        <v>584.6469890061228</v>
       </c>
     </row>
     <row r="5">
@@ -26475,10 +26475,10 @@
         <v>56985.80041161358</v>
       </c>
       <c r="D5" t="n">
-        <v>56985.80041161359</v>
+        <v>85199.08185587224</v>
       </c>
       <c r="E5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="F5" t="n">
         <v>74306.3405613933</v>
@@ -26487,13 +26487,13 @@
         <v>74306.34056139328</v>
       </c>
       <c r="H5" t="n">
+        <v>74306.3405613933</v>
+      </c>
+      <c r="I5" t="n">
         <v>74306.34056139328</v>
       </c>
-      <c r="I5" t="n">
+      <c r="J5" t="n">
         <v>74306.3405613933</v>
-      </c>
-      <c r="J5" t="n">
-        <v>74306.34056139328</v>
       </c>
       <c r="K5" t="n">
         <v>74306.3405613933</v>
@@ -26502,16 +26502,16 @@
         <v>74306.34056139328</v>
       </c>
       <c r="M5" t="n">
+        <v>74306.34056139328</v>
+      </c>
+      <c r="N5" t="n">
         <v>74306.3405613933</v>
       </c>
-      <c r="N5" t="n">
-        <v>74306.34056139328</v>
-      </c>
       <c r="O5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="P5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139327</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-490172.8407266548</v>
+        <v>-502366.9027456894</v>
       </c>
       <c r="C6" t="n">
-        <v>101184.0617941907</v>
+        <v>88989.99977515594</v>
       </c>
       <c r="D6" t="n">
-        <v>101184.0617941906</v>
+        <v>-219414.6903676095</v>
       </c>
       <c r="E6" t="n">
-        <v>-389436.7026837551</v>
+        <v>-42406.80019516703</v>
       </c>
       <c r="F6" t="n">
-        <v>237697.9409499124</v>
+        <v>233623.9455717427</v>
       </c>
       <c r="G6" t="n">
-        <v>237697.9409499124</v>
+        <v>233623.9455717426</v>
       </c>
       <c r="H6" t="n">
-        <v>237697.9409499124</v>
+        <v>233623.9455717427</v>
       </c>
       <c r="I6" t="n">
-        <v>237697.9409499122</v>
+        <v>233623.9455717426</v>
       </c>
       <c r="J6" t="n">
-        <v>188632.9962213677</v>
+        <v>184559.0008431981</v>
       </c>
       <c r="K6" t="n">
-        <v>237697.9409499123</v>
+        <v>233623.9455717428</v>
       </c>
       <c r="L6" t="n">
-        <v>237697.9409499124</v>
+        <v>143880.5674404726</v>
       </c>
       <c r="M6" t="n">
-        <v>77241.49908203504</v>
+        <v>161532.5929556564</v>
       </c>
       <c r="N6" t="n">
-        <v>237697.9409499121</v>
+        <v>233623.9455717426</v>
       </c>
       <c r="O6" t="n">
-        <v>237697.9409499122</v>
+        <v>233623.9455717427</v>
       </c>
       <c r="P6" t="n">
-        <v>237697.9409499122</v>
+        <v>233623.9455717429</v>
       </c>
     </row>
   </sheetData>
@@ -26740,10 +26740,10 @@
         <v>548.4699409129046</v>
       </c>
       <c r="C3" t="n">
-        <v>548.4699409129047</v>
+        <v>548.4699409129046</v>
       </c>
       <c r="D3" t="n">
-        <v>548.4699409129047</v>
+        <v>853.7106645376841</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26795,10 +26795,10 @@
         <v>187.52558716632</v>
       </c>
       <c r="D4" t="n">
-        <v>187.52558716632</v>
+        <v>542.1149567261632</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="F4" t="n">
         <v>831.4014554022929</v>
@@ -26807,31 +26807,31 @@
         <v>831.4014554022925</v>
       </c>
       <c r="H4" t="n">
+        <v>831.4014554022929</v>
+      </c>
+      <c r="I4" t="n">
         <v>831.4014554022925</v>
       </c>
-      <c r="I4" t="n">
+      <c r="J4" t="n">
         <v>831.4014554022929</v>
       </c>
-      <c r="J4" t="n">
-        <v>831.4014554022925</v>
-      </c>
       <c r="K4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="L4" t="n">
         <v>831.4014554022925</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="N4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="O4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="P4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022923</v>
       </c>
     </row>
   </sheetData>
@@ -26965,13 +26965,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>305.2407236247795</v>
       </c>
       <c r="E3" t="n">
-        <v>541.3067596803936</v>
+        <v>236.0660360556139</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27017,10 +27017,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>354.5893695598432</v>
       </c>
       <c r="E4" t="n">
-        <v>643.8758682359725</v>
+        <v>289.2864986761294</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663196</v>
+        <v>187.5255871663203</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>354.5893695598431</v>
       </c>
       <c r="M4" t="n">
-        <v>643.8758682359727</v>
+        <v>289.2864986761294</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27263,10 +27263,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>354.5893695598432</v>
       </c>
       <c r="M4" t="n">
-        <v>643.8758682359725</v>
+        <v>289.2864986761294</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31132,7 +31132,7 @@
         <v>111.4584056340083</v>
       </c>
       <c r="K3" t="n">
-        <v>190.5001680621738</v>
+        <v>190.5001680621737</v>
       </c>
       <c r="L3" t="n">
         <v>256.1509851405032</v>
@@ -31281,13 +31281,13 @@
         <v>2.204904285077002</v>
       </c>
       <c r="H5" t="n">
-        <v>22.58097600954486</v>
+        <v>22.58097600954485</v>
       </c>
       <c r="I5" t="n">
-        <v>85.00457245043121</v>
+        <v>85.00457245043118</v>
       </c>
       <c r="J5" t="n">
-        <v>187.1384950655544</v>
+        <v>187.1384950655543</v>
       </c>
       <c r="K5" t="n">
         <v>280.4720934528639</v>
@@ -31299,25 +31299,25 @@
         <v>387.1618995470274</v>
       </c>
       <c r="N5" t="n">
-        <v>393.4265838470025</v>
+        <v>393.4265838470024</v>
       </c>
       <c r="O5" t="n">
         <v>371.501566862268</v>
       </c>
       <c r="P5" t="n">
-        <v>317.0679923244295</v>
+        <v>317.0679923244294</v>
       </c>
       <c r="Q5" t="n">
-        <v>238.1048576151093</v>
+        <v>238.1048576151092</v>
       </c>
       <c r="R5" t="n">
-        <v>138.5038187974684</v>
+        <v>138.5038187974683</v>
       </c>
       <c r="S5" t="n">
         <v>50.24425639619223</v>
       </c>
       <c r="T5" t="n">
-        <v>9.651968507924582</v>
+        <v>9.651968507924579</v>
       </c>
       <c r="U5" t="n">
         <v>0.1763923428061601</v>
@@ -31363,7 +31363,7 @@
         <v>11.39368688575676</v>
       </c>
       <c r="I6" t="n">
-        <v>40.61782109590851</v>
+        <v>40.6178210959085</v>
       </c>
       <c r="J6" t="n">
         <v>111.4584056340083</v>
@@ -31372,16 +31372,16 @@
         <v>190.5001680621737</v>
       </c>
       <c r="L6" t="n">
-        <v>256.1509851405033</v>
+        <v>256.1509851405032</v>
       </c>
       <c r="M6" t="n">
-        <v>298.916117797533</v>
+        <v>298.9161177975329</v>
       </c>
       <c r="N6" t="n">
-        <v>306.8275379829655</v>
+        <v>306.8275379829654</v>
       </c>
       <c r="O6" t="n">
-        <v>280.6872536292674</v>
+        <v>280.6872536292673</v>
       </c>
       <c r="P6" t="n">
         <v>225.2762668628872</v>
@@ -31390,16 +31390,16 @@
         <v>150.5912184936715</v>
       </c>
       <c r="R6" t="n">
-        <v>73.24660833550077</v>
+        <v>73.24660833550075</v>
       </c>
       <c r="S6" t="n">
-        <v>21.91292641288821</v>
+        <v>21.9129264128882</v>
       </c>
       <c r="T6" t="n">
-        <v>4.75513090282037</v>
+        <v>4.755130902820369</v>
       </c>
       <c r="U6" t="n">
-        <v>0.07761367088390164</v>
+        <v>0.07761367088390163</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.9890441557445822</v>
+        <v>0.9890441557445819</v>
       </c>
       <c r="H7" t="n">
-        <v>8.793501675620018</v>
+        <v>8.793501675620016</v>
       </c>
       <c r="I7" t="n">
         <v>29.74325515639162</v>
       </c>
       <c r="J7" t="n">
-        <v>69.92542181114196</v>
+        <v>69.92542181114193</v>
       </c>
       <c r="K7" t="n">
         <v>114.9089482765069</v>
@@ -31466,19 +31466,19 @@
         <v>119.6203949820538</v>
       </c>
       <c r="Q7" t="n">
-        <v>82.81896107784861</v>
+        <v>82.81896107784858</v>
       </c>
       <c r="R7" t="n">
-        <v>44.47102176647911</v>
+        <v>44.4710217664791</v>
       </c>
       <c r="S7" t="n">
         <v>17.23634224147603</v>
       </c>
       <c r="T7" t="n">
-        <v>4.225915938181395</v>
+        <v>4.225915938181394</v>
       </c>
       <c r="U7" t="n">
-        <v>0.05394786304061363</v>
+        <v>0.05394786304061362</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>2.204904285077002</v>
+        <v>3.432002671508275</v>
       </c>
       <c r="H8" t="n">
-        <v>22.58097600954486</v>
+        <v>35.14799735958413</v>
       </c>
       <c r="I8" t="n">
-        <v>85.00457245043121</v>
+        <v>132.3122829933229</v>
       </c>
       <c r="J8" t="n">
-        <v>187.1384950655544</v>
+        <v>291.2869367409257</v>
       </c>
       <c r="K8" t="n">
-        <v>280.4720934528639</v>
+        <v>436.5636098258711</v>
       </c>
       <c r="L8" t="n">
-        <v>347.9504329672893</v>
+        <v>541.5957615840426</v>
       </c>
       <c r="M8" t="n">
-        <v>387.1618995470274</v>
+        <v>602.6296390934779</v>
       </c>
       <c r="N8" t="n">
-        <v>393.4265838470025</v>
+        <v>612.3808166839008</v>
       </c>
       <c r="O8" t="n">
-        <v>371.501566862268</v>
+        <v>578.2538401190903</v>
       </c>
       <c r="P8" t="n">
-        <v>317.0679923244295</v>
+        <v>493.5262741662298</v>
       </c>
       <c r="Q8" t="n">
-        <v>238.1048576151093</v>
+        <v>370.6176784928395</v>
       </c>
       <c r="R8" t="n">
-        <v>138.5038187974684</v>
+        <v>215.5855378141319</v>
       </c>
       <c r="S8" t="n">
-        <v>50.24425639619223</v>
+        <v>78.20676087699491</v>
       </c>
       <c r="T8" t="n">
-        <v>9.651968507924582</v>
+        <v>15.02359169452748</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1763923428061601</v>
+        <v>0.274560213720662</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.179727797435304</v>
+        <v>1.836283316175396</v>
       </c>
       <c r="H9" t="n">
-        <v>11.39368688575676</v>
+        <v>17.73463097464133</v>
       </c>
       <c r="I9" t="n">
-        <v>40.61782109590851</v>
+        <v>63.22291242095115</v>
       </c>
       <c r="J9" t="n">
-        <v>111.4584056340083</v>
+        <v>173.4885040076062</v>
       </c>
       <c r="K9" t="n">
-        <v>190.5001680621737</v>
+        <v>296.5194861913577</v>
       </c>
       <c r="L9" t="n">
-        <v>256.1509851405033</v>
+        <v>398.7070419616798</v>
       </c>
       <c r="M9" t="n">
-        <v>298.916117797533</v>
+        <v>465.2723121730378</v>
       </c>
       <c r="N9" t="n">
-        <v>306.8275379829655</v>
+        <v>477.5866858152843</v>
       </c>
       <c r="O9" t="n">
-        <v>280.6872536292674</v>
+        <v>436.8985133884505</v>
       </c>
       <c r="P9" t="n">
-        <v>225.2762668628872</v>
+        <v>350.6495746475632</v>
       </c>
       <c r="Q9" t="n">
-        <v>150.5912184936715</v>
+        <v>234.3999545349506</v>
       </c>
       <c r="R9" t="n">
-        <v>73.24660833550077</v>
+        <v>114.0106430867496</v>
       </c>
       <c r="S9" t="n">
-        <v>21.91292641288821</v>
+        <v>34.10815721053859</v>
       </c>
       <c r="T9" t="n">
-        <v>4.75513090282037</v>
+        <v>7.401510384057843</v>
       </c>
       <c r="U9" t="n">
-        <v>0.07761367088390164</v>
+        <v>0.1208081129062761</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.9890441557445822</v>
+        <v>1.539478247526971</v>
       </c>
       <c r="H10" t="n">
-        <v>8.793501675620018</v>
+        <v>13.68736114619435</v>
       </c>
       <c r="I10" t="n">
-        <v>29.74325515639162</v>
+        <v>46.29630948017475</v>
       </c>
       <c r="J10" t="n">
-        <v>69.92542181114196</v>
+        <v>108.8411121001569</v>
       </c>
       <c r="K10" t="n">
-        <v>114.9089482765069</v>
+        <v>178.8593818490426</v>
       </c>
       <c r="L10" t="n">
-        <v>147.0438920276991</v>
+        <v>228.8784296368736</v>
       </c>
       <c r="M10" t="n">
-        <v>155.0371670682166</v>
+        <v>241.3202129282506</v>
       </c>
       <c r="N10" t="n">
-        <v>151.3507297604415</v>
+        <v>235.5821576420139</v>
       </c>
       <c r="O10" t="n">
-        <v>139.7968957592433</v>
+        <v>217.5982526595396</v>
       </c>
       <c r="P10" t="n">
-        <v>119.6203949820538</v>
+        <v>186.1928964099892</v>
       </c>
       <c r="Q10" t="n">
-        <v>82.81896107784861</v>
+        <v>128.9103103451903</v>
       </c>
       <c r="R10" t="n">
-        <v>44.47102176647911</v>
+        <v>69.22054011153089</v>
       </c>
       <c r="S10" t="n">
-        <v>17.23634224147603</v>
+        <v>26.82890727735639</v>
       </c>
       <c r="T10" t="n">
-        <v>4.225915938181395</v>
+        <v>6.577770693978875</v>
       </c>
       <c r="U10" t="n">
-        <v>0.05394786304061363</v>
+        <v>0.08397154077419852</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,43 +31752,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I11" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J11" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T11" t="n">
         <v>19.1778794245112</v>
@@ -31837,40 +31837,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K12" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O12" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R12" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31910,13 +31910,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H13" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
@@ -31925,16 +31925,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M13" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P13" t="n">
         <v>237.6785118802169</v>
@@ -31943,16 +31943,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32572,7 +32572,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
@@ -32809,7 +32809,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
@@ -33031,7 +33031,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M27" t="n">
         <v>593.9283018233475</v>
@@ -33046,7 +33046,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
@@ -33274,7 +33274,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O30" t="n">
         <v>557.708647897025</v>
@@ -33520,7 +33520,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
@@ -33757,7 +33757,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
@@ -33991,10 +33991,10 @@
         <v>557.708647897025</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
@@ -34228,7 +34228,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q42" t="n">
         <v>299.2156706987487</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H44" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I44" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J44" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K44" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095023</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T44" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U44" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,46 +34438,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H45" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O45" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002938</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U45" t="n">
         <v>0.1542136840462215</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H46" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J46" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K46" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L46" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M46" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P46" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q46" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34780,7 +34780,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>52.65872908781483</v>
+        <v>52.65872908781469</v>
       </c>
       <c r="L3" t="n">
         <v>117.596605360629</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>6.09259053886808</v>
+        <v>6.092590538868052</v>
       </c>
       <c r="K5" t="n">
-        <v>60.38224240788338</v>
+        <v>60.38224240788333</v>
       </c>
       <c r="L5" t="n">
-        <v>112.1840179973021</v>
+        <v>112.184017997302</v>
       </c>
       <c r="M5" t="n">
-        <v>156.8156663197547</v>
+        <v>156.8156663197546</v>
       </c>
       <c r="N5" t="n">
-        <v>164.0135202504116</v>
+        <v>164.0135202504115</v>
       </c>
       <c r="O5" t="n">
-        <v>141.4033554405813</v>
+        <v>141.4033554405812</v>
       </c>
       <c r="P5" t="n">
-        <v>85.83499656915996</v>
+        <v>85.8349965691599</v>
       </c>
       <c r="Q5" t="n">
-        <v>15.79916774065978</v>
+        <v>15.79916774065975</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35017,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>52.65872908781472</v>
+        <v>52.65872908781469</v>
       </c>
       <c r="L6" t="n">
-        <v>117.5966053606291</v>
+        <v>117.596605360629</v>
       </c>
       <c r="M6" t="n">
-        <v>156.7820838755147</v>
+        <v>156.7820838755146</v>
       </c>
       <c r="N6" t="n">
         <v>175.4858258996321</v>
       </c>
       <c r="O6" t="n">
-        <v>138.091009184823</v>
+        <v>138.0910091848229</v>
       </c>
       <c r="P6" t="n">
-        <v>91.301859448557</v>
+        <v>91.30185944855694</v>
       </c>
       <c r="Q6" t="n">
-        <v>10.60944440764999</v>
+        <v>10.60944440764996</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35099,16 +35099,16 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>12.1592157464608</v>
+        <v>12.15921574646077</v>
       </c>
       <c r="M7" t="n">
-        <v>16.11138312061155</v>
+        <v>16.11138312061152</v>
       </c>
       <c r="N7" t="n">
-        <v>23.66518529520829</v>
+        <v>23.66518529520826</v>
       </c>
       <c r="O7" t="n">
-        <v>1.340357307400552</v>
+        <v>1.340357307400524</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>6.09259053886808</v>
+        <v>110.2410322142395</v>
       </c>
       <c r="K8" t="n">
-        <v>60.38224240788338</v>
+        <v>216.4737587808906</v>
       </c>
       <c r="L8" t="n">
-        <v>112.1840179973021</v>
+        <v>305.8293466140554</v>
       </c>
       <c r="M8" t="n">
-        <v>156.8156663197547</v>
+        <v>372.2834058662052</v>
       </c>
       <c r="N8" t="n">
-        <v>164.0135202504116</v>
+        <v>382.9677530873099</v>
       </c>
       <c r="O8" t="n">
-        <v>141.4033554405813</v>
+        <v>348.1556286974036</v>
       </c>
       <c r="P8" t="n">
-        <v>85.83499656915996</v>
+        <v>262.2932784109602</v>
       </c>
       <c r="Q8" t="n">
-        <v>15.79916774065978</v>
+        <v>148.31198861839</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>46.6508773409395</v>
       </c>
       <c r="K9" t="n">
-        <v>52.65872908781472</v>
+        <v>158.6780472169987</v>
       </c>
       <c r="L9" t="n">
-        <v>117.5966053606291</v>
+        <v>260.1526621818056</v>
       </c>
       <c r="M9" t="n">
-        <v>156.7820838755147</v>
+        <v>323.1382782510195</v>
       </c>
       <c r="N9" t="n">
-        <v>175.4858258996321</v>
+        <v>346.2449737319509</v>
       </c>
       <c r="O9" t="n">
-        <v>138.091009184823</v>
+        <v>294.302268944006</v>
       </c>
       <c r="P9" t="n">
-        <v>91.301859448557</v>
+        <v>216.6751672332329</v>
       </c>
       <c r="Q9" t="n">
-        <v>10.60944440764999</v>
+        <v>94.41818044892906</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>49.84612367850724</v>
       </c>
       <c r="L10" t="n">
-        <v>12.1592157464608</v>
+        <v>93.99375335563528</v>
       </c>
       <c r="M10" t="n">
-        <v>16.11138312061155</v>
+        <v>102.3944289806455</v>
       </c>
       <c r="N10" t="n">
-        <v>23.66518529520829</v>
+        <v>107.8966131767807</v>
       </c>
       <c r="O10" t="n">
-        <v>1.340357307400552</v>
+        <v>79.14171420769682</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>48.46489236084162</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K12" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P12" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K13" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L13" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M13" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N13" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O13" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P13" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q13" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -36220,7 +36220,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36457,7 +36457,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36679,7 +36679,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L27" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M27" t="n">
         <v>451.7942679013292</v>
@@ -36694,7 +36694,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36922,7 +36922,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O30" t="n">
         <v>415.1124034525806</v>
@@ -37168,7 +37168,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37405,7 +37405,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37639,10 +37639,10 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P39" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37876,7 +37876,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P42" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q42" t="n">
         <v>159.2338966127272</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129115</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O44" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P44" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013292</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P45" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859635</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034283</v>
       </c>
       <c r="K46" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966696</v>
       </c>
       <c r="L46" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M46" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N46" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O46" t="n">
-        <v>139.3114638567573</v>
+        <v>139.3114638567572</v>
       </c>
       <c r="P46" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106922</v>
       </c>
       <c r="Q46" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014211</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_25_19.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_25_19.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>515726.662165859</v>
+        <v>565488.6672442006</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8088944.869226764</v>
+        <v>8547013.059513934</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8722880.896883903</v>
+        <v>8506890.903312845</v>
       </c>
     </row>
     <row r="11">
@@ -667,16 +667,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>165.1725371760946</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -715,16 +715,16 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>165.1725371760944</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>187.5255871663197</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>187.5255871663197</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>187.5255871663197</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -785,28 +785,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>72.43289562846324</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>187.5255871663197</v>
       </c>
       <c r="U3" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>165.1725371760945</v>
+        <v>187.5255871663197</v>
       </c>
       <c r="X3" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663197</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>92.73964154763111</v>
       </c>
     </row>
     <row r="4">
@@ -822,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>52.21594625443443</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -867,7 +867,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>52.21594625443403</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -898,67 +898,67 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>187.5255871663199</v>
+      </c>
+      <c r="G5" t="n">
+        <v>187.5255871663199</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
         <v>165.1725371760945</v>
       </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>187.52558716632</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>149.7933161434361</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -1031,19 +1031,19 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>187.52558716632</v>
+        <v>149.7933161434361</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="X6" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
     </row>
     <row r="7">
@@ -1104,7 +1104,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>52.21594625443444</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1116,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>52.21594625443443</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1135,19 +1135,19 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>88.0908181594307</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="F8" t="n">
-        <v>42.33420368190727</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>77.08171901666378</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1189,19 +1189,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0710926941158</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1214,16 +1214,16 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1268,19 +1268,19 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8205739680685</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>165.1725371760947</v>
       </c>
       <c r="Y9" t="n">
-        <v>166.6722854038095</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>11.73858850237266</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1302,13 +1302,13 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.4515011109318</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>148.5398113612452</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>52.21594625443444</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1369,10 +1369,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>219.280106148199</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1381,10 +1381,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>102.8695072550961</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>203.9179701396202</v>
@@ -1438,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1463,10 +1463,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>134.999469165707</v>
+        <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851002</v>
       </c>
       <c r="I12" t="n">
         <v>18.81721868247745</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1536,16 +1536,16 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>136.63368378476</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1578,10 +1578,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1590,13 +1590,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>149.9901675479391</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1606,25 +1606,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>117.0340619339638</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U14" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1675,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>84.36427925043571</v>
       </c>
     </row>
     <row r="15">
@@ -1703,10 +1703,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851092</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824763</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1773,16 +1773,16 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>53.54735467376801</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1821,7 +1821,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -1833,7 +1833,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>47.90418220988089</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1858,7 +1858,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>106.111715575619</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>250.995171958902</v>
@@ -1906,13 +1906,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>357.5366905673751</v>
       </c>
     </row>
     <row r="18">
@@ -1943,7 +1943,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247721</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2001,10 +2001,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -2013,10 +2013,10 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2058,19 +2058,19 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>124.4808309317252</v>
+        <v>38.69000991140444</v>
       </c>
     </row>
     <row r="20">
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>24.14763241892861</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2089,7 +2089,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2098,10 +2098,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H20" t="n">
-        <v>210.3533805543374</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2134,13 +2134,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U20" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2149,7 +2149,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2250,10 +2250,10 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2295,16 +2295,16 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>62.6976916101849</v>
       </c>
       <c r="X22" t="n">
-        <v>53.54735467376845</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2317,16 +2317,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>132.6536735427099</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -2338,7 +2338,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2371,7 +2371,7 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U23" t="n">
         <v>250.995171958902</v>
@@ -2380,13 +2380,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>332.7951554392618</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -2478,19 +2478,19 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2532,16 +2532,16 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>72.0880274467727</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>20.95866062610961</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>24.14763241892861</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2563,10 +2563,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>305.9840058034983</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>410.9217256534534</v>
@@ -2575,7 +2575,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2608,7 +2608,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U26" t="n">
         <v>250.995171958902</v>
@@ -2620,7 +2620,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2712,22 +2712,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>72.0880274467727</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2769,16 +2769,16 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>20.95866062610969</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2791,13 +2791,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -2812,7 +2812,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,25 +2842,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U29" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>292.2938138909335</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>275.1428043778293</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2888,7 +2888,7 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H30" t="n">
-        <v>89.59687541851095</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I30" t="n">
         <v>18.81721868247742</v>
@@ -2924,7 +2924,7 @@
         <v>128.1435076414547</v>
       </c>
       <c r="T30" t="n">
-        <v>190.7165703189231</v>
+        <v>190.7165703189229</v>
       </c>
       <c r="U30" t="n">
         <v>225.7871683969286</v>
@@ -2958,10 +2958,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>38.69000991140444</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>166.0258082590282</v>
@@ -3018,7 +3018,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>184.1110579343357</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3031,10 +3031,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -3046,7 +3046,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H32" t="n">
-        <v>54.87175400786693</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>41.57692977292595</v>
@@ -3079,16 +3079,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>230.2267521569527</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -3186,13 +3186,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3201,7 +3201,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>160.8915086215183</v>
+        <v>124.4808309317253</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3243,7 +3243,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3255,7 +3255,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3277,16 +3277,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>60.46928369492676</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H35" t="n">
-        <v>294.6077643873205</v>
+        <v>173.2057702920259</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3319,7 +3319,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>250.995171958902</v>
@@ -3328,10 +3328,10 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3435,10 +3435,10 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3477,7 +3477,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>286.2118382056129</v>
@@ -3486,10 +3486,10 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>248.1724460045691</v>
       </c>
       <c r="X37" t="n">
-        <v>53.54735467376837</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3505,25 +3505,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>60.31382691113668</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>174.7869190180888</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3666,16 +3666,16 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>19.26836562025091</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3720,13 +3720,13 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>20.95866062610961</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3739,10 +3739,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3757,10 +3757,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3796,13 +3796,13 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>52.32391940463657</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>287.8938041265583</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -3900,10 +3900,10 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3951,13 +3951,13 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>173.7878278358059</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>191.454879992147</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -3966,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3982,7 +3982,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>228.1910895014577</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -3991,13 +3991,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,25 +4027,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>137.5175578289546</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4073,10 +4073,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247746</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098773</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4146,10 +4146,10 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>219.5489492761692</v>
@@ -4194,16 +4194,16 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>62.6976916101849</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>210.8035104954924</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>750.1023486652798</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="C2" t="n">
-        <v>750.1023486652798</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="D2" t="n">
-        <v>750.1023486652798</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="E2" t="n">
-        <v>583.26140202276</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="F2" t="n">
-        <v>393.8416170062752</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="G2" t="n">
-        <v>204.4218319897904</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="H2" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="I2" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="J2" t="n">
-        <v>21.03371160678495</v>
+        <v>21.03371160678535</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058944</v>
+        <v>80.81213159059007</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079186</v>
+        <v>191.874309407919</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644754</v>
+        <v>347.1218190644759</v>
       </c>
       <c r="N2" t="n">
-        <v>509.4952041123828</v>
+        <v>509.495204112383</v>
       </c>
       <c r="O2" t="n">
-        <v>649.4845259985584</v>
+        <v>649.484525998558</v>
       </c>
       <c r="P2" t="n">
-        <v>734.4611726020266</v>
+        <v>734.461172602026</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.1023486652798</v>
+        <v>750.1023486652789</v>
       </c>
       <c r="R2" t="n">
-        <v>750.1023486652798</v>
+        <v>750.1023486652789</v>
       </c>
       <c r="S2" t="n">
-        <v>750.1023486652798</v>
+        <v>750.1023486652789</v>
       </c>
       <c r="T2" t="n">
-        <v>750.1023486652798</v>
+        <v>750.1023486652789</v>
       </c>
       <c r="U2" t="n">
-        <v>750.1023486652798</v>
+        <v>583.2614020227593</v>
       </c>
       <c r="V2" t="n">
-        <v>750.1023486652798</v>
+        <v>393.8416170062748</v>
       </c>
       <c r="W2" t="n">
-        <v>750.1023486652798</v>
+        <v>204.4218319897901</v>
       </c>
       <c r="X2" t="n">
-        <v>750.1023486652798</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="Y2" t="n">
-        <v>750.1023486652798</v>
+        <v>15.00204697330558</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="C3" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="D3" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="E3" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="F3" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="G3" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="H3" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="I3" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="J3" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="K3" t="n">
-        <v>67.13418877024208</v>
+        <v>67.13418877024196</v>
       </c>
       <c r="L3" t="n">
-        <v>183.5548280772649</v>
+        <v>183.5548280772646</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140243</v>
+        <v>338.769091114024</v>
       </c>
       <c r="N3" t="n">
-        <v>512.50005875466</v>
+        <v>512.5000587546594</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476349</v>
+        <v>649.2101578476343</v>
       </c>
       <c r="P3" t="n">
-        <v>739.5989987017064</v>
+        <v>739.5989987017056</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.1023486652798</v>
+        <v>750.1023486652789</v>
       </c>
       <c r="R3" t="n">
-        <v>750.1023486652798</v>
+        <v>676.9378076264271</v>
       </c>
       <c r="S3" t="n">
-        <v>750.1023486652798</v>
+        <v>676.9378076264271</v>
       </c>
       <c r="T3" t="n">
-        <v>750.1023486652798</v>
+        <v>487.5180226099425</v>
       </c>
       <c r="U3" t="n">
-        <v>560.6825636487949</v>
+        <v>487.5180226099425</v>
       </c>
       <c r="V3" t="n">
-        <v>371.2627786323101</v>
+        <v>487.5180226099425</v>
       </c>
       <c r="W3" t="n">
-        <v>204.4218319897904</v>
+        <v>298.098237593458</v>
       </c>
       <c r="X3" t="n">
-        <v>15.0020469733056</v>
+        <v>108.6784525769734</v>
       </c>
       <c r="Y3" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330558</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>67.74542702828987</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="C4" t="n">
-        <v>67.74542702828987</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="D4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="E4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="F4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="G4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="H4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="I4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="J4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="K4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="L4" t="n">
-        <v>27.03967056230176</v>
+        <v>27.03967056230163</v>
       </c>
       <c r="M4" t="n">
-        <v>42.98993985170716</v>
+        <v>42.98993985170695</v>
       </c>
       <c r="N4" t="n">
-        <v>66.41847329396334</v>
+        <v>66.41847329396302</v>
       </c>
       <c r="O4" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702828946</v>
       </c>
       <c r="P4" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702828946</v>
       </c>
       <c r="Q4" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702828946</v>
       </c>
       <c r="R4" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702828946</v>
       </c>
       <c r="S4" t="n">
-        <v>67.74542702828987</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="T4" t="n">
-        <v>67.74542702828987</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="U4" t="n">
-        <v>67.74542702828987</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="V4" t="n">
-        <v>67.74542702828987</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="W4" t="n">
-        <v>67.74542702828987</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="X4" t="n">
-        <v>67.74542702828987</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="Y4" t="n">
-        <v>67.74542702828987</v>
+        <v>15.00204697330558</v>
       </c>
     </row>
     <row r="5">
@@ -4543,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>560.6825636487949</v>
+        <v>393.841617006275</v>
       </c>
       <c r="C5" t="n">
-        <v>371.2627786323101</v>
+        <v>393.841617006275</v>
       </c>
       <c r="D5" t="n">
-        <v>204.4218319897904</v>
+        <v>393.841617006275</v>
       </c>
       <c r="E5" t="n">
-        <v>204.4218319897904</v>
+        <v>393.841617006275</v>
       </c>
       <c r="F5" t="n">
-        <v>204.4218319897904</v>
+        <v>204.4218319897903</v>
       </c>
       <c r="G5" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H5" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I5" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J5" t="n">
-        <v>21.03371160678489</v>
+        <v>21.03371160678495</v>
       </c>
       <c r="K5" t="n">
-        <v>80.81213159058939</v>
+        <v>80.81213159058944</v>
       </c>
       <c r="L5" t="n">
-        <v>191.8743094079184</v>
+        <v>191.8743094079186</v>
       </c>
       <c r="M5" t="n">
         <v>347.1218190644754</v>
@@ -4585,34 +4585,34 @@
         <v>649.4845259985582</v>
       </c>
       <c r="P5" t="n">
-        <v>734.4611726020266</v>
+        <v>734.4611726020263</v>
       </c>
       <c r="Q5" t="n">
-        <v>750.1023486652798</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="R5" t="n">
-        <v>750.1023486652798</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="S5" t="n">
-        <v>750.1023486652798</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="T5" t="n">
-        <v>750.1023486652798</v>
+        <v>583.2614020227597</v>
       </c>
       <c r="U5" t="n">
-        <v>750.1023486652798</v>
+        <v>583.2614020227597</v>
       </c>
       <c r="V5" t="n">
-        <v>560.6825636487949</v>
+        <v>583.2614020227597</v>
       </c>
       <c r="W5" t="n">
-        <v>560.6825636487949</v>
+        <v>393.841617006275</v>
       </c>
       <c r="X5" t="n">
-        <v>560.6825636487949</v>
+        <v>393.841617006275</v>
       </c>
       <c r="Y5" t="n">
-        <v>560.6825636487949</v>
+        <v>393.841617006275</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>181.8429936158253</v>
+        <v>30.53661367296053</v>
       </c>
       <c r="C6" t="n">
-        <v>30.53661367296054</v>
+        <v>30.53661367296053</v>
       </c>
       <c r="D6" t="n">
-        <v>30.53661367296054</v>
+        <v>30.53661367296053</v>
       </c>
       <c r="E6" t="n">
-        <v>30.53661367296054</v>
+        <v>30.53661367296053</v>
       </c>
       <c r="F6" t="n">
-        <v>30.53661367296054</v>
+        <v>30.53661367296053</v>
       </c>
       <c r="G6" t="n">
-        <v>30.53661367296054</v>
+        <v>30.53661367296053</v>
       </c>
       <c r="H6" t="n">
-        <v>30.53661367296054</v>
+        <v>30.53661367296053</v>
       </c>
       <c r="I6" t="n">
-        <v>30.53661367296054</v>
+        <v>30.53661367296053</v>
       </c>
       <c r="J6" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K6" t="n">
-        <v>67.13418877024213</v>
+        <v>67.13418877024208</v>
       </c>
       <c r="L6" t="n">
         <v>183.5548280772649</v>
       </c>
       <c r="M6" t="n">
-        <v>338.7690911140244</v>
+        <v>338.7690911140243</v>
       </c>
       <c r="N6" t="n">
-        <v>512.5000587546601</v>
+        <v>512.50005875466</v>
       </c>
       <c r="O6" t="n">
-        <v>649.2101578476348</v>
+        <v>649.2101578476347</v>
       </c>
       <c r="P6" t="n">
-        <v>739.5989987017063</v>
+        <v>739.598998701706</v>
       </c>
       <c r="Q6" t="n">
-        <v>750.1023486652797</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="R6" t="n">
-        <v>750.1023486652798</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="S6" t="n">
-        <v>750.1023486652798</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="T6" t="n">
-        <v>750.1023486652798</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="U6" t="n">
-        <v>560.6825636487949</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="V6" t="n">
-        <v>371.2627786323101</v>
+        <v>598.7959687224147</v>
       </c>
       <c r="W6" t="n">
-        <v>371.2627786323101</v>
+        <v>409.37618370593</v>
       </c>
       <c r="X6" t="n">
-        <v>181.8429936158253</v>
+        <v>219.9563986894453</v>
       </c>
       <c r="Y6" t="n">
-        <v>181.8429936158253</v>
+        <v>30.53661367296053</v>
       </c>
     </row>
     <row r="7">
@@ -4701,37 +4701,37 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="C7" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="D7" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="E7" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="F7" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="G7" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H7" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I7" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J7" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K7" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="L7" t="n">
-        <v>27.03967056230176</v>
+        <v>27.03967056230175</v>
       </c>
       <c r="M7" t="n">
         <v>42.98993985170716</v>
@@ -4752,25 +4752,25 @@
         <v>67.74542702828987</v>
       </c>
       <c r="S7" t="n">
-        <v>67.74542702828987</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="T7" t="n">
-        <v>67.74542702828987</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="U7" t="n">
-        <v>67.74542702828987</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="V7" t="n">
-        <v>67.74542702828987</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="W7" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="X7" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="Y7" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>840.8817879776655</v>
+        <v>482.8222414097404</v>
       </c>
       <c r="C8" t="n">
-        <v>471.9192710372537</v>
+        <v>482.8222414097404</v>
       </c>
       <c r="D8" t="n">
-        <v>471.9192710372537</v>
+        <v>393.841617006275</v>
       </c>
       <c r="E8" t="n">
-        <v>86.13101843900949</v>
+        <v>204.4218319897903</v>
       </c>
       <c r="F8" t="n">
-        <v>43.36919653809306</v>
+        <v>204.4218319897903</v>
       </c>
       <c r="G8" t="n">
-        <v>43.36919653809306</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H8" t="n">
-        <v>43.36919653809306</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I8" t="n">
-        <v>43.36919653809306</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J8" t="n">
-        <v>152.50781843019</v>
+        <v>21.03371160678478</v>
       </c>
       <c r="K8" t="n">
-        <v>366.8168396232717</v>
+        <v>80.81213159058939</v>
       </c>
       <c r="L8" t="n">
-        <v>669.5878927711866</v>
+        <v>191.8743094079184</v>
       </c>
       <c r="M8" t="n">
-        <v>1038.14846457873</v>
+        <v>347.1218190644753</v>
       </c>
       <c r="N8" t="n">
-        <v>1417.286540135166</v>
+        <v>509.4952041123826</v>
       </c>
       <c r="O8" t="n">
-        <v>1761.960612545596</v>
+        <v>649.4845259985582</v>
       </c>
       <c r="P8" t="n">
-        <v>2021.630958172447</v>
+        <v>734.4611726020263</v>
       </c>
       <c r="Q8" t="n">
-        <v>2168.459826904653</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="R8" t="n">
-        <v>2168.459826904653</v>
+        <v>672.2420264262252</v>
       </c>
       <c r="S8" t="n">
-        <v>2168.459826904653</v>
+        <v>672.2420264262252</v>
       </c>
       <c r="T8" t="n">
-        <v>2168.459826904653</v>
+        <v>672.2420264262252</v>
       </c>
       <c r="U8" t="n">
-        <v>1914.852662567162</v>
+        <v>482.8222414097404</v>
       </c>
       <c r="V8" t="n">
-        <v>1583.789775223591</v>
+        <v>482.8222414097404</v>
       </c>
       <c r="W8" t="n">
-        <v>1231.021119953477</v>
+        <v>482.8222414097404</v>
       </c>
       <c r="X8" t="n">
-        <v>1231.021119953477</v>
+        <v>482.8222414097404</v>
       </c>
       <c r="Y8" t="n">
-        <v>840.8817879776655</v>
+        <v>482.8222414097404</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>672.5286484590418</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="C9" t="n">
-        <v>498.0756191779149</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="D9" t="n">
-        <v>349.1412095166636</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="E9" t="n">
-        <v>189.9037545112081</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="F9" t="n">
-        <v>43.36919653809306</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="G9" t="n">
-        <v>43.36919653809306</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H9" t="n">
-        <v>43.36919653809306</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I9" t="n">
-        <v>43.36919653809306</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J9" t="n">
-        <v>89.55356510562316</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K9" t="n">
-        <v>246.6448318504519</v>
+        <v>67.13418877024213</v>
       </c>
       <c r="L9" t="n">
-        <v>504.1959674104395</v>
+        <v>183.5548280772649</v>
       </c>
       <c r="M9" t="n">
-        <v>824.1028628789488</v>
+        <v>338.7690911140244</v>
       </c>
       <c r="N9" t="n">
-        <v>1166.88538687358</v>
+        <v>512.5000587546601</v>
       </c>
       <c r="O9" t="n">
-        <v>1458.244633128146</v>
+        <v>649.2101578476348</v>
       </c>
       <c r="P9" t="n">
-        <v>1672.753048689047</v>
+        <v>739.5989987017063</v>
       </c>
       <c r="Q9" t="n">
-        <v>1766.227047333487</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="R9" t="n">
-        <v>1766.227047333487</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="S9" t="n">
-        <v>1766.227047333487</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="T9" t="n">
-        <v>1766.227047333487</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="U9" t="n">
-        <v>1538.125457466751</v>
+        <v>560.6825636487949</v>
       </c>
       <c r="V9" t="n">
-        <v>1302.973349235008</v>
+        <v>371.2627786323102</v>
       </c>
       <c r="W9" t="n">
-        <v>1048.735992506806</v>
+        <v>181.8429936158255</v>
       </c>
       <c r="X9" t="n">
-        <v>840.8844923012737</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="Y9" t="n">
-        <v>672.5286484590418</v>
+        <v>15.00204697330559</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>508.4321869371923</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="C10" t="n">
-        <v>508.4321869371923</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="D10" t="n">
-        <v>508.4321869371923</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="E10" t="n">
-        <v>508.4321869371923</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="F10" t="n">
-        <v>361.542239439282</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="G10" t="n">
-        <v>193.4094100343004</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H10" t="n">
-        <v>43.36919653809306</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I10" t="n">
-        <v>43.36919653809306</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J10" t="n">
-        <v>43.36919653809306</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K10" t="n">
-        <v>92.71685897981521</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="L10" t="n">
-        <v>185.7706748018941</v>
+        <v>27.03967056230175</v>
       </c>
       <c r="M10" t="n">
-        <v>287.1411594927332</v>
+        <v>42.98993985170716</v>
       </c>
       <c r="N10" t="n">
-        <v>393.9588065377461</v>
+        <v>66.41847329396334</v>
       </c>
       <c r="O10" t="n">
-        <v>472.3091036033659</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="P10" t="n">
-        <v>520.2893470405991</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="Q10" t="n">
-        <v>520.2893470405991</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="R10" t="n">
-        <v>520.2893470405991</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="S10" t="n">
-        <v>520.2893470405991</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="T10" t="n">
-        <v>520.2893470405991</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="U10" t="n">
-        <v>520.2893470405991</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="V10" t="n">
-        <v>520.2893470405991</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="W10" t="n">
-        <v>520.2893470405991</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="X10" t="n">
-        <v>520.2893470405991</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="Y10" t="n">
-        <v>520.2893470405991</v>
+        <v>15.00204697330559</v>
       </c>
     </row>
     <row r="11">
@@ -5017,19 +5017,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1698.509627919559</v>
+        <v>1032.061124352531</v>
       </c>
       <c r="C11" t="n">
-        <v>1329.547110979147</v>
+        <v>810.5660676371781</v>
       </c>
       <c r="D11" t="n">
-        <v>971.281412372397</v>
+        <v>452.3003690304276</v>
       </c>
       <c r="E11" t="n">
-        <v>585.4931597741527</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F11" t="n">
-        <v>481.5845665871869</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G11" t="n">
         <v>66.51211643218342</v>
@@ -5044,7 +5044,7 @@
         <v>255.3912473912092</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L11" t="n">
         <v>1040.244834329464</v>
@@ -5059,7 +5059,7 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q11" t="n">
         <v>3266.588755052368</v>
@@ -5068,25 +5068,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T11" t="n">
-        <v>3009.337405520488</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U11" t="n">
-        <v>2755.806928794324</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="V11" t="n">
-        <v>2424.744041450753</v>
+        <v>2535.034709923658</v>
       </c>
       <c r="W11" t="n">
-        <v>2071.975386180639</v>
+        <v>2182.266054653544</v>
       </c>
       <c r="X11" t="n">
-        <v>1698.509627919559</v>
+        <v>1808.800296392464</v>
       </c>
       <c r="Y11" t="n">
-        <v>1698.509627919559</v>
+        <v>1418.660964416652</v>
       </c>
     </row>
     <row r="12">
@@ -5111,7 +5111,7 @@
         <v>312.3844025601587</v>
       </c>
       <c r="G12" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H12" t="n">
         <v>85.51940803064548</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>66.51211643218342</v>
+        <v>518.4459618444147</v>
       </c>
       <c r="C13" t="n">
-        <v>66.51211643218342</v>
+        <v>518.4459618444147</v>
       </c>
       <c r="D13" t="n">
-        <v>66.51211643218342</v>
+        <v>518.4459618444147</v>
       </c>
       <c r="E13" t="n">
-        <v>66.51211643218342</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="F13" t="n">
-        <v>66.51211643218342</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G13" t="n">
-        <v>66.51211643218342</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H13" t="n">
         <v>66.51211643218342</v>
@@ -5226,25 +5226,25 @@
         <v>920.8870058181845</v>
       </c>
       <c r="S13" t="n">
-        <v>729.201121645011</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="T13" t="n">
-        <v>507.434506214537</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="U13" t="n">
-        <v>507.434506214537</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="V13" t="n">
-        <v>507.434506214537</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="W13" t="n">
-        <v>218.0173361775764</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="X13" t="n">
-        <v>66.51211643218342</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="Y13" t="n">
-        <v>66.51211643218342</v>
+        <v>700.0944266746544</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1308.370295943748</v>
+        <v>1590.514489367197</v>
       </c>
       <c r="C14" t="n">
-        <v>1308.370295943748</v>
+        <v>1221.551972426786</v>
       </c>
       <c r="D14" t="n">
-        <v>1308.370295943748</v>
+        <v>863.2862738200351</v>
       </c>
       <c r="E14" t="n">
-        <v>1190.154071768027</v>
+        <v>477.498021221791</v>
       </c>
       <c r="F14" t="n">
-        <v>779.1681669784198</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G14" t="n">
-        <v>364.0957168234162</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H14" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R14" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S14" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T14" t="n">
-        <v>3009.337405520489</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U14" t="n">
-        <v>2755.806928794325</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="V14" t="n">
-        <v>2424.744041450754</v>
+        <v>2788.565186649822</v>
       </c>
       <c r="W14" t="n">
-        <v>2071.97538618064</v>
+        <v>2435.796531379708</v>
       </c>
       <c r="X14" t="n">
-        <v>1698.50962791956</v>
+        <v>2062.330773118628</v>
       </c>
       <c r="Y14" t="n">
-        <v>1308.370295943748</v>
+        <v>1977.114329431319</v>
       </c>
     </row>
     <row r="15">
@@ -5333,37 +5333,37 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G15" t="n">
-        <v>176.0213023927777</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064433</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
@@ -5375,31 +5375,31 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q15" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R15" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S15" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T15" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V15" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W15" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y15" t="n">
         <v>1109.759191501176</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>361.3151575124869</v>
+        <v>120.6003534763935</v>
       </c>
       <c r="C16" t="n">
-        <v>361.3151575124869</v>
+        <v>120.6003534763935</v>
       </c>
       <c r="D16" t="n">
-        <v>361.3151575124869</v>
+        <v>120.6003534763935</v>
       </c>
       <c r="E16" t="n">
-        <v>213.4020639300938</v>
+        <v>120.6003534763935</v>
       </c>
       <c r="F16" t="n">
-        <v>66.51211643218343</v>
+        <v>120.6003534763935</v>
       </c>
       <c r="G16" t="n">
-        <v>66.51211643218343</v>
+        <v>120.6003534763935</v>
       </c>
       <c r="H16" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J16" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962284</v>
       </c>
       <c r="K16" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L16" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596504</v>
       </c>
       <c r="M16" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588481</v>
       </c>
       <c r="N16" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886956</v>
       </c>
       <c r="O16" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P16" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q16" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R16" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="S16" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="T16" t="n">
-        <v>699.120390387711</v>
+        <v>699.1203903877106</v>
       </c>
       <c r="U16" t="n">
-        <v>699.120390387711</v>
+        <v>410.0175235133541</v>
       </c>
       <c r="V16" t="n">
-        <v>699.120390387711</v>
+        <v>410.0175235133541</v>
       </c>
       <c r="W16" t="n">
-        <v>409.7032203507504</v>
+        <v>120.6003534763935</v>
       </c>
       <c r="X16" t="n">
-        <v>409.7032203507504</v>
+        <v>120.6003534763935</v>
       </c>
       <c r="Y16" t="n">
-        <v>361.3151575124869</v>
+        <v>120.6003534763935</v>
       </c>
     </row>
     <row r="17">
@@ -5491,28 +5491,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1311.909787855437</v>
+        <v>1619.798686923957</v>
       </c>
       <c r="C17" t="n">
-        <v>942.9472709150252</v>
+        <v>1250.836169983545</v>
       </c>
       <c r="D17" t="n">
-        <v>584.6815723082748</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="E17" t="n">
-        <v>584.6815723082748</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F17" t="n">
-        <v>173.6956675186672</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G17" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H17" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I17" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J17" t="n">
         <v>255.3912473912088</v>
@@ -5533,34 +5533,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q17" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R17" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S17" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T17" t="n">
-        <v>3009.337405520487</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U17" t="n">
-        <v>2755.806928794324</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="V17" t="n">
-        <v>2424.744041450753</v>
+        <v>2741.012457539436</v>
       </c>
       <c r="W17" t="n">
-        <v>2071.975386180638</v>
+        <v>2741.012457539436</v>
       </c>
       <c r="X17" t="n">
-        <v>1698.509627919559</v>
+        <v>2367.546699278356</v>
       </c>
       <c r="Y17" t="n">
-        <v>1698.509627919559</v>
+        <v>2006.398526988078</v>
       </c>
     </row>
     <row r="18">
@@ -5570,64 +5570,64 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D18" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F18" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G18" t="n">
-        <v>176.0213023927786</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064628</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I18" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J18" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M18" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N18" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O18" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P18" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q18" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R18" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S18" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T18" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U18" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V18" t="n">
         <v>1779.608347199865</v>
@@ -5636,10 +5636,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X18" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y18" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="19">
@@ -5649,34 +5649,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>216.6287558445191</v>
+        <v>700.1577228956174</v>
       </c>
       <c r="C19" t="n">
-        <v>216.6287558445191</v>
+        <v>531.2215399677106</v>
       </c>
       <c r="D19" t="n">
-        <v>66.5121164321834</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="E19" t="n">
-        <v>66.5121164321834</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F19" t="n">
-        <v>66.5121164321834</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G19" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H19" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I19" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J19" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K19" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L19" t="n">
         <v>332.3555681596505</v>
@@ -5706,19 +5706,19 @@
         <v>920.8870058181849</v>
       </c>
       <c r="U19" t="n">
-        <v>631.7841389438285</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V19" t="n">
-        <v>631.7841389438285</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W19" t="n">
-        <v>342.3669689068678</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="X19" t="n">
-        <v>342.3669689068678</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="Y19" t="n">
-        <v>216.6287558445191</v>
+        <v>881.8061877258572</v>
       </c>
     </row>
     <row r="20">
@@ -5728,34 +5728,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1832.276849100055</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C20" t="n">
-        <v>1463.314332159643</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D20" t="n">
-        <v>1105.048633552893</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E20" t="n">
-        <v>1105.048633552893</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F20" t="n">
-        <v>694.0627287632853</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G20" t="n">
-        <v>278.9902786082818</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H20" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I20" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L20" t="n">
         <v>1040.244834329465</v>
@@ -5767,7 +5767,7 @@
         <v>2120.555556060172</v>
       </c>
       <c r="O20" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P20" t="n">
         <v>3018.302393296687</v>
@@ -5782,22 +5782,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T20" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U20" t="n">
-        <v>2961.784676410103</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V20" t="n">
-        <v>2961.784676410103</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W20" t="n">
-        <v>2609.016021139988</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X20" t="n">
-        <v>2609.016021139988</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="Y20" t="n">
-        <v>2218.876689164177</v>
+        <v>2071.97538618064</v>
       </c>
     </row>
     <row r="21">
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>66.51211643218343</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="C22" t="n">
-        <v>66.51211643218343</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="D22" t="n">
-        <v>66.51211643218343</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="E22" t="n">
-        <v>66.51211643218343</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F22" t="n">
-        <v>66.51211643218343</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G22" t="n">
         <v>66.51211643218343</v>
@@ -5943,19 +5943,19 @@
         <v>699.120390387711</v>
       </c>
       <c r="U22" t="n">
-        <v>410.0175235133546</v>
+        <v>699.120390387711</v>
       </c>
       <c r="V22" t="n">
-        <v>410.0175235133546</v>
+        <v>444.4359021818242</v>
       </c>
       <c r="W22" t="n">
-        <v>120.600353476394</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="X22" t="n">
-        <v>66.51211643218343</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="Y22" t="n">
-        <v>66.51211643218343</v>
+        <v>381.1049005553748</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1678.62132134232</v>
+        <v>1384.829779622646</v>
       </c>
       <c r="C23" t="n">
-        <v>1678.62132134232</v>
+        <v>1250.836169983545</v>
       </c>
       <c r="D23" t="n">
-        <v>1320.35562273557</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="E23" t="n">
-        <v>934.5673701373257</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F23" t="n">
-        <v>523.5814653477182</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G23" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H23" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I23" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J23" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K23" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L23" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M23" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N23" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O23" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P23" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q23" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R23" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S23" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T23" t="n">
-        <v>3325.60582160917</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="U23" t="n">
-        <v>3072.075344883006</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="V23" t="n">
-        <v>2741.012457539436</v>
+        <v>2535.034709923659</v>
       </c>
       <c r="W23" t="n">
-        <v>2388.243802269321</v>
+        <v>2535.034709923659</v>
       </c>
       <c r="X23" t="n">
-        <v>2014.778044008242</v>
+        <v>2161.568951662579</v>
       </c>
       <c r="Y23" t="n">
-        <v>1678.62132134232</v>
+        <v>1771.429619686768</v>
       </c>
     </row>
     <row r="24">
@@ -6044,43 +6044,43 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C24" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D24" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E24" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F24" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G24" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H24" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I24" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J24" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K24" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L24" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M24" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N24" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O24" t="n">
         <v>2096.912393410638</v>
@@ -6101,7 +6101,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U24" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V24" t="n">
         <v>1779.608347199865</v>
@@ -6110,10 +6110,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X24" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y24" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>66.5121164321834</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C25" t="n">
-        <v>66.5121164321834</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D25" t="n">
-        <v>66.5121164321834</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E25" t="n">
-        <v>66.5121164321834</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F25" t="n">
-        <v>66.5121164321834</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G25" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H25" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I25" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J25" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K25" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L25" t="n">
         <v>332.3555681596505</v>
       </c>
       <c r="M25" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N25" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O25" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P25" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q25" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R25" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S25" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T25" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="U25" t="n">
-        <v>631.7841389438285</v>
+        <v>920.887005818185</v>
       </c>
       <c r="V25" t="n">
-        <v>377.0996507379416</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="W25" t="n">
-        <v>87.68248070098099</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="X25" t="n">
-        <v>66.5121164321834</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="Y25" t="n">
-        <v>66.5121164321834</v>
+        <v>848.0708164780106</v>
       </c>
     </row>
     <row r="26">
@@ -6202,46 +6202,46 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1517.887535471216</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C26" t="n">
-        <v>1148.925018530804</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D26" t="n">
-        <v>790.659319924054</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E26" t="n">
-        <v>790.659319924054</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F26" t="n">
-        <v>481.5845665871869</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G26" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H26" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I26" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J26" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912083</v>
       </c>
       <c r="K26" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L26" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M26" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N26" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O26" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P26" t="n">
         <v>3018.302393296687</v>
@@ -6256,22 +6256,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T26" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U26" t="n">
-        <v>2961.784676410103</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V26" t="n">
-        <v>2630.721789066532</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W26" t="n">
-        <v>2277.953133796418</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X26" t="n">
-        <v>1904.487375535338</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="Y26" t="n">
-        <v>1904.487375535338</v>
+        <v>2071.97538618064</v>
       </c>
     </row>
     <row r="27">
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>848.0708164780106</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="C28" t="n">
-        <v>679.1346335501037</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="D28" t="n">
-        <v>529.0179941377679</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E28" t="n">
-        <v>381.1049005553748</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F28" t="n">
-        <v>234.2149530574645</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G28" t="n">
         <v>66.51211643218343</v>
@@ -6417,19 +6417,19 @@
         <v>920.887005818185</v>
       </c>
       <c r="U28" t="n">
-        <v>920.887005818185</v>
+        <v>631.7841389438286</v>
       </c>
       <c r="V28" t="n">
-        <v>920.887005818185</v>
+        <v>377.0996507379417</v>
       </c>
       <c r="W28" t="n">
-        <v>920.887005818185</v>
+        <v>87.6824807009811</v>
       </c>
       <c r="X28" t="n">
-        <v>920.887005818185</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="Y28" t="n">
-        <v>920.887005818185</v>
+        <v>66.51211643218343</v>
       </c>
     </row>
     <row r="29">
@@ -6439,34 +6439,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1647.321240915451</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C29" t="n">
-        <v>1278.358723975039</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D29" t="n">
-        <v>1278.358723975039</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E29" t="n">
-        <v>892.5704713767946</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F29" t="n">
-        <v>481.5845665871869</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G29" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H29" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I29" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J29" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K29" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L29" t="n">
         <v>1040.244834329464</v>
@@ -6487,28 +6487,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R29" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S29" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T29" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U29" t="n">
-        <v>3072.075344883007</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="V29" t="n">
-        <v>2776.829068225498</v>
+        <v>2678.274518176916</v>
       </c>
       <c r="W29" t="n">
-        <v>2424.060412955384</v>
+        <v>2325.505862906802</v>
       </c>
       <c r="X29" t="n">
-        <v>2424.060412955384</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="Y29" t="n">
-        <v>2033.921080979572</v>
+        <v>2047.583838282732</v>
       </c>
     </row>
     <row r="30">
@@ -6518,28 +6518,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C30" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D30" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E30" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F30" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G30" t="n">
-        <v>176.0213023927777</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H30" t="n">
         <v>85.51940803064545</v>
       </c>
       <c r="I30" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J30" t="n">
         <v>160.1893859228007</v>
@@ -6575,7 +6575,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U30" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V30" t="n">
         <v>1779.608347199865</v>
@@ -6584,10 +6584,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X30" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y30" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="31">
@@ -6597,34 +6597,34 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>553.2677753977071</v>
+        <v>739.2385409879452</v>
       </c>
       <c r="C31" t="n">
-        <v>384.3315924698002</v>
+        <v>570.3023580600383</v>
       </c>
       <c r="D31" t="n">
-        <v>234.2149530574645</v>
+        <v>420.1857186477025</v>
       </c>
       <c r="E31" t="n">
-        <v>234.2149530574645</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F31" t="n">
-        <v>234.2149530574645</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G31" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H31" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I31" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J31" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K31" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L31" t="n">
         <v>332.3555681596505</v>
@@ -6666,7 +6666,7 @@
         <v>920.8870058181849</v>
       </c>
       <c r="Y31" t="n">
-        <v>734.9162402279468</v>
+        <v>920.8870058181849</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1734.047335491681</v>
+        <v>1689.318139675982</v>
       </c>
       <c r="C32" t="n">
-        <v>1734.047335491681</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="D32" t="n">
-        <v>1375.781636884931</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E32" t="n">
-        <v>989.9933842866863</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F32" t="n">
-        <v>579.0074794970787</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G32" t="n">
-        <v>163.9350293420752</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H32" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I32" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J32" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912083</v>
       </c>
       <c r="K32" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L32" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M32" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N32" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O32" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P32" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q32" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R32" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S32" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T32" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U32" t="n">
-        <v>3215.315153136265</v>
+        <v>3072.075344883008</v>
       </c>
       <c r="V32" t="n">
-        <v>2884.252265792694</v>
+        <v>2839.523069976995</v>
       </c>
       <c r="W32" t="n">
-        <v>2884.252265792694</v>
+        <v>2839.523069976995</v>
       </c>
       <c r="X32" t="n">
-        <v>2510.786507531614</v>
+        <v>2466.057311715915</v>
       </c>
       <c r="Y32" t="n">
-        <v>2120.647175555803</v>
+        <v>2075.917979740103</v>
       </c>
     </row>
     <row r="33">
@@ -6770,16 +6770,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G33" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H33" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I33" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J33" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K33" t="n">
         <v>398.4535849031479</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>229.0287918074544</v>
+        <v>342.366968906868</v>
       </c>
       <c r="C34" t="n">
-        <v>229.0287918074544</v>
+        <v>342.366968906868</v>
       </c>
       <c r="D34" t="n">
-        <v>229.0287918074544</v>
+        <v>192.2503294945322</v>
       </c>
       <c r="E34" t="n">
-        <v>229.0287918074544</v>
+        <v>192.2503294945322</v>
       </c>
       <c r="F34" t="n">
-        <v>229.0287918074544</v>
+        <v>192.2503294945322</v>
       </c>
       <c r="G34" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H34" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I34" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J34" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K34" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L34" t="n">
         <v>332.3555681596505</v>
       </c>
       <c r="M34" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N34" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O34" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P34" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q34" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R34" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S34" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T34" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="U34" t="n">
-        <v>920.8870058181849</v>
+        <v>631.7841389438286</v>
       </c>
       <c r="V34" t="n">
-        <v>920.8870058181849</v>
+        <v>631.7841389438286</v>
       </c>
       <c r="W34" t="n">
-        <v>631.4698357812242</v>
+        <v>342.366968906868</v>
       </c>
       <c r="X34" t="n">
-        <v>631.4698357812242</v>
+        <v>342.366968906868</v>
       </c>
       <c r="Y34" t="n">
-        <v>410.6772566376941</v>
+        <v>342.366968906868</v>
       </c>
     </row>
     <row r="35">
@@ -6913,49 +6913,49 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1626.299101484276</v>
+        <v>1811.579746109088</v>
       </c>
       <c r="C35" t="n">
-        <v>1626.299101484276</v>
+        <v>1811.579746109088</v>
       </c>
       <c r="D35" t="n">
-        <v>1268.033402877525</v>
+        <v>1453.314047502338</v>
       </c>
       <c r="E35" t="n">
-        <v>882.245150279281</v>
+        <v>1067.525794904093</v>
       </c>
       <c r="F35" t="n">
-        <v>821.1650657389509</v>
+        <v>656.5398901144858</v>
       </c>
       <c r="G35" t="n">
-        <v>406.0926155839475</v>
+        <v>241.4674399594823</v>
       </c>
       <c r="H35" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I35" t="n">
         <v>66.5121164321834</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810543</v>
       </c>
       <c r="L35" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M35" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O35" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q35" t="n">
         <v>3266.588755052368</v>
@@ -6967,22 +6967,22 @@
         <v>3215.315153136265</v>
       </c>
       <c r="T35" t="n">
-        <v>3009.337405520487</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U35" t="n">
-        <v>2755.806928794324</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="V35" t="n">
-        <v>2755.806928794324</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="W35" t="n">
-        <v>2403.038273524209</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="X35" t="n">
-        <v>2403.038273524209</v>
+        <v>2588.318918149022</v>
       </c>
       <c r="Y35" t="n">
-        <v>2012.898941548397</v>
+        <v>2198.17958617321</v>
       </c>
     </row>
     <row r="36">
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>66.5121164321834</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="C37" t="n">
-        <v>66.5121164321834</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="D37" t="n">
-        <v>66.5121164321834</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="E37" t="n">
-        <v>66.5121164321834</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F37" t="n">
-        <v>66.5121164321834</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G37" t="n">
         <v>66.5121164321834</v>
@@ -7125,22 +7125,22 @@
         <v>920.8870058181849</v>
       </c>
       <c r="T37" t="n">
-        <v>699.1203903877109</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U37" t="n">
-        <v>410.0175235133545</v>
+        <v>631.7841389438285</v>
       </c>
       <c r="V37" t="n">
-        <v>410.0175235133545</v>
+        <v>631.7841389438285</v>
       </c>
       <c r="W37" t="n">
-        <v>120.6003534763939</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="X37" t="n">
-        <v>66.5121164321834</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="Y37" t="n">
-        <v>66.5121164321834</v>
+        <v>381.1049005553748</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1381.278680221568</v>
+        <v>1381.278680221567</v>
       </c>
       <c r="C38" t="n">
-        <v>1012.316163281156</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="D38" t="n">
-        <v>654.0504646744059</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E38" t="n">
-        <v>477.498021221791</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F38" t="n">
-        <v>66.51211643218343</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G38" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H38" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I38" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L38" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M38" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N38" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O38" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P38" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q38" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R38" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S38" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T38" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U38" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="V38" t="n">
-        <v>2884.252265792696</v>
+        <v>2884.252265792694</v>
       </c>
       <c r="W38" t="n">
-        <v>2531.483610522581</v>
+        <v>2531.48361052258</v>
       </c>
       <c r="X38" t="n">
-        <v>2158.017852261502</v>
+        <v>2158.0178522615</v>
       </c>
       <c r="Y38" t="n">
-        <v>1767.87852028569</v>
+        <v>1767.878520285688</v>
       </c>
     </row>
     <row r="39">
@@ -7244,16 +7244,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G39" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I39" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J39" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K39" t="n">
         <v>398.4535849031479</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>403.7945880458112</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="C40" t="n">
-        <v>403.7945880458112</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="D40" t="n">
-        <v>253.6779486334755</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="E40" t="n">
-        <v>234.2149530574645</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F40" t="n">
-        <v>234.2149530574645</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G40" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H40" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I40" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J40" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K40" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L40" t="n">
         <v>332.3555681596505</v>
       </c>
       <c r="M40" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N40" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O40" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P40" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q40" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R40" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S40" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T40" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U40" t="n">
-        <v>631.7841389438286</v>
+        <v>631.7841389438285</v>
       </c>
       <c r="V40" t="n">
-        <v>631.7841389438286</v>
+        <v>377.0996507379416</v>
       </c>
       <c r="W40" t="n">
-        <v>631.7841389438286</v>
+        <v>87.68248070098099</v>
       </c>
       <c r="X40" t="n">
-        <v>403.7945880458112</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="Y40" t="n">
-        <v>403.7945880458112</v>
+        <v>66.5121164321834</v>
       </c>
     </row>
     <row r="41">
@@ -7387,34 +7387,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1678.62132134232</v>
+        <v>2303.170539913434</v>
       </c>
       <c r="C41" t="n">
-        <v>1678.62132134232</v>
+        <v>1934.208022973022</v>
       </c>
       <c r="D41" t="n">
-        <v>1320.35562273557</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="E41" t="n">
-        <v>934.5673701373257</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F41" t="n">
-        <v>523.5814653477182</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G41" t="n">
-        <v>108.5090151927147</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H41" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I41" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L41" t="n">
         <v>1040.244834329464</v>
@@ -7444,19 +7444,19 @@
         <v>3119.628073993393</v>
       </c>
       <c r="U41" t="n">
-        <v>3119.628073993393</v>
+        <v>3066.775630150325</v>
       </c>
       <c r="V41" t="n">
-        <v>3119.628073993393</v>
+        <v>3066.775630150325</v>
       </c>
       <c r="W41" t="n">
-        <v>2828.826251643334</v>
+        <v>3066.775630150325</v>
       </c>
       <c r="X41" t="n">
-        <v>2455.360493382254</v>
+        <v>2693.309871889246</v>
       </c>
       <c r="Y41" t="n">
-        <v>2065.221161406442</v>
+        <v>2303.170539913434</v>
       </c>
     </row>
     <row r="42">
@@ -7466,19 +7466,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C42" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D42" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E42" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F42" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G42" t="n">
         <v>176.0213023927779</v>
@@ -7487,7 +7487,7 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I42" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J42" t="n">
         <v>160.1893859228007</v>
@@ -7496,16 +7496,16 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L42" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M42" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N42" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O42" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P42" t="n">
         <v>2407.411984886741</v>
@@ -7523,7 +7523,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U42" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V42" t="n">
         <v>1779.608347199865</v>
@@ -7532,10 +7532,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X42" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y42" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="43">
@@ -7545,10 +7545,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>235.4482993600903</v>
+        <v>216.6287558445192</v>
       </c>
       <c r="C43" t="n">
-        <v>66.51211643218342</v>
+        <v>216.6287558445192</v>
       </c>
       <c r="D43" t="n">
         <v>66.51211643218342</v>
@@ -7599,22 +7599,22 @@
         <v>920.8870058181849</v>
       </c>
       <c r="T43" t="n">
-        <v>745.3437453779769</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="U43" t="n">
-        <v>456.2408785036205</v>
+        <v>410.0175235133545</v>
       </c>
       <c r="V43" t="n">
-        <v>456.2408785036205</v>
+        <v>216.6287558445192</v>
       </c>
       <c r="W43" t="n">
-        <v>456.2408785036205</v>
+        <v>216.6287558445192</v>
       </c>
       <c r="X43" t="n">
-        <v>456.2408785036205</v>
+        <v>216.6287558445192</v>
       </c>
       <c r="Y43" t="n">
-        <v>235.4482993600903</v>
+        <v>216.6287558445192</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2175.400891308156</v>
+        <v>1632.511388127729</v>
       </c>
       <c r="C44" t="n">
-        <v>1806.438374367744</v>
+        <v>1263.548871187317</v>
       </c>
       <c r="D44" t="n">
-        <v>1575.942324366272</v>
+        <v>905.2831725805665</v>
       </c>
       <c r="E44" t="n">
-        <v>1190.154071768027</v>
+        <v>519.4949199823222</v>
       </c>
       <c r="F44" t="n">
-        <v>779.1681669784198</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="G44" t="n">
-        <v>364.0957168234162</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H44" t="n">
-        <v>66.51211643218339</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I44" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L44" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M44" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O44" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q44" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R44" t="n">
-        <v>3325.605821609169</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S44" t="n">
-        <v>3325.605821609169</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T44" t="n">
-        <v>3325.605821609169</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U44" t="n">
-        <v>3325.605821609169</v>
+        <v>3076.408529066615</v>
       </c>
       <c r="V44" t="n">
-        <v>3325.605821609169</v>
+        <v>2745.345641723045</v>
       </c>
       <c r="W44" t="n">
-        <v>3325.605821609169</v>
+        <v>2392.57698645293</v>
       </c>
       <c r="X44" t="n">
-        <v>2952.140063348089</v>
+        <v>2019.11122819185</v>
       </c>
       <c r="Y44" t="n">
-        <v>2562.000731372278</v>
+        <v>2019.11122819185</v>
       </c>
     </row>
     <row r="45">
@@ -7703,37 +7703,37 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C45" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D45" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E45" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F45" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G45" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I45" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J45" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K45" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L45" t="n">
-        <v>765.1517452158128</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M45" t="n">
         <v>1212.428070438129</v>
@@ -7742,7 +7742,7 @@
         <v>1685.951113992583</v>
       </c>
       <c r="O45" t="n">
-        <v>2096.912393410637</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P45" t="n">
         <v>2407.411984886741</v>
@@ -7760,7 +7760,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U45" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V45" t="n">
         <v>1779.608347199865</v>
@@ -7769,10 +7769,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X45" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y45" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>66.51211643218339</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="C46" t="n">
-        <v>66.51211643218339</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="D46" t="n">
-        <v>66.51211643218339</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="E46" t="n">
-        <v>66.51211643218339</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F46" t="n">
-        <v>66.51211643218339</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G46" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H46" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I46" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J46" t="n">
-        <v>78.33486996962279</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K46" t="n">
-        <v>176.6457242372931</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L46" t="n">
-        <v>332.3555681596503</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M46" t="n">
-        <v>499.7880494588479</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N46" t="n">
-        <v>671.0968864886953</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O46" t="n">
-        <v>809.0152357068849</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P46" t="n">
-        <v>907.9662384596435</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q46" t="n">
-        <v>920.8870058181842</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R46" t="n">
-        <v>920.8870058181842</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S46" t="n">
-        <v>729.2011216450105</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T46" t="n">
-        <v>507.4345062145366</v>
+        <v>699.120390387711</v>
       </c>
       <c r="U46" t="n">
-        <v>507.4345062145366</v>
+        <v>699.120390387711</v>
       </c>
       <c r="V46" t="n">
-        <v>507.4345062145366</v>
+        <v>444.4359021818242</v>
       </c>
       <c r="W46" t="n">
-        <v>507.4345062145366</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="X46" t="n">
-        <v>279.4449553165192</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="Y46" t="n">
-        <v>66.51211643218339</v>
+        <v>381.1049005553748</v>
       </c>
     </row>
   </sheetData>
@@ -22555,19 +22555,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>216.7578328961671</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>219.3504585753915</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>225.5722460637381</v>
+        <v>413.097833230058</v>
       </c>
       <c r="H2" t="n">
-        <v>129.3682389399024</v>
+        <v>316.8938261062223</v>
       </c>
       <c r="I2" t="n">
-        <v>125.4713171199747</v>
+        <v>125.4713171199748</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22594,25 +22594,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>77.08171901666378</v>
+        <v>77.0817190166639</v>
       </c>
       <c r="S2" t="n">
-        <v>158.7758131900531</v>
+        <v>158.7758131900532</v>
       </c>
       <c r="T2" t="n">
         <v>213.4438810562068</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1692605650303</v>
+        <v>85.99672338893592</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>140.2266713038152</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>161.7153815510933</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>182.2055135121493</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -22646,10 +22646,10 @@
         <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
-        <v>58.90455890409149</v>
+        <v>58.90455890409152</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265839</v>
+        <v>15.37922103265846</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22673,28 +22673,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>72.4328956284632</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
-        <v>195.4095977920013</v>
+        <v>7.884010625681526</v>
       </c>
       <c r="U3" t="n">
-        <v>38.33818124377098</v>
+        <v>225.8637684100909</v>
       </c>
       <c r="V3" t="n">
-        <v>45.27499998310532</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>86.52244598482508</v>
+        <v>64.16939599459988</v>
       </c>
       <c r="X3" t="n">
-        <v>18.24739803715752</v>
+        <v>18.24739803715775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>112.9430542296733</v>
       </c>
     </row>
     <row r="4">
@@ -22710,7 +22710,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>96.39952676377793</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -22728,10 +22728,10 @@
         <v>125.7072197708667</v>
       </c>
       <c r="J4" t="n">
-        <v>57.06999962825418</v>
+        <v>57.06999962825422</v>
       </c>
       <c r="K4" t="n">
-        <v>14.10430989402852</v>
+        <v>14.10430989402859</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22746,16 +22746,16 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>18.10760906709386</v>
+        <v>18.10760906709393</v>
       </c>
       <c r="Q4" t="n">
-        <v>68.68604055159726</v>
+        <v>68.6860405515973</v>
       </c>
       <c r="R4" t="n">
         <v>132.8223696106904</v>
       </c>
       <c r="S4" t="n">
-        <v>206.7802557954962</v>
+        <v>154.5643095410622</v>
       </c>
       <c r="T4" t="n">
         <v>223.7196734901001</v>
@@ -22786,19 +22786,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>177.7473046046876</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>189.5105044445884</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>219.3504585753916</v>
       </c>
       <c r="G5" t="n">
-        <v>225.5722460637381</v>
+        <v>225.5722460637382</v>
       </c>
       <c r="H5" t="n">
         <v>316.8938261062223</v>
@@ -22837,16 +22837,16 @@
         <v>158.7758131900531</v>
       </c>
       <c r="T5" t="n">
-        <v>213.4438810562068</v>
+        <v>48.27134388011225</v>
       </c>
       <c r="U5" t="n">
         <v>251.1692605650303</v>
       </c>
       <c r="V5" t="n">
-        <v>140.226671303815</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>161.7153815510931</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -22865,7 +22865,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>22.91518284487961</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
@@ -22919,19 +22919,19 @@
         <v>195.4095977920013</v>
       </c>
       <c r="U6" t="n">
-        <v>38.33818124377098</v>
+        <v>225.8637684100909</v>
       </c>
       <c r="V6" t="n">
-        <v>45.27499998310532</v>
+        <v>83.0072710059892</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>64.16939599459974</v>
       </c>
       <c r="X6" t="n">
-        <v>18.24739803715752</v>
+        <v>18.24739803715761</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>18.15710861098449</v>
       </c>
     </row>
     <row r="7">
@@ -22992,7 +22992,7 @@
         <v>132.8223696106904</v>
       </c>
       <c r="S7" t="n">
-        <v>206.7802557954962</v>
+        <v>154.5643095410618</v>
       </c>
       <c r="T7" t="n">
         <v>223.7196734901001</v>
@@ -23004,7 +23004,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>234.3070520821566</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -23023,25 +23023,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>266.5922234612523</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>194.4047829059419</v>
       </c>
       <c r="F8" t="n">
-        <v>364.5418420598041</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>411.8707348436268</v>
+        <v>225.5722460637382</v>
       </c>
       <c r="H8" t="n">
-        <v>304.326804756183</v>
+        <v>316.8938261062223</v>
       </c>
       <c r="I8" t="n">
-        <v>78.16360657708299</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23071,25 +23071,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>130.8133087092504</v>
+        <v>158.7758131900531</v>
       </c>
       <c r="T8" t="n">
-        <v>208.0722578696039</v>
+        <v>213.4438810562068</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>63.64367339871046</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -23102,28 +23102,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>135.5072338470353</v>
+        <v>136.1637893657753</v>
       </c>
       <c r="H9" t="n">
-        <v>94.50081326185514</v>
+        <v>100.8417573507397</v>
       </c>
       <c r="I9" t="n">
-        <v>36.29946757904885</v>
+        <v>58.90455890409149</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>15.37922103265839</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23147,28 +23147,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>31.66886087721431</v>
+        <v>72.4328956284632</v>
       </c>
       <c r="S9" t="n">
-        <v>137.5750138932992</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T9" t="n">
-        <v>192.7632183107638</v>
+        <v>195.4095977920013</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>38.33818124377106</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>45.2749999831054</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>64.16939599459974</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>40.60044802738281</v>
       </c>
       <c r="Y9" t="n">
-        <v>39.01041037349486</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -23178,7 +23178,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>168.0933916795646</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -23190,22 +23190,22 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.0019352027142</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>153.4336708318196</v>
       </c>
       <c r="I10" t="n">
-        <v>109.1541654470835</v>
+        <v>125.7072197708667</v>
       </c>
       <c r="J10" t="n">
-        <v>18.15430933923925</v>
+        <v>57.06999962825418</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>14.10430989402852</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23220,25 +23220,25 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>18.10760906709386</v>
       </c>
       <c r="Q10" t="n">
-        <v>22.59469128425553</v>
+        <v>68.68604055159726</v>
       </c>
       <c r="R10" t="n">
-        <v>108.0728512656386</v>
+        <v>132.8223696106904</v>
       </c>
       <c r="S10" t="n">
-        <v>197.1876907596159</v>
+        <v>206.7802557954962</v>
       </c>
       <c r="T10" t="n">
-        <v>221.3678187343026</v>
+        <v>223.7196734901001</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2350578157167</v>
+        <v>286.2650814934503</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>199.9216970693936</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -23257,10 +23257,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>145.9927856228085</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23269,10 +23269,10 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>304.0065384866153</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
         <v>294.6077643873205</v>
@@ -23308,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23326,7 +23326,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23351,10 +23351,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.108446667785756e-12</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23424,16 +23424,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>9.800278861809204</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>96.35242040983812</v>
@@ -23466,10 +23466,10 @@
         <v>88.93215267004734</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
         <v>286.2118382056129</v>
@@ -23478,13 +23478,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>75.7194878410981</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23494,28 +23494,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>264.896308138298</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,13 +23545,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23563,7 +23563,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>301.8736594056179</v>
       </c>
     </row>
     <row r="15">
@@ -23594,7 +23594,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.147526518252562e-12</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23661,19 +23661,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>91.20766024055277</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S16" t="n">
         <v>189.7690253314419</v>
@@ -23709,7 +23709,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -23721,7 +23721,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>170.6804711422139</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23746,7 +23746,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>304.8100100778345</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>294.6077643873205</v>
@@ -23782,10 +23782,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -23794,13 +23794,13 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>28.70124808867848</v>
       </c>
     </row>
     <row r="18">
@@ -23889,10 +23889,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23901,10 +23901,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>144.7550149143208</v>
@@ -23946,19 +23946,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>94.10382242036958</v>
+        <v>179.8946434406903</v>
       </c>
     </row>
     <row r="20">
@@ -23968,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>358.586209244552</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -23977,7 +23977,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -23986,10 +23986,10 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>84.25438383298308</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24022,13 +24022,13 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -24037,7 +24037,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24138,10 +24138,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>144.7550149143208</v>
@@ -24183,16 +24183,16 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>223.8253067264061</v>
       </c>
       <c r="X22" t="n">
-        <v>172.1623007152687</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24205,16 +24205,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>232.6192182282977</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -24226,7 +24226,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24259,7 +24259,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -24268,13 +24268,13 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>53.44278321679178</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24366,19 +24366,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>144.7550149143208</v>
@@ -24420,16 +24420,16 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>180.0496158770553</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>204.7509947629275</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24442,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>358.586209244552</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -24451,10 +24451,10 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>100.8920399382131</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -24463,7 +24463,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24496,7 +24496,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -24508,7 +24508,7 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -24600,22 +24600,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>107.7439527351646</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
         <v>144.7550149143208</v>
@@ -24657,16 +24657,16 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>204.7509947629275</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24679,13 +24679,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -24700,7 +24700,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24730,25 +24730,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V29" t="n">
-        <v>35.4584445792014</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>94.58829630063974</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24846,10 +24846,10 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>107.7439527351647</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>34.47359541775907</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -24919,10 +24919,10 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -24934,7 +24934,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>239.7360103794535</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24967,16 +24967,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U32" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>97.52550631318223</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -25074,13 +25074,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25089,7 +25089,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>5.134299637509969</v>
+        <v>41.54497732730293</v>
       </c>
       <c r="H34" t="n">
         <v>144.7550149143208</v>
@@ -25131,7 +25131,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -25143,7 +25143,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25165,16 +25165,16 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>346.4067620467847</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>121.4019940952946</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25207,7 +25207,7 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -25216,10 +25216,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -25323,10 +25323,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>144.7550149143208</v>
@@ -25365,7 +25365,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25374,10 +25374,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>38.35055233202189</v>
       </c>
       <c r="X37" t="n">
-        <v>172.1623007152688</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25393,25 +25393,25 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>304.9590648598709</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>207.143451054173</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25554,16 +25554,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>127.1655970263183</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
         <v>144.7550149143208</v>
@@ -25608,13 +25608,13 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>204.7509947629275</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25627,10 +25627,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -25645,10 +25645,10 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25684,13 +25684,13 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>250.995171958902</v>
+        <v>198.6712525542654</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>61.34716459085467</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25788,10 +25788,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25839,13 +25839,13 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>45.76112144036333</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>60.68276333168103</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -25854,7 +25854,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -25870,7 +25870,7 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>126.4919521192253</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25879,13 +25879,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292601</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,25 +25915,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>109.1877617881759</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U44" t="n">
-        <v>250.995171958902</v>
+        <v>113.4776141299474</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -26034,16 +26034,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004737</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26082,16 +26082,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>223.8253067264061</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>7.781142856602344</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>424931.0936061952</v>
+        <v>424931.0936061951</v>
       </c>
     </row>
     <row r="3">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>658545.8706526515</v>
+        <v>424931.0936061951</v>
       </c>
     </row>
     <row r="5">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>839054.4922903116</v>
+        <v>839054.4922903114</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>839054.4922903115</v>
+        <v>839054.4922903116</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>839054.4922903116</v>
+        <v>839054.4922903117</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>839054.4922903114</v>
+        <v>839054.4922903116</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>839054.4922903116</v>
+        <v>839054.4922903117</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>839054.4922903115</v>
+        <v>839054.4922903116</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>839054.4922903115</v>
+        <v>839054.4922903116</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>839054.4922903117</v>
+        <v>839054.4922903115</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>839054.4922903116</v>
+        <v>839054.4922903115</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>839054.4922903115</v>
+        <v>839054.4922903116</v>
       </c>
     </row>
   </sheetData>
@@ -26319,43 +26319,43 @@
         <v>158307.6623238765</v>
       </c>
       <c r="D2" t="n">
-        <v>245340.6184784386</v>
+        <v>158307.6623238765</v>
       </c>
       <c r="E2" t="n">
-        <v>312588.9285003118</v>
+        <v>312588.9285003117</v>
       </c>
       <c r="F2" t="n">
-        <v>312588.9285003119</v>
+        <v>312588.9285003117</v>
       </c>
       <c r="G2" t="n">
-        <v>312588.9285003117</v>
+        <v>312588.928500312</v>
       </c>
       <c r="H2" t="n">
         <v>312588.9285003118</v>
       </c>
       <c r="I2" t="n">
-        <v>312588.9285003117</v>
+        <v>312588.9285003118</v>
       </c>
       <c r="J2" t="n">
-        <v>312588.9285003119</v>
+        <v>312588.9285003118</v>
       </c>
       <c r="K2" t="n">
-        <v>312588.9285003119</v>
+        <v>312588.9285003118</v>
       </c>
       <c r="L2" t="n">
         <v>312588.9285003119</v>
       </c>
       <c r="M2" t="n">
+        <v>312588.9285003119</v>
+      </c>
+      <c r="N2" t="n">
+        <v>312588.9285003118</v>
+      </c>
+      <c r="O2" t="n">
         <v>312588.9285003116</v>
       </c>
-      <c r="N2" t="n">
-        <v>312588.9285003117</v>
-      </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>312588.9285003118</v>
-      </c>
-      <c r="P2" t="n">
-        <v>312588.9285003116</v>
       </c>
     </row>
     <row r="3">
@@ -26365,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>591356.9025208454</v>
+        <v>591356.9025208451</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>3.10570385408937e-10</v>
       </c>
       <c r="D3" t="n">
-        <v>371558.524948766</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>276030.7457669098</v>
+        <v>627134.6436336675</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854471</v>
+        <v>49064.94472854456</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>89743.37813127026</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>72091.35261608617</v>
+        <v>160456.4418678773</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,25 +26417,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>137.800118072334</v>
+        <v>137.8001180723338</v>
       </c>
       <c r="C4" t="n">
         <v>137.800118072334</v>
       </c>
       <c r="D4" t="n">
-        <v>384.3219252469136</v>
+        <v>137.800118072334</v>
       </c>
       <c r="E4" t="n">
         <v>584.646989006123</v>
       </c>
       <c r="F4" t="n">
-        <v>584.6469890061231</v>
+        <v>584.646989006123</v>
       </c>
       <c r="G4" t="n">
         <v>584.6469890061231</v>
       </c>
       <c r="H4" t="n">
-        <v>584.6469890061231</v>
+        <v>584.6469890061232</v>
       </c>
       <c r="I4" t="n">
         <v>584.6469890061231</v>
@@ -26450,16 +26450,16 @@
         <v>584.6469890061231</v>
       </c>
       <c r="M4" t="n">
+        <v>584.646989006123</v>
+      </c>
+      <c r="N4" t="n">
         <v>584.6469890061231</v>
       </c>
-      <c r="N4" t="n">
-        <v>584.6469890061232</v>
-      </c>
       <c r="O4" t="n">
-        <v>584.6469890061232</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="P4" t="n">
-        <v>584.6469890061228</v>
+        <v>584.6469890061231</v>
       </c>
     </row>
     <row r="5">
@@ -26469,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56985.80041161358</v>
+        <v>56985.80041161355</v>
       </c>
       <c r="C5" t="n">
-        <v>56985.80041161358</v>
+        <v>56985.80041161357</v>
       </c>
       <c r="D5" t="n">
-        <v>85199.08185587224</v>
+        <v>56985.80041161357</v>
       </c>
       <c r="E5" t="n">
         <v>74306.3405613933</v>
@@ -26484,34 +26484,34 @@
         <v>74306.3405613933</v>
       </c>
       <c r="G5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="H5" t="n">
         <v>74306.3405613933</v>
       </c>
       <c r="I5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="J5" t="n">
         <v>74306.3405613933</v>
       </c>
       <c r="K5" t="n">
+        <v>74306.34056139328</v>
+      </c>
+      <c r="L5" t="n">
         <v>74306.3405613933</v>
-      </c>
-      <c r="L5" t="n">
-        <v>74306.34056139328</v>
       </c>
       <c r="M5" t="n">
         <v>74306.34056139328</v>
       </c>
       <c r="N5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="O5" t="n">
         <v>74306.3405613933</v>
       </c>
       <c r="P5" t="n">
-        <v>74306.34056139327</v>
+        <v>74306.3405613933</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-502366.9027456894</v>
+        <v>-491392.2469285579</v>
       </c>
       <c r="C6" t="n">
-        <v>88989.99977515594</v>
+        <v>99964.65559228686</v>
       </c>
       <c r="D6" t="n">
-        <v>-219414.6903676095</v>
+        <v>99964.65559228709</v>
       </c>
       <c r="E6" t="n">
-        <v>-42406.80019516703</v>
+        <v>-389844.1022215721</v>
       </c>
       <c r="F6" t="n">
-        <v>233623.9455717427</v>
+        <v>237290.5414120953</v>
       </c>
       <c r="G6" t="n">
-        <v>233623.9455717426</v>
+        <v>237290.5414120954</v>
       </c>
       <c r="H6" t="n">
-        <v>233623.9455717427</v>
+        <v>237290.5414120954</v>
       </c>
       <c r="I6" t="n">
-        <v>233623.9455717426</v>
+        <v>237290.5414120954</v>
       </c>
       <c r="J6" t="n">
-        <v>184559.0008431981</v>
+        <v>188225.5966835508</v>
       </c>
       <c r="K6" t="n">
-        <v>233623.9455717428</v>
+        <v>237290.5414120954</v>
       </c>
       <c r="L6" t="n">
-        <v>143880.5674404726</v>
+        <v>237290.5414120955</v>
       </c>
       <c r="M6" t="n">
-        <v>161532.5929556564</v>
+        <v>76834.0995442182</v>
       </c>
       <c r="N6" t="n">
-        <v>233623.9455717426</v>
+        <v>237290.5414120954</v>
       </c>
       <c r="O6" t="n">
-        <v>233623.9455717427</v>
+        <v>237290.5414120952</v>
       </c>
       <c r="P6" t="n">
-        <v>233623.9455717429</v>
+        <v>237290.5414120954</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129046</v>
+        <v>548.4699409129042</v>
       </c>
       <c r="C3" t="n">
         <v>548.4699409129046</v>
       </c>
       <c r="D3" t="n">
-        <v>853.7106645376841</v>
+        <v>548.4699409129046</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26789,49 +26789,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663197</v>
       </c>
       <c r="C4" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="D4" t="n">
-        <v>542.1149567261632</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="E4" t="n">
         <v>831.4014554022926</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="G4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="H4" t="n">
         <v>831.4014554022929</v>
       </c>
       <c r="I4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="J4" t="n">
         <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="L4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="M4" t="n">
         <v>831.4014554022925</v>
       </c>
       <c r="N4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="O4" t="n">
         <v>831.4014554022926</v>
       </c>
       <c r="P4" t="n">
-        <v>831.4014554022923</v>
+        <v>831.4014554022929</v>
       </c>
     </row>
   </sheetData>
@@ -26959,22 +26959,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129046</v>
+        <v>548.4699409129042</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="D3" t="n">
-        <v>305.2407236247795</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>236.0660360556139</v>
+        <v>541.3067596803935</v>
       </c>
       <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663197</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>354.5893695598432</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>289.2864986761294</v>
+        <v>643.8758682359728</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663203</v>
+        <v>187.5255871663197</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>354.5893695598431</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>289.2864986761294</v>
+        <v>643.8758682359725</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663197</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>354.5893695598432</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>289.2864986761294</v>
+        <v>643.8758682359728</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.204904285077002</v>
+        <v>2.204904285077</v>
       </c>
       <c r="H2" t="n">
-        <v>22.58097600954485</v>
+        <v>22.58097600954483</v>
       </c>
       <c r="I2" t="n">
-        <v>85.00457245043118</v>
+        <v>85.00457245043114</v>
       </c>
       <c r="J2" t="n">
-        <v>187.1384950655543</v>
+        <v>187.1384950655542</v>
       </c>
       <c r="K2" t="n">
-        <v>280.4720934528639</v>
+        <v>280.4720934528637</v>
       </c>
       <c r="L2" t="n">
-        <v>347.9504329672893</v>
+        <v>347.950432967289</v>
       </c>
       <c r="M2" t="n">
-        <v>387.1618995470274</v>
+        <v>387.1618995470271</v>
       </c>
       <c r="N2" t="n">
-        <v>393.4265838470024</v>
+        <v>393.4265838470022</v>
       </c>
       <c r="O2" t="n">
-        <v>371.501566862268</v>
+        <v>371.5015668622677</v>
       </c>
       <c r="P2" t="n">
-        <v>317.0679923244294</v>
+        <v>317.0679923244292</v>
       </c>
       <c r="Q2" t="n">
-        <v>238.1048576151092</v>
+        <v>238.1048576151091</v>
       </c>
       <c r="R2" t="n">
-        <v>138.5038187974683</v>
+        <v>138.5038187974682</v>
       </c>
       <c r="S2" t="n">
-        <v>50.24425639619223</v>
+        <v>50.24425639619219</v>
       </c>
       <c r="T2" t="n">
-        <v>9.651968507924579</v>
+        <v>9.651968507924574</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1763923428061601</v>
+        <v>0.17639234280616</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31123,46 +31123,46 @@
         <v>1.179727797435304</v>
       </c>
       <c r="H3" t="n">
-        <v>11.39368688575676</v>
+        <v>11.39368688575675</v>
       </c>
       <c r="I3" t="n">
-        <v>40.6178210959085</v>
+        <v>40.61782109590848</v>
       </c>
       <c r="J3" t="n">
-        <v>111.4584056340083</v>
+        <v>111.4584056340082</v>
       </c>
       <c r="K3" t="n">
-        <v>190.5001680621737</v>
+        <v>190.5001680621735</v>
       </c>
       <c r="L3" t="n">
-        <v>256.1509851405032</v>
+        <v>256.1509851405031</v>
       </c>
       <c r="M3" t="n">
-        <v>298.9161177975329</v>
+        <v>298.9161177975328</v>
       </c>
       <c r="N3" t="n">
-        <v>306.8275379829654</v>
+        <v>306.8275379829652</v>
       </c>
       <c r="O3" t="n">
-        <v>280.6872536292673</v>
+        <v>280.6872536292671</v>
       </c>
       <c r="P3" t="n">
-        <v>225.2762668628872</v>
+        <v>225.276266862887</v>
       </c>
       <c r="Q3" t="n">
-        <v>150.5912184936715</v>
+        <v>150.5912184936714</v>
       </c>
       <c r="R3" t="n">
-        <v>73.24660833550075</v>
+        <v>73.24660833550071</v>
       </c>
       <c r="S3" t="n">
-        <v>21.9129264128882</v>
+        <v>21.91292641288819</v>
       </c>
       <c r="T3" t="n">
-        <v>4.755130902820369</v>
+        <v>4.755130902820366</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07761367088390163</v>
+        <v>0.07761367088390157</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9890441557445819</v>
+        <v>0.9890441557445813</v>
       </c>
       <c r="H4" t="n">
-        <v>8.793501675620016</v>
+        <v>8.793501675620011</v>
       </c>
       <c r="I4" t="n">
-        <v>29.74325515639162</v>
+        <v>29.7432551563916</v>
       </c>
       <c r="J4" t="n">
-        <v>69.92542181114193</v>
+        <v>69.92542181114189</v>
       </c>
       <c r="K4" t="n">
-        <v>114.9089482765069</v>
+        <v>114.9089482765068</v>
       </c>
       <c r="L4" t="n">
-        <v>147.0438920276991</v>
+        <v>147.0438920276989</v>
       </c>
       <c r="M4" t="n">
-        <v>155.0371670682166</v>
+        <v>155.0371670682165</v>
       </c>
       <c r="N4" t="n">
-        <v>151.3507297604415</v>
+        <v>151.3507297604413</v>
       </c>
       <c r="O4" t="n">
-        <v>139.7968957592433</v>
+        <v>139.7968957592432</v>
       </c>
       <c r="P4" t="n">
-        <v>119.6203949820538</v>
+        <v>119.6203949820537</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.81896107784858</v>
+        <v>82.81896107784854</v>
       </c>
       <c r="R4" t="n">
-        <v>44.4710217664791</v>
+        <v>44.47102176647907</v>
       </c>
       <c r="S4" t="n">
-        <v>17.23634224147603</v>
+        <v>17.23634224147602</v>
       </c>
       <c r="T4" t="n">
-        <v>4.225915938181394</v>
+        <v>4.225915938181392</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05394786304061362</v>
+        <v>0.05394786304061359</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.432002671508275</v>
+        <v>2.204904285077002</v>
       </c>
       <c r="H8" t="n">
-        <v>35.14799735958413</v>
+        <v>22.58097600954485</v>
       </c>
       <c r="I8" t="n">
-        <v>132.3122829933229</v>
+        <v>85.00457245043118</v>
       </c>
       <c r="J8" t="n">
-        <v>291.2869367409257</v>
+        <v>187.1384950655543</v>
       </c>
       <c r="K8" t="n">
-        <v>436.5636098258711</v>
+        <v>280.4720934528639</v>
       </c>
       <c r="L8" t="n">
-        <v>541.5957615840426</v>
+        <v>347.9504329672893</v>
       </c>
       <c r="M8" t="n">
-        <v>602.6296390934779</v>
+        <v>387.1618995470274</v>
       </c>
       <c r="N8" t="n">
-        <v>612.3808166839008</v>
+        <v>393.4265838470024</v>
       </c>
       <c r="O8" t="n">
-        <v>578.2538401190903</v>
+        <v>371.501566862268</v>
       </c>
       <c r="P8" t="n">
-        <v>493.5262741662298</v>
+        <v>317.0679923244294</v>
       </c>
       <c r="Q8" t="n">
-        <v>370.6176784928395</v>
+        <v>238.1048576151092</v>
       </c>
       <c r="R8" t="n">
-        <v>215.5855378141319</v>
+        <v>138.5038187974683</v>
       </c>
       <c r="S8" t="n">
-        <v>78.20676087699491</v>
+        <v>50.24425639619223</v>
       </c>
       <c r="T8" t="n">
-        <v>15.02359169452748</v>
+        <v>9.651968507924579</v>
       </c>
       <c r="U8" t="n">
-        <v>0.274560213720662</v>
+        <v>0.1763923428061601</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.836283316175396</v>
+        <v>1.179727797435304</v>
       </c>
       <c r="H9" t="n">
-        <v>17.73463097464133</v>
+        <v>11.39368688575676</v>
       </c>
       <c r="I9" t="n">
-        <v>63.22291242095115</v>
+        <v>40.6178210959085</v>
       </c>
       <c r="J9" t="n">
-        <v>173.4885040076062</v>
+        <v>111.4584056340083</v>
       </c>
       <c r="K9" t="n">
-        <v>296.5194861913577</v>
+        <v>190.5001680621737</v>
       </c>
       <c r="L9" t="n">
-        <v>398.7070419616798</v>
+        <v>256.1509851405032</v>
       </c>
       <c r="M9" t="n">
-        <v>465.2723121730378</v>
+        <v>298.9161177975329</v>
       </c>
       <c r="N9" t="n">
-        <v>477.5866858152843</v>
+        <v>306.8275379829654</v>
       </c>
       <c r="O9" t="n">
-        <v>436.8985133884505</v>
+        <v>280.6872536292673</v>
       </c>
       <c r="P9" t="n">
-        <v>350.6495746475632</v>
+        <v>225.2762668628872</v>
       </c>
       <c r="Q9" t="n">
-        <v>234.3999545349506</v>
+        <v>150.5912184936715</v>
       </c>
       <c r="R9" t="n">
-        <v>114.0106430867496</v>
+        <v>73.24660833550075</v>
       </c>
       <c r="S9" t="n">
-        <v>34.10815721053859</v>
+        <v>21.9129264128882</v>
       </c>
       <c r="T9" t="n">
-        <v>7.401510384057843</v>
+        <v>4.755130902820369</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1208081129062761</v>
+        <v>0.07761367088390163</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.539478247526971</v>
+        <v>0.9890441557445819</v>
       </c>
       <c r="H10" t="n">
-        <v>13.68736114619435</v>
+        <v>8.793501675620016</v>
       </c>
       <c r="I10" t="n">
-        <v>46.29630948017475</v>
+        <v>29.74325515639162</v>
       </c>
       <c r="J10" t="n">
-        <v>108.8411121001569</v>
+        <v>69.92542181114193</v>
       </c>
       <c r="K10" t="n">
-        <v>178.8593818490426</v>
+        <v>114.9089482765069</v>
       </c>
       <c r="L10" t="n">
-        <v>228.8784296368736</v>
+        <v>147.0438920276991</v>
       </c>
       <c r="M10" t="n">
-        <v>241.3202129282506</v>
+        <v>155.0371670682166</v>
       </c>
       <c r="N10" t="n">
-        <v>235.5821576420139</v>
+        <v>151.3507297604415</v>
       </c>
       <c r="O10" t="n">
-        <v>217.5982526595396</v>
+        <v>139.7968957592433</v>
       </c>
       <c r="P10" t="n">
-        <v>186.1928964099892</v>
+        <v>119.6203949820538</v>
       </c>
       <c r="Q10" t="n">
-        <v>128.9103103451903</v>
+        <v>82.81896107784858</v>
       </c>
       <c r="R10" t="n">
-        <v>69.22054011153089</v>
+        <v>44.4710217664791</v>
       </c>
       <c r="S10" t="n">
-        <v>26.82890727735639</v>
+        <v>17.23634224147603</v>
       </c>
       <c r="T10" t="n">
-        <v>6.577770693978875</v>
+        <v>4.225915938181394</v>
       </c>
       <c r="U10" t="n">
-        <v>0.08397154077419852</v>
+        <v>0.05394786304061362</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31989,43 +31989,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I14" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J14" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T14" t="n">
         <v>19.1778794245112</v>
@@ -32074,40 +32074,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K15" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O15" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32147,13 +32147,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H16" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
@@ -32162,16 +32162,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M16" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P16" t="n">
         <v>237.6785118802169</v>
@@ -32180,16 +32180,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32472,7 +32472,7 @@
         <v>168.89895979748</v>
       </c>
       <c r="J20" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953992</v>
       </c>
       <c r="K20" t="n">
         <v>557.281137600381</v>
@@ -32809,7 +32809,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
@@ -33660,7 +33660,7 @@
         <v>371.8329054953988</v>
       </c>
       <c r="K35" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003801</v>
       </c>
       <c r="L35" t="n">
         <v>691.3565293623194</v>
@@ -33991,10 +33991,10 @@
         <v>557.708647897025</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
@@ -34228,7 +34228,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q42" t="n">
         <v>299.2156706987487</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H44" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I44" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J44" t="n">
-        <v>371.8329054953987</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
-        <v>557.2811376003808</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N44" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.0999946781688</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T44" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U44" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,46 +34438,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H45" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752254</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O45" t="n">
-        <v>557.7086478970248</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002938</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U45" t="n">
         <v>0.1542136840462215</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H46" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J46" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K46" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L46" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M46" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P46" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q46" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.092590538868052</v>
+        <v>6.092590538867938</v>
       </c>
       <c r="K2" t="n">
-        <v>60.38224240788333</v>
+        <v>60.38224240788315</v>
       </c>
       <c r="L2" t="n">
-        <v>112.184017997302</v>
+        <v>112.1840179973018</v>
       </c>
       <c r="M2" t="n">
-        <v>156.8156663197546</v>
+        <v>156.8156663197544</v>
       </c>
       <c r="N2" t="n">
-        <v>164.0135202504115</v>
+        <v>164.0135202504113</v>
       </c>
       <c r="O2" t="n">
-        <v>141.4033554405812</v>
+        <v>141.403355440581</v>
       </c>
       <c r="P2" t="n">
-        <v>85.8349965691599</v>
+        <v>85.83499656915967</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.79916774065975</v>
+        <v>15.79916774065958</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>52.65872908781469</v>
+        <v>52.65872908781455</v>
       </c>
       <c r="L3" t="n">
-        <v>117.596605360629</v>
+        <v>117.5966053606289</v>
       </c>
       <c r="M3" t="n">
-        <v>156.7820838755146</v>
+        <v>156.7820838755144</v>
       </c>
       <c r="N3" t="n">
-        <v>175.4858258996321</v>
+        <v>175.4858258996319</v>
       </c>
       <c r="O3" t="n">
-        <v>138.0910091848229</v>
+        <v>138.0910091848227</v>
       </c>
       <c r="P3" t="n">
-        <v>91.30185944855694</v>
+        <v>91.3018594485568</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.60944440764996</v>
+        <v>10.60944440764987</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34862,16 +34862,16 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>12.15921574646077</v>
+        <v>12.15921574646066</v>
       </c>
       <c r="M4" t="n">
-        <v>16.11138312061152</v>
+        <v>16.11138312061144</v>
       </c>
       <c r="N4" t="n">
-        <v>23.66518529520826</v>
+        <v>23.66518529520815</v>
       </c>
       <c r="O4" t="n">
-        <v>1.340357307400524</v>
+        <v>1.340357307400438</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>110.2410322142395</v>
+        <v>6.092590538868052</v>
       </c>
       <c r="K8" t="n">
-        <v>216.4737587808906</v>
+        <v>60.38224240788333</v>
       </c>
       <c r="L8" t="n">
-        <v>305.8293466140554</v>
+        <v>112.184017997302</v>
       </c>
       <c r="M8" t="n">
-        <v>372.2834058662052</v>
+        <v>156.8156663197546</v>
       </c>
       <c r="N8" t="n">
-        <v>382.9677530873099</v>
+        <v>164.0135202504115</v>
       </c>
       <c r="O8" t="n">
-        <v>348.1556286974036</v>
+        <v>141.4033554405812</v>
       </c>
       <c r="P8" t="n">
-        <v>262.2932784109602</v>
+        <v>85.8349965691599</v>
       </c>
       <c r="Q8" t="n">
-        <v>148.31198861839</v>
+        <v>15.79916774065975</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>46.6508773409395</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>158.6780472169987</v>
+        <v>52.65872908781469</v>
       </c>
       <c r="L9" t="n">
-        <v>260.1526621818056</v>
+        <v>117.596605360629</v>
       </c>
       <c r="M9" t="n">
-        <v>323.1382782510195</v>
+        <v>156.7820838755146</v>
       </c>
       <c r="N9" t="n">
-        <v>346.2449737319509</v>
+        <v>175.4858258996321</v>
       </c>
       <c r="O9" t="n">
-        <v>294.302268944006</v>
+        <v>138.0910091848229</v>
       </c>
       <c r="P9" t="n">
-        <v>216.6751672332329</v>
+        <v>91.30185944855694</v>
       </c>
       <c r="Q9" t="n">
-        <v>94.41818044892906</v>
+        <v>10.60944440764996</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>49.84612367850724</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>93.99375335563528</v>
+        <v>12.15921574646077</v>
       </c>
       <c r="M10" t="n">
-        <v>102.3944289806455</v>
+        <v>16.11138312061152</v>
       </c>
       <c r="N10" t="n">
-        <v>107.8966131767807</v>
+        <v>23.66518529520826</v>
       </c>
       <c r="O10" t="n">
-        <v>79.14171420769682</v>
+        <v>1.340357307400524</v>
       </c>
       <c r="P10" t="n">
-        <v>48.46489236084162</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K15" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P15" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K16" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L16" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M16" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N16" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O16" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P16" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q16" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -36120,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687129</v>
       </c>
       <c r="K20" t="n">
         <v>337.1912865554005</v>
@@ -36457,7 +36457,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -37308,7 +37308,7 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K35" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865553995</v>
       </c>
       <c r="L35" t="n">
         <v>455.5901143923322</v>
@@ -37639,10 +37639,10 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P39" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37876,7 +37876,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P42" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
         <v>159.2338966127272</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N44" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O44" t="n">
-        <v>508.0530008882189</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P44" t="n">
-        <v>398.7619862193715</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037193</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222467</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.62350453597702</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M45" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P45" t="n">
-        <v>313.6359509859635</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>11.94217529034283</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K46" t="n">
-        <v>99.30389319966696</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L46" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M46" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N46" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O46" t="n">
-        <v>139.3114638567572</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P46" t="n">
-        <v>99.95050783106922</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q46" t="n">
-        <v>13.05128016014211</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
